--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MARYLAND_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MARYLAND_2023.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D594"/>
+  <dimension ref="A1:D588"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,34 +360,34 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>AGUASCALIENTES</t>
+          <t>Aguascalientes</t>
         </is>
       </c>
       <c r="C2">
@@ -400,7 +400,7 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>ASIENTOS</t>
+          <t>Asientos</t>
         </is>
       </c>
       <c r="C3">
@@ -413,7 +413,7 @@
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>RINCÓN DE ROMOS</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C4">
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C5">
@@ -439,12 +439,12 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>BAJA CALIFORNIA</t>
+          <t>Baja California</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>ENSENADA</t>
+          <t>Ensenada</t>
         </is>
       </c>
       <c r="C6">
@@ -457,7 +457,7 @@
     <row r="7">
       <c r="B7" t="inlineStr">
         <is>
-          <t>MEXICALI</t>
+          <t>Mexicali</t>
         </is>
       </c>
       <c r="C7">
@@ -470,7 +470,7 @@
     <row r="8">
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIJUANA</t>
+          <t>Tijuana</t>
         </is>
       </c>
       <c r="C8">
@@ -483,7 +483,7 @@
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C9">
@@ -496,12 +496,12 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>CAMPECHE</t>
+          <t>Campeche</t>
         </is>
       </c>
       <c r="C10">
@@ -514,7 +514,7 @@
     <row r="11">
       <c r="B11" t="inlineStr">
         <is>
-          <t>CARMEN</t>
+          <t>Carmen</t>
         </is>
       </c>
       <c r="C11">
@@ -527,7 +527,7 @@
     <row r="12">
       <c r="B12" t="inlineStr">
         <is>
-          <t>CHAMPOTÓN</t>
+          <t>Champotón</t>
         </is>
       </c>
       <c r="C12">
@@ -540,7 +540,7 @@
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>ESCÁRCEGA</t>
+          <t>Escárcega</t>
         </is>
       </c>
       <c r="C13">
@@ -553,7 +553,7 @@
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>HOPELCHÉN</t>
+          <t>Hopelchén</t>
         </is>
       </c>
       <c r="C14">
@@ -566,7 +566,7 @@
     <row r="15">
       <c r="B15" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C15">
@@ -579,12 +579,12 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>CHIAPAS</t>
+          <t>Chiapas</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>ACACOYAGUA</t>
+          <t>Acacoyagua</t>
         </is>
       </c>
       <c r="C16">
@@ -597,7 +597,7 @@
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>ACAPETAHUA</t>
+          <t>Acapetahua</t>
         </is>
       </c>
       <c r="C17">
@@ -610,7 +610,7 @@
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C18">
@@ -623,7 +623,7 @@
     <row r="19">
       <c r="B19" t="inlineStr">
         <is>
-          <t>ALTAMIRANO</t>
+          <t>Altamirano</t>
         </is>
       </c>
       <c r="C19">
@@ -636,7 +636,7 @@
     <row r="20">
       <c r="B20" t="inlineStr">
         <is>
-          <t>AMATENANGO DE LA FRONTERA</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C20">
@@ -649,7 +649,7 @@
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>ANGEL ALBINO CORZO</t>
+          <t>Angel Albino Corzo</t>
         </is>
       </c>
       <c r="C21">
@@ -662,7 +662,7 @@
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>ARRIAGA</t>
+          <t>Arriaga</t>
         </is>
       </c>
       <c r="C22">
@@ -675,7 +675,7 @@
     <row r="23">
       <c r="B23" t="inlineStr">
         <is>
-          <t>CACAHOATÁN</t>
+          <t>Cacahoatán</t>
         </is>
       </c>
       <c r="C23">
@@ -688,7 +688,7 @@
     <row r="24">
       <c r="B24" t="inlineStr">
         <is>
-          <t>CHIAPA DE CORZO</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C24">
@@ -701,7 +701,7 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>CHICOMUSELO</t>
+          <t>Chicomuselo</t>
         </is>
       </c>
       <c r="C25">
@@ -714,7 +714,7 @@
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>CHILÓN</t>
+          <t>Chilón</t>
         </is>
       </c>
       <c r="C26">
@@ -727,7 +727,7 @@
     <row r="27">
       <c r="B27" t="inlineStr">
         <is>
-          <t>CINTALAPA</t>
+          <t>Cintalapa</t>
         </is>
       </c>
       <c r="C27">
@@ -740,7 +740,7 @@
     <row r="28">
       <c r="B28" t="inlineStr">
         <is>
-          <t>COMITÁN DE DOMÍNGUEZ</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C28">
@@ -753,7 +753,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>COPAINALÁ</t>
+          <t>Copainalá</t>
         </is>
       </c>
       <c r="C29">
@@ -766,7 +766,7 @@
     <row r="30">
       <c r="B30" t="inlineStr">
         <is>
-          <t>ESCUINTLA</t>
+          <t>Escuintla</t>
         </is>
       </c>
       <c r="C30">
@@ -779,7 +779,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>FRONTERA COMALAPA</t>
+          <t>Frontera Comalapa</t>
         </is>
       </c>
       <c r="C31">
@@ -792,7 +792,7 @@
     <row r="32">
       <c r="B32" t="inlineStr">
         <is>
-          <t>HUEHUETÁN</t>
+          <t>Huehuetán</t>
         </is>
       </c>
       <c r="C32">
@@ -805,7 +805,7 @@
     <row r="33">
       <c r="B33" t="inlineStr">
         <is>
-          <t>HUIXTLA</t>
+          <t>Huixtla</t>
         </is>
       </c>
       <c r="C33">
@@ -818,7 +818,7 @@
     <row r="34">
       <c r="B34" t="inlineStr">
         <is>
-          <t>JIQUIPILAS</t>
+          <t>Jiquipilas</t>
         </is>
       </c>
       <c r="C34">
@@ -831,7 +831,7 @@
     <row r="35">
       <c r="B35" t="inlineStr">
         <is>
-          <t>JITOTOL</t>
+          <t>Jitotol</t>
         </is>
       </c>
       <c r="C35">
@@ -844,7 +844,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>LA CONCORDIA</t>
+          <t>La Concordia</t>
         </is>
       </c>
       <c r="C36">
@@ -857,7 +857,7 @@
     <row r="37">
       <c r="B37" t="inlineStr">
         <is>
-          <t>LA INDEPENDENCIA</t>
+          <t>La Independencia</t>
         </is>
       </c>
       <c r="C37">
@@ -870,7 +870,7 @@
     <row r="38">
       <c r="B38" t="inlineStr">
         <is>
-          <t>LA TRINITARIA</t>
+          <t>La Trinitaria</t>
         </is>
       </c>
       <c r="C38">
@@ -883,7 +883,7 @@
     <row r="39">
       <c r="B39" t="inlineStr">
         <is>
-          <t>LAS MARGARITAS</t>
+          <t>Las Margaritas</t>
         </is>
       </c>
       <c r="C39">
@@ -896,7 +896,7 @@
     <row r="40">
       <c r="B40" t="inlineStr">
         <is>
-          <t>MAPASTEPEC</t>
+          <t>Mapastepec</t>
         </is>
       </c>
       <c r="C40">
@@ -909,7 +909,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>MARQUÉS DE COMILLAS</t>
+          <t>Marqués De Comillas</t>
         </is>
       </c>
       <c r="C41">
@@ -922,7 +922,7 @@
     <row r="42">
       <c r="B42" t="inlineStr">
         <is>
-          <t>MAZAPA DE MADERO</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C42">
@@ -935,7 +935,7 @@
     <row r="43">
       <c r="B43" t="inlineStr">
         <is>
-          <t>MOTOZINTLA</t>
+          <t>Motozintla</t>
         </is>
       </c>
       <c r="C43">
@@ -948,7 +948,7 @@
     <row r="44">
       <c r="B44" t="inlineStr">
         <is>
-          <t>OCOSINGO</t>
+          <t>Ocosingo</t>
         </is>
       </c>
       <c r="C44">
@@ -961,7 +961,7 @@
     <row r="45">
       <c r="B45" t="inlineStr">
         <is>
-          <t>OCOZOCOAUTLA DE ESPINOSA</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C45">
@@ -974,7 +974,7 @@
     <row r="46">
       <c r="B46" t="inlineStr">
         <is>
-          <t>PALENQUE</t>
+          <t>Palenque</t>
         </is>
       </c>
       <c r="C46">
@@ -987,7 +987,7 @@
     <row r="47">
       <c r="B47" t="inlineStr">
         <is>
-          <t>PANTELHÓ</t>
+          <t>Pantelhó</t>
         </is>
       </c>
       <c r="C47">
@@ -1000,7 +1000,7 @@
     <row r="48">
       <c r="B48" t="inlineStr">
         <is>
-          <t>PANTEPEC</t>
+          <t>Pantepec</t>
         </is>
       </c>
       <c r="C48">
@@ -1013,7 +1013,7 @@
     <row r="49">
       <c r="B49" t="inlineStr">
         <is>
-          <t>PIJIJIAPAN</t>
+          <t>Pijijiapan</t>
         </is>
       </c>
       <c r="C49">
@@ -1026,7 +1026,7 @@
     <row r="50">
       <c r="B50" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LAS CASAS</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C50">
@@ -1039,7 +1039,7 @@
     <row r="51">
       <c r="B51" t="inlineStr">
         <is>
-          <t>SILTEPEC</t>
+          <t>Siltepec</t>
         </is>
       </c>
       <c r="C51">
@@ -1052,7 +1052,7 @@
     <row r="52">
       <c r="B52" t="inlineStr">
         <is>
-          <t>SUCHIATE</t>
+          <t>Suchiate</t>
         </is>
       </c>
       <c r="C52">
@@ -1065,7 +1065,7 @@
     <row r="53">
       <c r="B53" t="inlineStr">
         <is>
-          <t>TAPACHULA</t>
+          <t>Tapachula</t>
         </is>
       </c>
       <c r="C53">
@@ -1078,7 +1078,7 @@
     <row r="54">
       <c r="B54" t="inlineStr">
         <is>
-          <t>TAPILULA</t>
+          <t>Tapilula</t>
         </is>
       </c>
       <c r="C54">
@@ -1091,7 +1091,7 @@
     <row r="55">
       <c r="B55" t="inlineStr">
         <is>
-          <t>TECPATÁN</t>
+          <t>Tecpatán</t>
         </is>
       </c>
       <c r="C55">
@@ -1104,7 +1104,7 @@
     <row r="56">
       <c r="B56" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C56">
@@ -1117,7 +1117,7 @@
     <row r="57">
       <c r="B57" t="inlineStr">
         <is>
-          <t>TUXTLA CHICO</t>
+          <t>Tuxtla Chico</t>
         </is>
       </c>
       <c r="C57">
@@ -1130,7 +1130,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>TUXTLA GUTIÉRREZ</t>
+          <t>Tuxtla Gutiérrez</t>
         </is>
       </c>
       <c r="C58">
@@ -1143,7 +1143,7 @@
     <row r="59">
       <c r="B59" t="inlineStr">
         <is>
-          <t>TUZANTÁN</t>
+          <t>Tuzantán</t>
         </is>
       </c>
       <c r="C59">
@@ -1156,7 +1156,7 @@
     <row r="60">
       <c r="B60" t="inlineStr">
         <is>
-          <t>UNIÓN JUÁREZ</t>
+          <t>Unión Juárez</t>
         </is>
       </c>
       <c r="C60">
@@ -1169,7 +1169,7 @@
     <row r="61">
       <c r="B61" t="inlineStr">
         <is>
-          <t>VILLA COMALTITLÁN</t>
+          <t>Villa Comaltitlán</t>
         </is>
       </c>
       <c r="C61">
@@ -1182,7 +1182,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>VILLA CORZO</t>
+          <t>Villa Corzo</t>
         </is>
       </c>
       <c r="C62">
@@ -1195,7 +1195,7 @@
     <row r="63">
       <c r="B63" t="inlineStr">
         <is>
-          <t>VILLAFLORES</t>
+          <t>Villaflores</t>
         </is>
       </c>
       <c r="C63">
@@ -1208,7 +1208,7 @@
     <row r="64">
       <c r="B64" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C64">
@@ -1221,12 +1221,12 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>CHIHUAHUA</t>
+          <t>Chihuahua</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>ASCENSIÓN</t>
+          <t>Ascensión</t>
         </is>
       </c>
       <c r="C65">
@@ -1239,7 +1239,7 @@
     <row r="66">
       <c r="B66" t="inlineStr">
         <is>
-          <t>DELICIAS</t>
+          <t>Delicias</t>
         </is>
       </c>
       <c r="C66">
@@ -1252,7 +1252,7 @@
     <row r="67">
       <c r="B67" t="inlineStr">
         <is>
-          <t>ROSALES</t>
+          <t>Rosales</t>
         </is>
       </c>
       <c r="C67">
@@ -1265,7 +1265,7 @@
     <row r="68">
       <c r="B68" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C68">
@@ -1278,12 +1278,12 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>CIUDAD DE MÉXICO</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>AZCAPOTZALCO</t>
+          <t>Azcapotzalco</t>
         </is>
       </c>
       <c r="C69">
@@ -1296,7 +1296,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>BENITO JUÁREZ</t>
+          <t>Benito Juárez</t>
         </is>
       </c>
       <c r="C70">
@@ -1309,7 +1309,7 @@
     <row r="71">
       <c r="B71" t="inlineStr">
         <is>
-          <t>COYOACÁN</t>
+          <t>Coyoacán</t>
         </is>
       </c>
       <c r="C71">
@@ -1322,7 +1322,7 @@
     <row r="72">
       <c r="B72" t="inlineStr">
         <is>
-          <t>CUAJIMALPA DE MORELOS</t>
+          <t>Cuajimalpa De Morelos</t>
         </is>
       </c>
       <c r="C72">
@@ -1335,7 +1335,7 @@
     <row r="73">
       <c r="B73" t="inlineStr">
         <is>
-          <t>CUAUHTÉMOC</t>
+          <t>Cuauhtémoc</t>
         </is>
       </c>
       <c r="C73">
@@ -1348,7 +1348,7 @@
     <row r="74">
       <c r="B74" t="inlineStr">
         <is>
-          <t>GUSTAVO A. MADERO</t>
+          <t>Gustavo A. Madero</t>
         </is>
       </c>
       <c r="C74">
@@ -1361,7 +1361,7 @@
     <row r="75">
       <c r="B75" t="inlineStr">
         <is>
-          <t>IZTACALCO</t>
+          <t>Iztacalco</t>
         </is>
       </c>
       <c r="C75">
@@ -1374,7 +1374,7 @@
     <row r="76">
       <c r="B76" t="inlineStr">
         <is>
-          <t>IZTAPALAPA</t>
+          <t>Iztapalapa</t>
         </is>
       </c>
       <c r="C76">
@@ -1387,7 +1387,7 @@
     <row r="77">
       <c r="B77" t="inlineStr">
         <is>
-          <t>MIGUEL HIDALGO</t>
+          <t>Miguel Hidalgo</t>
         </is>
       </c>
       <c r="C77">
@@ -1400,7 +1400,7 @@
     <row r="78">
       <c r="B78" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C78">
@@ -1413,7 +1413,7 @@
     <row r="79">
       <c r="B79" t="inlineStr">
         <is>
-          <t>TLALPAN</t>
+          <t>Tlalpan</t>
         </is>
       </c>
       <c r="C79">
@@ -1426,7 +1426,7 @@
     <row r="80">
       <c r="B80" t="inlineStr">
         <is>
-          <t>TLÁHUAC</t>
+          <t>Tláhuac</t>
         </is>
       </c>
       <c r="C80">
@@ -1439,7 +1439,7 @@
     <row r="81">
       <c r="B81" t="inlineStr">
         <is>
-          <t>VENUSTIANO CARRANZA</t>
+          <t>Venustiano Carranza</t>
         </is>
       </c>
       <c r="C81">
@@ -1452,7 +1452,7 @@
     <row r="82">
       <c r="B82" t="inlineStr">
         <is>
-          <t>XOCHIMILCO</t>
+          <t>Xochimilco</t>
         </is>
       </c>
       <c r="C82">
@@ -1465,7 +1465,7 @@
     <row r="83">
       <c r="B83" t="inlineStr">
         <is>
-          <t>ÁLVARO OBREGÓN</t>
+          <t>Álvaro Obregón</t>
         </is>
       </c>
       <c r="C83">
@@ -1478,7 +1478,7 @@
     <row r="84">
       <c r="B84" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C84">
@@ -1491,12 +1491,12 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>COAHUILA DE ZARAGOZA</t>
+          <t>Coahuila De Zaragoza</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>MONCLOVA</t>
+          <t>Monclova</t>
         </is>
       </c>
       <c r="C85">
@@ -1509,7 +1509,7 @@
     <row r="86">
       <c r="B86" t="inlineStr">
         <is>
-          <t>PIEDRAS NEGRAS</t>
+          <t>Piedras Negras</t>
         </is>
       </c>
       <c r="C86">
@@ -1522,7 +1522,7 @@
     <row r="87">
       <c r="B87" t="inlineStr">
         <is>
-          <t>SABINAS</t>
+          <t>Sabinas</t>
         </is>
       </c>
       <c r="C87">
@@ -1535,7 +1535,7 @@
     <row r="88">
       <c r="B88" t="inlineStr">
         <is>
-          <t>SAN PEDRO</t>
+          <t>San Pedro</t>
         </is>
       </c>
       <c r="C88">
@@ -1548,7 +1548,7 @@
     <row r="89">
       <c r="B89" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C89">
@@ -1561,12 +1561,12 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>COLIMA</t>
+          <t>Colima</t>
         </is>
       </c>
       <c r="C90">
@@ -1579,7 +1579,7 @@
     <row r="91">
       <c r="B91" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C91">
@@ -1592,12 +1592,12 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>CANATLÁN</t>
+          <t>Canatlán</t>
         </is>
       </c>
       <c r="C92">
@@ -1610,7 +1610,7 @@
     <row r="93">
       <c r="B93" t="inlineStr">
         <is>
-          <t>DURANGO</t>
+          <t>Durango</t>
         </is>
       </c>
       <c r="C93">
@@ -1623,7 +1623,7 @@
     <row r="94">
       <c r="B94" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C94">
@@ -1636,7 +1636,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>GUANACEVÍ</t>
+          <t>Guanaceví</t>
         </is>
       </c>
       <c r="C95">
@@ -1649,7 +1649,7 @@
     <row r="96">
       <c r="B96" t="inlineStr">
         <is>
-          <t>LERDO</t>
+          <t>Lerdo</t>
         </is>
       </c>
       <c r="C96">
@@ -1662,7 +1662,7 @@
     <row r="97">
       <c r="B97" t="inlineStr">
         <is>
-          <t>SAN BERNARDO</t>
+          <t>San Bernardo</t>
         </is>
       </c>
       <c r="C97">
@@ -1675,7 +1675,7 @@
     <row r="98">
       <c r="B98" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C98">
@@ -1688,7 +1688,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C99">
@@ -1701,12 +1701,12 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>ESTADO DE MÉXICO</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>ACAMBAY DE RUÍZ CASTAÑEDA</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C100">
@@ -1719,7 +1719,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>ACOLMAN</t>
+          <t>Acolman</t>
         </is>
       </c>
       <c r="C101">
@@ -1732,7 +1732,7 @@
     <row r="102">
       <c r="B102" t="inlineStr">
         <is>
-          <t>ACULCO</t>
+          <t>Aculco</t>
         </is>
       </c>
       <c r="C102">
@@ -1745,7 +1745,7 @@
     <row r="103">
       <c r="B103" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE ALQUISIRAS</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C103">
@@ -1758,7 +1758,7 @@
     <row r="104">
       <c r="B104" t="inlineStr">
         <is>
-          <t>ALMOLOYA DE JUÁREZ</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C104">
@@ -1771,7 +1771,7 @@
     <row r="105">
       <c r="B105" t="inlineStr">
         <is>
-          <t>AMATEPEC</t>
+          <t>Amatepec</t>
         </is>
       </c>
       <c r="C105">
@@ -1784,7 +1784,7 @@
     <row r="106">
       <c r="B106" t="inlineStr">
         <is>
-          <t>ATLACOMULCO</t>
+          <t>Atlacomulco</t>
         </is>
       </c>
       <c r="C106">
@@ -1797,7 +1797,7 @@
     <row r="107">
       <c r="B107" t="inlineStr">
         <is>
-          <t>CHALCO</t>
+          <t>Chalco</t>
         </is>
       </c>
       <c r="C107">
@@ -1810,7 +1810,7 @@
     <row r="108">
       <c r="B108" t="inlineStr">
         <is>
-          <t>CHIMALHUACÁN</t>
+          <t>Chimalhuacán</t>
         </is>
       </c>
       <c r="C108">
@@ -1823,7 +1823,7 @@
     <row r="109">
       <c r="B109" t="inlineStr">
         <is>
-          <t>COACALCO DE BERRIOZÁBAL</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C109">
@@ -1836,7 +1836,7 @@
     <row r="110">
       <c r="B110" t="inlineStr">
         <is>
-          <t>COATEPEC HARINAS</t>
+          <t>Coatepec Harinas</t>
         </is>
       </c>
       <c r="C110">
@@ -1849,7 +1849,7 @@
     <row r="111">
       <c r="B111" t="inlineStr">
         <is>
-          <t>CUAUTITLÁN IZCALLI</t>
+          <t>Cuautitlán Izcalli</t>
         </is>
       </c>
       <c r="C111">
@@ -1862,7 +1862,7 @@
     <row r="112">
       <c r="B112" t="inlineStr">
         <is>
-          <t>ECATEPEC DE MORELOS</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C112">
@@ -1875,7 +1875,7 @@
     <row r="113">
       <c r="B113" t="inlineStr">
         <is>
-          <t>EL ORO</t>
+          <t>El Oro</t>
         </is>
       </c>
       <c r="C113">
@@ -1888,7 +1888,7 @@
     <row r="114">
       <c r="B114" t="inlineStr">
         <is>
-          <t>IXTAPALUCA</t>
+          <t>Ixtapaluca</t>
         </is>
       </c>
       <c r="C114">
@@ -1901,7 +1901,7 @@
     <row r="115">
       <c r="B115" t="inlineStr">
         <is>
-          <t>IXTAPAN DE LA SAL</t>
+          <t>Ixtapan De La Sal</t>
         </is>
       </c>
       <c r="C115">
@@ -1914,7 +1914,7 @@
     <row r="116">
       <c r="B116" t="inlineStr">
         <is>
-          <t>JILOTEPEC</t>
+          <t>Jilotepec</t>
         </is>
       </c>
       <c r="C116">
@@ -1927,7 +1927,7 @@
     <row r="117">
       <c r="B117" t="inlineStr">
         <is>
-          <t>JIQUIPILCO</t>
+          <t>Jiquipilco</t>
         </is>
       </c>
       <c r="C117">
@@ -1940,7 +1940,7 @@
     <row r="118">
       <c r="B118" t="inlineStr">
         <is>
-          <t>JOQUICINGO</t>
+          <t>Joquicingo</t>
         </is>
       </c>
       <c r="C118">
@@ -1953,7 +1953,7 @@
     <row r="119">
       <c r="B119" t="inlineStr">
         <is>
-          <t>JUCHITEPEC</t>
+          <t>Juchitepec</t>
         </is>
       </c>
       <c r="C119">
@@ -1966,7 +1966,7 @@
     <row r="120">
       <c r="B120" t="inlineStr">
         <is>
-          <t>LUVIANOS</t>
+          <t>Luvianos</t>
         </is>
       </c>
       <c r="C120">
@@ -1979,7 +1979,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>MALINALCO</t>
+          <t>Malinalco</t>
         </is>
       </c>
       <c r="C121">
@@ -1992,7 +1992,7 @@
     <row r="122">
       <c r="B122" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="C122">
@@ -2005,7 +2005,7 @@
     <row r="123">
       <c r="B123" t="inlineStr">
         <is>
-          <t>NAUCALPAN DE JUÁREZ</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C123">
@@ -2018,7 +2018,7 @@
     <row r="124">
       <c r="B124" t="inlineStr">
         <is>
-          <t>NEZAHUALCÓYOTL</t>
+          <t>Nezahualcóyotl</t>
         </is>
       </c>
       <c r="C124">
@@ -2031,7 +2031,7 @@
     <row r="125">
       <c r="B125" t="inlineStr">
         <is>
-          <t>NICOLÁS ROMERO</t>
+          <t>Nicolás Romero</t>
         </is>
       </c>
       <c r="C125">
@@ -2044,7 +2044,7 @@
     <row r="126">
       <c r="B126" t="inlineStr">
         <is>
-          <t>SAN FELIPE DEL PROGRESO</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C126">
@@ -2057,7 +2057,7 @@
     <row r="127">
       <c r="B127" t="inlineStr">
         <is>
-          <t>SAN JOSÉ DEL RINCÓN</t>
+          <t>San José Del Rincón</t>
         </is>
       </c>
       <c r="C127">
@@ -2070,7 +2070,7 @@
     <row r="128">
       <c r="B128" t="inlineStr">
         <is>
-          <t>TEJUPILCO</t>
+          <t>Tejupilco</t>
         </is>
       </c>
       <c r="C128">
@@ -2083,7 +2083,7 @@
     <row r="129">
       <c r="B129" t="inlineStr">
         <is>
-          <t>TEMASCALCINGO</t>
+          <t>Temascalcingo</t>
         </is>
       </c>
       <c r="C129">
@@ -2096,7 +2096,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C130">
@@ -2109,7 +2109,7 @@
     <row r="131">
       <c r="B131" t="inlineStr">
         <is>
-          <t>TENANGO DEL VALLE</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C131">
@@ -2122,7 +2122,7 @@
     <row r="132">
       <c r="B132" t="inlineStr">
         <is>
-          <t>TEPETLAOXTOC</t>
+          <t>Tepetlaoxtoc</t>
         </is>
       </c>
       <c r="C132">
@@ -2135,7 +2135,7 @@
     <row r="133">
       <c r="B133" t="inlineStr">
         <is>
-          <t>TEPETLIXPA</t>
+          <t>Tepetlixpa</t>
         </is>
       </c>
       <c r="C133">
@@ -2148,7 +2148,7 @@
     <row r="134">
       <c r="B134" t="inlineStr">
         <is>
-          <t>TEPOTZOTLÁN</t>
+          <t>Tepotzotlán</t>
         </is>
       </c>
       <c r="C134">
@@ -2161,7 +2161,7 @@
     <row r="135">
       <c r="B135" t="inlineStr">
         <is>
-          <t>TEXCOCO</t>
+          <t>Texcoco</t>
         </is>
       </c>
       <c r="C135">
@@ -2174,7 +2174,7 @@
     <row r="136">
       <c r="B136" t="inlineStr">
         <is>
-          <t>TLALNEPANTLA DE BAZ</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C136">
@@ -2187,7 +2187,7 @@
     <row r="137">
       <c r="B137" t="inlineStr">
         <is>
-          <t>TOLUCA</t>
+          <t>Toluca</t>
         </is>
       </c>
       <c r="C137">
@@ -2200,7 +2200,7 @@
     <row r="138">
       <c r="B138" t="inlineStr">
         <is>
-          <t>VALLE DE BRAVO</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C138">
@@ -2213,7 +2213,7 @@
     <row r="139">
       <c r="B139" t="inlineStr">
         <is>
-          <t>VILLA DE ALLENDE</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C139">
@@ -2226,7 +2226,7 @@
     <row r="140">
       <c r="B140" t="inlineStr">
         <is>
-          <t>VILLA DEL CARBÓN</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C140">
@@ -2239,7 +2239,7 @@
     <row r="141">
       <c r="B141" t="inlineStr">
         <is>
-          <t>VILLA VICTORIA</t>
+          <t>Villa Victoria</t>
         </is>
       </c>
       <c r="C141">
@@ -2252,7 +2252,7 @@
     <row r="142">
       <c r="B142" t="inlineStr">
         <is>
-          <t>XONACATLÁN</t>
+          <t>Xonacatlán</t>
         </is>
       </c>
       <c r="C142">
@@ -2265,7 +2265,7 @@
     <row r="143">
       <c r="B143" t="inlineStr">
         <is>
-          <t>ZINACANTEPEC</t>
+          <t>Zinacantepec</t>
         </is>
       </c>
       <c r="C143">
@@ -2278,7 +2278,7 @@
     <row r="144">
       <c r="B144" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C144">
@@ -2291,12 +2291,12 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>ABASOLO</t>
+          <t>Abasolo</t>
         </is>
       </c>
       <c r="C145">
@@ -2309,7 +2309,7 @@
     <row r="146">
       <c r="B146" t="inlineStr">
         <is>
-          <t>ACÁMBARO</t>
+          <t>Acámbaro</t>
         </is>
       </c>
       <c r="C146">
@@ -2322,7 +2322,7 @@
     <row r="147">
       <c r="B147" t="inlineStr">
         <is>
-          <t>APASEO EL ALTO</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C147">
@@ -2335,7 +2335,7 @@
     <row r="148">
       <c r="B148" t="inlineStr">
         <is>
-          <t>ATARJEA</t>
+          <t>Atarjea</t>
         </is>
       </c>
       <c r="C148">
@@ -2348,7 +2348,7 @@
     <row r="149">
       <c r="B149" t="inlineStr">
         <is>
-          <t>CELAYA</t>
+          <t>Celaya</t>
         </is>
       </c>
       <c r="C149">
@@ -2361,7 +2361,7 @@
     <row r="150">
       <c r="B150" t="inlineStr">
         <is>
-          <t>COMONFORT</t>
+          <t>Comonfort</t>
         </is>
       </c>
       <c r="C150">
@@ -2374,7 +2374,7 @@
     <row r="151">
       <c r="B151" t="inlineStr">
         <is>
-          <t>CORTAZAR</t>
+          <t>Cortazar</t>
         </is>
       </c>
       <c r="C151">
@@ -2387,7 +2387,7 @@
     <row r="152">
       <c r="B152" t="inlineStr">
         <is>
-          <t>DOLORES HIDALGO CUNA DE LA INDEPENDENCIA NACIONAL</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C152">
@@ -2400,7 +2400,7 @@
     <row r="153">
       <c r="B153" t="inlineStr">
         <is>
-          <t>GUANAJUATO</t>
+          <t>Guanajuato</t>
         </is>
       </c>
       <c r="C153">
@@ -2413,7 +2413,7 @@
     <row r="154">
       <c r="B154" t="inlineStr">
         <is>
-          <t>IRAPUATO</t>
+          <t>Irapuato</t>
         </is>
       </c>
       <c r="C154">
@@ -2426,7 +2426,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>JARAL DEL PROGRESO</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C155">
@@ -2439,7 +2439,7 @@
     <row r="156">
       <c r="B156" t="inlineStr">
         <is>
-          <t>JERÉCUARO</t>
+          <t>Jerécuaro</t>
         </is>
       </c>
       <c r="C156">
@@ -2452,7 +2452,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>LEÓN</t>
+          <t>León</t>
         </is>
       </c>
       <c r="C157">
@@ -2465,7 +2465,7 @@
     <row r="158">
       <c r="B158" t="inlineStr">
         <is>
-          <t>MANUEL DOBLADO</t>
+          <t>Manuel Doblado</t>
         </is>
       </c>
       <c r="C158">
@@ -2478,7 +2478,7 @@
     <row r="159">
       <c r="B159" t="inlineStr">
         <is>
-          <t>PURÍSIMA DEL RINCÓN</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C159">
@@ -2491,7 +2491,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>PÉNJAMO</t>
+          <t>Pénjamo</t>
         </is>
       </c>
       <c r="C160">
@@ -2504,7 +2504,7 @@
     <row r="161">
       <c r="B161" t="inlineStr">
         <is>
-          <t>SAN DIEGO DE LA UNIÓN</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C161">
@@ -2517,7 +2517,7 @@
     <row r="162">
       <c r="B162" t="inlineStr">
         <is>
-          <t>SAN FELIPE</t>
+          <t>San Felipe</t>
         </is>
       </c>
       <c r="C162">
@@ -2530,7 +2530,7 @@
     <row r="163">
       <c r="B163" t="inlineStr">
         <is>
-          <t>SAN JOSÉ ITURBIDE</t>
+          <t>San José Iturbide</t>
         </is>
       </c>
       <c r="C163">
@@ -2543,7 +2543,7 @@
     <row r="164">
       <c r="B164" t="inlineStr">
         <is>
-          <t>SAN LUIS DE LA PAZ</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C164">
@@ -2556,7 +2556,7 @@
     <row r="165">
       <c r="B165" t="inlineStr">
         <is>
-          <t>SAN MIGUEL DE ALLENDE</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C165">
@@ -2569,7 +2569,7 @@
     <row r="166">
       <c r="B166" t="inlineStr">
         <is>
-          <t>SANTA CRUZ DE JUVENTINO ROSAS</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C166">
@@ -2582,7 +2582,7 @@
     <row r="167">
       <c r="B167" t="inlineStr">
         <is>
-          <t>SILAO DE LA VICTORIA</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C167">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>TARIMORO</t>
+          <t>Tarimoro</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C169">
@@ -2621,7 +2621,7 @@
     <row r="170">
       <c r="B170" t="inlineStr">
         <is>
-          <t>VALLE DE SANTIAGO</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C170">
@@ -2634,7 +2634,7 @@
     <row r="171">
       <c r="B171" t="inlineStr">
         <is>
-          <t>YURIRIA</t>
+          <t>Yuriria</t>
         </is>
       </c>
       <c r="C171">
@@ -2647,7 +2647,7 @@
     <row r="172">
       <c r="B172" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C172">
@@ -2660,12 +2660,12 @@
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>GUERRERO</t>
+          <t>Guerrero</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>ACAPULCO DE JUÁREZ</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C173">
@@ -2678,7 +2678,7 @@
     <row r="174">
       <c r="B174" t="inlineStr">
         <is>
-          <t>ACATEPEC</t>
+          <t>Acatepec</t>
         </is>
       </c>
       <c r="C174">
@@ -2691,7 +2691,7 @@
     <row r="175">
       <c r="B175" t="inlineStr">
         <is>
-          <t>AHUACUOTZINGO</t>
+          <t>Ahuacuotzingo</t>
         </is>
       </c>
       <c r="C175">
@@ -2704,7 +2704,7 @@
     <row r="176">
       <c r="B176" t="inlineStr">
         <is>
-          <t>ARCELIA</t>
+          <t>Arcelia</t>
         </is>
       </c>
       <c r="C176">
@@ -2717,7 +2717,7 @@
     <row r="177">
       <c r="B177" t="inlineStr">
         <is>
-          <t>ATLAMAJALCINGO DEL MONTE</t>
+          <t>Atlamajalcingo Del Monte</t>
         </is>
       </c>
       <c r="C177">
@@ -2730,7 +2730,7 @@
     <row r="178">
       <c r="B178" t="inlineStr">
         <is>
-          <t>AYUTLA DE LOS LIBRES</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C178">
@@ -2743,7 +2743,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>AZOYÚ</t>
+          <t>Azoyú</t>
         </is>
       </c>
       <c r="C179">
@@ -2756,7 +2756,7 @@
     <row r="180">
       <c r="B180" t="inlineStr">
         <is>
-          <t>COAHUAYUTLA DE JOSÉ MARÍA IZAZAGA</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C180">
@@ -2769,7 +2769,7 @@
     <row r="181">
       <c r="B181" t="inlineStr">
         <is>
-          <t>COCHOAPA EL GRANDE</t>
+          <t>Cochoapa El Grande</t>
         </is>
       </c>
       <c r="C181">
@@ -2782,7 +2782,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>COYUCA DE BENÍTEZ</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C182">
@@ -2795,7 +2795,7 @@
     <row r="183">
       <c r="B183" t="inlineStr">
         <is>
-          <t>CUAJINICUILAPA</t>
+          <t>Cuajinicuilapa</t>
         </is>
       </c>
       <c r="C183">
@@ -2808,7 +2808,7 @@
     <row r="184">
       <c r="B184" t="inlineStr">
         <is>
-          <t>CUAUTEPEC</t>
+          <t>Cuautepec</t>
         </is>
       </c>
       <c r="C184">
@@ -2821,7 +2821,7 @@
     <row r="185">
       <c r="B185" t="inlineStr">
         <is>
-          <t>CUTZAMALA DE PINZÓN</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C185">
@@ -2834,7 +2834,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>EDUARDO NERI</t>
+          <t>Eduardo Neri</t>
         </is>
       </c>
       <c r="C186">
@@ -2847,7 +2847,7 @@
     <row r="187">
       <c r="B187" t="inlineStr">
         <is>
-          <t>JUAN R. ESCUDERO</t>
+          <t>Juan R. Escudero</t>
         </is>
       </c>
       <c r="C187">
@@ -2860,7 +2860,7 @@
     <row r="188">
       <c r="B188" t="inlineStr">
         <is>
-          <t>MALINALTEPEC</t>
+          <t>Malinaltepec</t>
         </is>
       </c>
       <c r="C188">
@@ -2873,7 +2873,7 @@
     <row r="189">
       <c r="B189" t="inlineStr">
         <is>
-          <t>METLATÓNOC</t>
+          <t>Metlatónoc</t>
         </is>
       </c>
       <c r="C189">
@@ -2886,7 +2886,7 @@
     <row r="190">
       <c r="B190" t="inlineStr">
         <is>
-          <t>MÁRTIR DE CUILAPAN</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C190">
@@ -2899,7 +2899,7 @@
     <row r="191">
       <c r="B191" t="inlineStr">
         <is>
-          <t>OLINALÁ</t>
+          <t>Olinalá</t>
         </is>
       </c>
       <c r="C191">
@@ -2912,7 +2912,7 @@
     <row r="192">
       <c r="B192" t="inlineStr">
         <is>
-          <t>OMETEPEC</t>
+          <t>Ometepec</t>
         </is>
       </c>
       <c r="C192">
@@ -2925,7 +2925,7 @@
     <row r="193">
       <c r="B193" t="inlineStr">
         <is>
-          <t>PETATLÁN</t>
+          <t>Petatlán</t>
         </is>
       </c>
       <c r="C193">
@@ -2938,7 +2938,7 @@
     <row r="194">
       <c r="B194" t="inlineStr">
         <is>
-          <t>QUECHULTENANGO</t>
+          <t>Quechultenango</t>
         </is>
       </c>
       <c r="C194">
@@ -2951,7 +2951,7 @@
     <row r="195">
       <c r="B195" t="inlineStr">
         <is>
-          <t>SAN LUIS ACATLÁN</t>
+          <t>San Luis Acatlán</t>
         </is>
       </c>
       <c r="C195">
@@ -2964,7 +2964,7 @@
     <row r="196">
       <c r="B196" t="inlineStr">
         <is>
-          <t>SAN MARCOS</t>
+          <t>San Marcos</t>
         </is>
       </c>
       <c r="C196">
@@ -2977,7 +2977,7 @@
     <row r="197">
       <c r="B197" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TOTOLAPAN</t>
+          <t>San Miguel Totolapan</t>
         </is>
       </c>
       <c r="C197">
@@ -2990,7 +2990,7 @@
     <row r="198">
       <c r="B198" t="inlineStr">
         <is>
-          <t>TAXCO DE ALARCÓN</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C198">
@@ -3003,7 +3003,7 @@
     <row r="199">
       <c r="B199" t="inlineStr">
         <is>
-          <t>TECOANAPA</t>
+          <t>Tecoanapa</t>
         </is>
       </c>
       <c r="C199">
@@ -3016,7 +3016,7 @@
     <row r="200">
       <c r="B200" t="inlineStr">
         <is>
-          <t>TEPECOACUILCO DE TRUJANO</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C200">
@@ -3029,7 +3029,7 @@
     <row r="201">
       <c r="B201" t="inlineStr">
         <is>
-          <t>TIXTLA DE GUERRERO</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C201">
@@ -3042,7 +3042,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>TLACOACHISTLAHUACA</t>
+          <t>Tlacoachistlahuaca</t>
         </is>
       </c>
       <c r="C202">
@@ -3055,7 +3055,7 @@
     <row r="203">
       <c r="B203" t="inlineStr">
         <is>
-          <t>TLACOAPA</t>
+          <t>Tlacoapa</t>
         </is>
       </c>
       <c r="C203">
@@ -3068,7 +3068,7 @@
     <row r="204">
       <c r="B204" t="inlineStr">
         <is>
-          <t>TLALIXTAQUILLA DE MALDONADO</t>
+          <t>Tlalixtaquilla De Maldonado</t>
         </is>
       </c>
       <c r="C204">
@@ -3081,7 +3081,7 @@
     <row r="205">
       <c r="B205" t="inlineStr">
         <is>
-          <t>TLAPA DE COMONFORT</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C205">
@@ -3094,7 +3094,7 @@
     <row r="206">
       <c r="B206" t="inlineStr">
         <is>
-          <t>TÉCPAN DE GALEANA</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C206">
@@ -3107,7 +3107,7 @@
     <row r="207">
       <c r="B207" t="inlineStr">
         <is>
-          <t>XALPATLÁHUAC</t>
+          <t>Xalpatláhuac</t>
         </is>
       </c>
       <c r="C207">
@@ -3120,7 +3120,7 @@
     <row r="208">
       <c r="B208" t="inlineStr">
         <is>
-          <t>XOCHISTLAHUACA</t>
+          <t>Xochistlahuaca</t>
         </is>
       </c>
       <c r="C208">
@@ -3133,7 +3133,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>ZAPOTITLÁN TABLAS</t>
+          <t>Zapotitlán Tablas</t>
         </is>
       </c>
       <c r="C209">
@@ -3146,7 +3146,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>ZIHUATANEJO DE AZUETA</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C210">
@@ -3159,7 +3159,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C211">
@@ -3172,12 +3172,12 @@
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C212">
@@ -3190,7 +3190,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>ALFAJAYUCAN</t>
+          <t>Alfajayucan</t>
         </is>
       </c>
       <c r="C213">
@@ -3203,7 +3203,7 @@
     <row r="214">
       <c r="B214" t="inlineStr">
         <is>
-          <t>APAN</t>
+          <t>Apan</t>
         </is>
       </c>
       <c r="C214">
@@ -3216,7 +3216,7 @@
     <row r="215">
       <c r="B215" t="inlineStr">
         <is>
-          <t>ATOTONILCO EL GRANDE</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C215">
@@ -3229,7 +3229,7 @@
     <row r="216">
       <c r="B216" t="inlineStr">
         <is>
-          <t>CARDONAL</t>
+          <t>Cardonal</t>
         </is>
       </c>
       <c r="C216">
@@ -3242,7 +3242,7 @@
     <row r="217">
       <c r="B217" t="inlineStr">
         <is>
-          <t>CHAPULHUACÁN</t>
+          <t>Chapulhuacán</t>
         </is>
       </c>
       <c r="C217">
@@ -3255,7 +3255,7 @@
     <row r="218">
       <c r="B218" t="inlineStr">
         <is>
-          <t>EPAZOYUCAN</t>
+          <t>Epazoyucan</t>
         </is>
       </c>
       <c r="C218">
@@ -3268,7 +3268,7 @@
     <row r="219">
       <c r="B219" t="inlineStr">
         <is>
-          <t>HUEHUETLA</t>
+          <t>Huehuetla</t>
         </is>
       </c>
       <c r="C219">
@@ -3281,7 +3281,7 @@
     <row r="220">
       <c r="B220" t="inlineStr">
         <is>
-          <t>HUEJUTLA DE REYES</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C220">
@@ -3294,7 +3294,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>IXMIQUILPAN</t>
+          <t>Ixmiquilpan</t>
         </is>
       </c>
       <c r="C221">
@@ -3307,7 +3307,7 @@
     <row r="222">
       <c r="B222" t="inlineStr">
         <is>
-          <t>LOLOTLA</t>
+          <t>Lolotla</t>
         </is>
       </c>
       <c r="C222">
@@ -3320,7 +3320,7 @@
     <row r="223">
       <c r="B223" t="inlineStr">
         <is>
-          <t>METZTITLÁN</t>
+          <t>Metztitlán</t>
         </is>
       </c>
       <c r="C223">
@@ -3333,7 +3333,7 @@
     <row r="224">
       <c r="B224" t="inlineStr">
         <is>
-          <t>MINERAL DEL MONTE</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C224">
@@ -3346,7 +3346,7 @@
     <row r="225">
       <c r="B225" t="inlineStr">
         <is>
-          <t>MIXQUIAHUALA DE JUÁREZ</t>
+          <t>Mixquiahuala De Juárez</t>
         </is>
       </c>
       <c r="C225">
@@ -3359,7 +3359,7 @@
     <row r="226">
       <c r="B226" t="inlineStr">
         <is>
-          <t>OMITLÁN DE JUÁREZ</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C226">
@@ -3372,7 +3372,7 @@
     <row r="227">
       <c r="B227" t="inlineStr">
         <is>
-          <t>PACHUCA DE SOTO</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C227">
@@ -3385,7 +3385,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>PISAFLORES</t>
+          <t>Pisaflores</t>
         </is>
       </c>
       <c r="C228">
@@ -3398,7 +3398,7 @@
     <row r="229">
       <c r="B229" t="inlineStr">
         <is>
-          <t>PROGRESO DE OBREGÓN</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C229">
@@ -3411,7 +3411,7 @@
     <row r="230">
       <c r="B230" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN METZQUITITLÁN</t>
+          <t>San Agustín Metzquititlán</t>
         </is>
       </c>
       <c r="C230">
@@ -3424,7 +3424,7 @@
     <row r="231">
       <c r="B231" t="inlineStr">
         <is>
-          <t>SAN BARTOLO TUTOTEPEC</t>
+          <t>San Bartolo Tutotepec</t>
         </is>
       </c>
       <c r="C231">
@@ -3437,7 +3437,7 @@
     <row r="232">
       <c r="B232" t="inlineStr">
         <is>
-          <t>SAN FELIPE ORIZATLÁN</t>
+          <t>San Felipe Orizatlán</t>
         </is>
       </c>
       <c r="C232">
@@ -3450,7 +3450,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>SINGUILUCAN</t>
+          <t>Singuilucan</t>
         </is>
       </c>
       <c r="C233">
@@ -3463,7 +3463,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>TECOZAUTLA</t>
+          <t>Tecozautla</t>
         </is>
       </c>
       <c r="C234">
@@ -3476,7 +3476,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>TENANGO DE DORIA</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C235">
@@ -3489,7 +3489,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>TIANGUISTENGO</t>
+          <t>Tianguistengo</t>
         </is>
       </c>
       <c r="C236">
@@ -3502,7 +3502,7 @@
     <row r="237">
       <c r="B237" t="inlineStr">
         <is>
-          <t>TULA DE ALLENDE</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C237">
@@ -3515,7 +3515,7 @@
     <row r="238">
       <c r="B238" t="inlineStr">
         <is>
-          <t>TULANCINGO DE BRAVO</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C238">
@@ -3528,7 +3528,7 @@
     <row r="239">
       <c r="B239" t="inlineStr">
         <is>
-          <t>XOCHIATIPAN</t>
+          <t>Xochiatipan</t>
         </is>
       </c>
       <c r="C239">
@@ -3541,7 +3541,7 @@
     <row r="240">
       <c r="B240" t="inlineStr">
         <is>
-          <t>XOCHICOATLÁN</t>
+          <t>Xochicoatlán</t>
         </is>
       </c>
       <c r="C240">
@@ -3554,7 +3554,7 @@
     <row r="241">
       <c r="B241" t="inlineStr">
         <is>
-          <t>ZACUALTIPÁN DE ÁNGELES</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C241">
@@ -3567,7 +3567,7 @@
     <row r="242">
       <c r="B242" t="inlineStr">
         <is>
-          <t>ZAPOTLÁN DE JUÁREZ</t>
+          <t>Zapotlán De Juárez</t>
         </is>
       </c>
       <c r="C242">
@@ -3580,7 +3580,7 @@
     <row r="243">
       <c r="B243" t="inlineStr">
         <is>
-          <t>ZIMAPÁN</t>
+          <t>Zimapán</t>
         </is>
       </c>
       <c r="C243">
@@ -3593,7 +3593,7 @@
     <row r="244">
       <c r="B244" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C244">
@@ -3606,12 +3606,12 @@
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>JALISCO</t>
+          <t>Jalisco</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>ENCARNACIÓN DE DÍAZ</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C245">
@@ -3624,7 +3624,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>GUADALAJARA</t>
+          <t>Guadalajara</t>
         </is>
       </c>
       <c r="C246">
@@ -3637,7 +3637,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>JALOSTOTITLÁN</t>
+          <t>Jalostotitlán</t>
         </is>
       </c>
       <c r="C247">
@@ -3650,7 +3650,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>LA BARCA</t>
+          <t>La Barca</t>
         </is>
       </c>
       <c r="C248">
@@ -3663,7 +3663,7 @@
     <row r="249">
       <c r="B249" t="inlineStr">
         <is>
-          <t>LAGOS DE MORENO</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C249">
@@ -3676,7 +3676,7 @@
     <row r="250">
       <c r="B250" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C250">
@@ -3689,7 +3689,7 @@
     <row r="251">
       <c r="B251" t="inlineStr">
         <is>
-          <t>OCOTLÁN</t>
+          <t>Ocotlán</t>
         </is>
       </c>
       <c r="C251">
@@ -3702,7 +3702,7 @@
     <row r="252">
       <c r="B252" t="inlineStr">
         <is>
-          <t>PUERTO VALLARTA</t>
+          <t>Puerto Vallarta</t>
         </is>
       </c>
       <c r="C252">
@@ -3715,7 +3715,7 @@
     <row r="253">
       <c r="B253" t="inlineStr">
         <is>
-          <t>QUITUPAN</t>
+          <t>Quitupan</t>
         </is>
       </c>
       <c r="C253">
@@ -3728,7 +3728,7 @@
     <row r="254">
       <c r="B254" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL DE LA BARRANCA</t>
+          <t>San Cristóbal De La Barranca</t>
         </is>
       </c>
       <c r="C254">
@@ -3741,7 +3741,7 @@
     <row r="255">
       <c r="B255" t="inlineStr">
         <is>
-          <t>TECALITLÁN</t>
+          <t>Tecalitlán</t>
         </is>
       </c>
       <c r="C255">
@@ -3754,7 +3754,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>TEOCALTICHE</t>
+          <t>Teocaltiche</t>
         </is>
       </c>
       <c r="C256">
@@ -3767,7 +3767,7 @@
     <row r="257">
       <c r="B257" t="inlineStr">
         <is>
-          <t>TIZAPÁN EL ALTO</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C257">
@@ -3780,7 +3780,7 @@
     <row r="258">
       <c r="B258" t="inlineStr">
         <is>
-          <t>TONALÁ</t>
+          <t>Tonalá</t>
         </is>
       </c>
       <c r="C258">
@@ -3793,7 +3793,7 @@
     <row r="259">
       <c r="B259" t="inlineStr">
         <is>
-          <t>VILLA HIDALGO</t>
+          <t>Villa Hidalgo</t>
         </is>
       </c>
       <c r="C259">
@@ -3806,7 +3806,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>YAHUALICA DE GONZÁLEZ GALLO</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C260">
@@ -3819,7 +3819,7 @@
     <row r="261">
       <c r="B261" t="inlineStr">
         <is>
-          <t>ZAPOPAN</t>
+          <t>Zapopan</t>
         </is>
       </c>
       <c r="C261">
@@ -3832,7 +3832,7 @@
     <row r="262">
       <c r="B262" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C262">
@@ -3845,12 +3845,12 @@
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>MICHOACÁN DE OCAMPO</t>
+          <t>Michoacán De Ocampo</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>APATZINGÁN</t>
+          <t>Apatzingán</t>
         </is>
       </c>
       <c r="C263">
@@ -3863,7 +3863,7 @@
     <row r="264">
       <c r="B264" t="inlineStr">
         <is>
-          <t>AQUILA</t>
+          <t>Aquila</t>
         </is>
       </c>
       <c r="C264">
@@ -3876,7 +3876,7 @@
     <row r="265">
       <c r="B265" t="inlineStr">
         <is>
-          <t>CARÁCUARO</t>
+          <t>Carácuaro</t>
         </is>
       </c>
       <c r="C265">
@@ -3889,7 +3889,7 @@
     <row r="266">
       <c r="B266" t="inlineStr">
         <is>
-          <t>CHURUMUCO</t>
+          <t>Churumuco</t>
         </is>
       </c>
       <c r="C266">
@@ -3902,7 +3902,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>CONTEPEC</t>
+          <t>Contepec</t>
         </is>
       </c>
       <c r="C267">
@@ -3915,7 +3915,7 @@
     <row r="268">
       <c r="B268" t="inlineStr">
         <is>
-          <t>EPITACIO HUERTA</t>
+          <t>Epitacio Huerta</t>
         </is>
       </c>
       <c r="C268">
@@ -3928,7 +3928,7 @@
     <row r="269">
       <c r="B269" t="inlineStr">
         <is>
-          <t>HIDALGO</t>
+          <t>Hidalgo</t>
         </is>
       </c>
       <c r="C269">
@@ -3941,7 +3941,7 @@
     <row r="270">
       <c r="B270" t="inlineStr">
         <is>
-          <t>HUETAMO</t>
+          <t>Huetamo</t>
         </is>
       </c>
       <c r="C270">
@@ -3954,7 +3954,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>LÁZARO CÁRDENAS</t>
+          <t>Lázaro Cárdenas</t>
         </is>
       </c>
       <c r="C271">
@@ -3967,7 +3967,7 @@
     <row r="272">
       <c r="B272" t="inlineStr">
         <is>
-          <t>MARAVATÍO</t>
+          <t>Maravatío</t>
         </is>
       </c>
       <c r="C272">
@@ -3980,7 +3980,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>MORELIA</t>
+          <t>Morelia</t>
         </is>
       </c>
       <c r="C273">
@@ -3993,7 +3993,7 @@
     <row r="274">
       <c r="B274" t="inlineStr">
         <is>
-          <t>PARACHO</t>
+          <t>Paracho</t>
         </is>
       </c>
       <c r="C274">
@@ -4006,7 +4006,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>SAHUAYO</t>
+          <t>Sahuayo</t>
         </is>
       </c>
       <c r="C275">
@@ -4019,7 +4019,7 @@
     <row r="276">
       <c r="B276" t="inlineStr">
         <is>
-          <t>SENGUIO</t>
+          <t>Senguio</t>
         </is>
       </c>
       <c r="C276">
@@ -4032,7 +4032,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>TANCÍTARO</t>
+          <t>Tancítaro</t>
         </is>
       </c>
       <c r="C277">
@@ -4045,7 +4045,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>TLALPUJAHUA</t>
+          <t>Tlalpujahua</t>
         </is>
       </c>
       <c r="C278">
@@ -4058,7 +4058,7 @@
     <row r="279">
       <c r="B279" t="inlineStr">
         <is>
-          <t>TUMBISCATÍO</t>
+          <t>Tumbiscatío</t>
         </is>
       </c>
       <c r="C279">
@@ -4071,7 +4071,7 @@
     <row r="280">
       <c r="B280" t="inlineStr">
         <is>
-          <t>ZACAPU</t>
+          <t>Zacapu</t>
         </is>
       </c>
       <c r="C280">
@@ -4084,7 +4084,7 @@
     <row r="281">
       <c r="B281" t="inlineStr">
         <is>
-          <t>ZAMORA</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="C281">
@@ -4097,7 +4097,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>ZINAPÉCUARO</t>
+          <t>Zinapécuaro</t>
         </is>
       </c>
       <c r="C282">
@@ -4110,7 +4110,7 @@
     <row r="283">
       <c r="B283" t="inlineStr">
         <is>
-          <t>ZITÁCUARO</t>
+          <t>Zitácuaro</t>
         </is>
       </c>
       <c r="C283">
@@ -4123,7 +4123,7 @@
     <row r="284">
       <c r="B284" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C284">
@@ -4136,12 +4136,12 @@
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>MORELOS</t>
+          <t>Morelos</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>CUAUTLA</t>
+          <t>Cuautla</t>
         </is>
       </c>
       <c r="C285">
@@ -4154,7 +4154,7 @@
     <row r="286">
       <c r="B286" t="inlineStr">
         <is>
-          <t>CUERNAVACA</t>
+          <t>Cuernavaca</t>
         </is>
       </c>
       <c r="C286">
@@ -4167,7 +4167,7 @@
     <row r="287">
       <c r="B287" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C287">
@@ -4180,7 +4180,7 @@
     <row r="288">
       <c r="B288" t="inlineStr">
         <is>
-          <t>JANTETELCO</t>
+          <t>Jantetelco</t>
         </is>
       </c>
       <c r="C288">
@@ -4193,7 +4193,7 @@
     <row r="289">
       <c r="B289" t="inlineStr">
         <is>
-          <t>JIUTEPEC</t>
+          <t>Jiutepec</t>
         </is>
       </c>
       <c r="C289">
@@ -4206,7 +4206,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>JONACATEPEC</t>
+          <t>Jonacatepec</t>
         </is>
       </c>
       <c r="C290">
@@ -4219,7 +4219,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>PUENTE DE IXTLA</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C291">
@@ -4232,7 +4232,7 @@
     <row r="292">
       <c r="B292" t="inlineStr">
         <is>
-          <t>TEMOAC</t>
+          <t>Temoac</t>
         </is>
       </c>
       <c r="C292">
@@ -4245,7 +4245,7 @@
     <row r="293">
       <c r="B293" t="inlineStr">
         <is>
-          <t>TEPALCINGO</t>
+          <t>Tepalcingo</t>
         </is>
       </c>
       <c r="C293">
@@ -4258,7 +4258,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>TLAQUILTENANGO</t>
+          <t>Tlaquiltenango</t>
         </is>
       </c>
       <c r="C294">
@@ -4271,7 +4271,7 @@
     <row r="295">
       <c r="B295" t="inlineStr">
         <is>
-          <t>YECAPIXTLA</t>
+          <t>Yecapixtla</t>
         </is>
       </c>
       <c r="C295">
@@ -4284,7 +4284,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>ZACUALPAN DE AMILPAS</t>
+          <t>Zacualpan De Amilpas</t>
         </is>
       </c>
       <c r="C296">
@@ -4297,7 +4297,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C297">
@@ -4310,12 +4310,12 @@
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>NAYARIT</t>
+          <t>Nayarit</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>BAHÍA DE BANDERAS</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C298">
@@ -4328,7 +4328,7 @@
     <row r="299">
       <c r="B299" t="inlineStr">
         <is>
-          <t>SANTIAGO IXCUINTLA</t>
+          <t>Santiago Ixcuintla</t>
         </is>
       </c>
       <c r="C299">
@@ -4341,7 +4341,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C300">
@@ -4354,12 +4354,12 @@
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>NUEVO LEÓN</t>
+          <t>Nuevo León</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>LINARES</t>
+          <t>Linares</t>
         </is>
       </c>
       <c r="C301">
@@ -4372,7 +4372,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>MIER Y NORIEGA</t>
+          <t>Mier Y Noriega</t>
         </is>
       </c>
       <c r="C302">
@@ -4385,7 +4385,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>MONTERREY</t>
+          <t>Monterrey</t>
         </is>
       </c>
       <c r="C303">
@@ -4398,7 +4398,7 @@
     <row r="304">
       <c r="B304" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C304">
@@ -4411,12 +4411,12 @@
     <row r="305">
       <c r="A305" t="inlineStr">
         <is>
-          <t>OAXACA</t>
+          <t>Oaxaca</t>
         </is>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>AYOTZINTEPEC</t>
+          <t>Ayotzintepec</t>
         </is>
       </c>
       <c r="C305">
@@ -4429,7 +4429,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>CIUDAD IXTEPEC</t>
+          <t>Ciudad Ixtepec</t>
         </is>
       </c>
       <c r="C306">
@@ -4442,7 +4442,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>CUYAMECALCO VILLA DE ZARAGOZA</t>
+          <t>Cuyamecalco Villa De Zaragoza</t>
         </is>
       </c>
       <c r="C307">
@@ -4455,7 +4455,7 @@
     <row r="308">
       <c r="B308" t="inlineStr">
         <is>
-          <t>FRESNILLO DE TRUJANO</t>
+          <t>Fresnillo De Trujano</t>
         </is>
       </c>
       <c r="C308">
@@ -4468,7 +4468,7 @@
     <row r="309">
       <c r="B309" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE HUAJUAPAN DE LEÓN</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C309">
@@ -4481,7 +4481,7 @@
     <row r="310">
       <c r="B310" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE JUCHITÁN DE ZARAGOZA</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C310">
@@ -4494,7 +4494,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>HEROICA CIUDAD DE TLAXIACO</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C311">
@@ -4507,7 +4507,7 @@
     <row r="312">
       <c r="B312" t="inlineStr">
         <is>
-          <t>IXTLÁN DE JUÁREZ</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C312">
@@ -4520,7 +4520,7 @@
     <row r="313">
       <c r="B313" t="inlineStr">
         <is>
-          <t>MATÍAS ROMERO AVENDAÑO</t>
+          <t>Matías Romero Avendaño</t>
         </is>
       </c>
       <c r="C313">
@@ -4533,7 +4533,7 @@
     <row r="314">
       <c r="B314" t="inlineStr">
         <is>
-          <t>MESONES HIDALGO</t>
+          <t>Mesones Hidalgo</t>
         </is>
       </c>
       <c r="C314">
@@ -4546,7 +4546,7 @@
     <row r="315">
       <c r="B315" t="inlineStr">
         <is>
-          <t>MIAHUATLÁN DE PORFIRIO DÍAZ</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C315">
@@ -4559,7 +4559,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>MONJAS</t>
+          <t>Monjas</t>
         </is>
       </c>
       <c r="C316">
@@ -4572,7 +4572,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>OAXACA DE JUÁREZ</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C317">
@@ -4585,7 +4585,7 @@
     <row r="318">
       <c r="B318" t="inlineStr">
         <is>
-          <t>PLUMA HIDALGO</t>
+          <t>Pluma Hidalgo</t>
         </is>
       </c>
       <c r="C318">
@@ -4598,7 +4598,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>PUTLA VILLA DE GUERRERO</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C319">
@@ -4611,7 +4611,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>REFORMA DE PINEDA</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C320">
@@ -4624,7 +4624,7 @@
     <row r="321">
       <c r="B321" t="inlineStr">
         <is>
-          <t>SALINA CRUZ</t>
+          <t>Salina Cruz</t>
         </is>
       </c>
       <c r="C321">
@@ -4637,7 +4637,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>SAN AGUSTÍN CHAYUCO</t>
+          <t>San Agustín Chayuco</t>
         </is>
       </c>
       <c r="C322">
@@ -4650,7 +4650,7 @@
     <row r="323">
       <c r="B323" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS HUAXPALTEPEC</t>
+          <t>San Andrés Huaxpaltepec</t>
         </is>
       </c>
       <c r="C323">
@@ -4663,7 +4663,7 @@
     <row r="324">
       <c r="B324" t="inlineStr">
         <is>
-          <t>SAN CRISTÓBAL AMOLTEPEC</t>
+          <t>San Cristóbal Amoltepec</t>
         </is>
       </c>
       <c r="C324">
@@ -4676,7 +4676,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>SAN FELIPE USILA</t>
+          <t>San Felipe Usila</t>
         </is>
       </c>
       <c r="C325">
@@ -4689,7 +4689,7 @@
     <row r="326">
       <c r="B326" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO CHAPULAPA</t>
+          <t>San Francisco Chapulapa</t>
         </is>
       </c>
       <c r="C326">
@@ -4702,7 +4702,7 @@
     <row r="327">
       <c r="B327" t="inlineStr">
         <is>
-          <t>SAN FRANCISCO DEL MAR</t>
+          <t>San Francisco Del Mar</t>
         </is>
       </c>
       <c r="C327">
@@ -4715,7 +4715,7 @@
     <row r="328">
       <c r="B328" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA JAYACATLÁN</t>
+          <t>San Juan Bautista Jayacatlán</t>
         </is>
       </c>
       <c r="C328">
@@ -4728,7 +4728,7 @@
     <row r="329">
       <c r="B329" t="inlineStr">
         <is>
-          <t>SAN JUAN BAUTISTA TUXTEPEC</t>
+          <t>San Juan Bautista Tuxtepec</t>
         </is>
       </c>
       <c r="C329">
@@ -4741,7 +4741,7 @@
     <row r="330">
       <c r="B330" t="inlineStr">
         <is>
-          <t>SAN JUAN COTZOCÓN</t>
+          <t>San Juan Cotzocón</t>
         </is>
       </c>
       <c r="C330">
@@ -4754,7 +4754,7 @@
     <row r="331">
       <c r="B331" t="inlineStr">
         <is>
-          <t>SAN JUAN IHUALTEPEC</t>
+          <t>San Juan Ihualtepec</t>
         </is>
       </c>
       <c r="C331">
@@ -4767,7 +4767,7 @@
     <row r="332">
       <c r="B332" t="inlineStr">
         <is>
-          <t>SAN JUAN LACHAO</t>
+          <t>San Juan Lachao</t>
         </is>
       </c>
       <c r="C332">
@@ -4780,7 +4780,7 @@
     <row r="333">
       <c r="B333" t="inlineStr">
         <is>
-          <t>SAN JUAN MAZATLÁN</t>
+          <t>San Juan Mazatlán</t>
         </is>
       </c>
       <c r="C333">
@@ -4793,7 +4793,7 @@
     <row r="334">
       <c r="B334" t="inlineStr">
         <is>
-          <t>SAN JUAN MIXTEPEC -DTO. 08 -</t>
+          <t>San Juan Mixtepec -Dto. 08 -</t>
         </is>
       </c>
       <c r="C334">
@@ -4806,7 +4806,7 @@
     <row r="335">
       <c r="B335" t="inlineStr">
         <is>
-          <t>SAN JUAN OZOLOTEPEC</t>
+          <t>San Juan Ozolotepec</t>
         </is>
       </c>
       <c r="C335">
@@ -4819,7 +4819,7 @@
     <row r="336">
       <c r="B336" t="inlineStr">
         <is>
-          <t>SAN LORENZO</t>
+          <t>San Lorenzo</t>
         </is>
       </c>
       <c r="C336">
@@ -4832,7 +4832,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>SAN LUCAS OJITLÁN</t>
+          <t>San Lucas Ojitlán</t>
         </is>
       </c>
       <c r="C337">
@@ -4845,7 +4845,7 @@
     <row r="338">
       <c r="B338" t="inlineStr">
         <is>
-          <t>SAN MIGUEL SOYALTEPEC</t>
+          <t>San Miguel Soyaltepec</t>
         </is>
       </c>
       <c r="C338">
@@ -4858,7 +4858,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>SAN MIGUEL TLACAMAMA</t>
+          <t>San Miguel Tlacamama</t>
         </is>
       </c>
       <c r="C339">
@@ -4871,7 +4871,7 @@
     <row r="340">
       <c r="B340" t="inlineStr">
         <is>
-          <t>SAN PEDRO ATOYAC</t>
+          <t>San Pedro Atoyac</t>
         </is>
       </c>
       <c r="C340">
@@ -4884,7 +4884,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>SAN PEDRO COMITANCILLO</t>
+          <t>San Pedro Comitancillo</t>
         </is>
       </c>
       <c r="C341">
@@ -4897,7 +4897,7 @@
     <row r="342">
       <c r="B342" t="inlineStr">
         <is>
-          <t>SAN PEDRO HUAMELULA</t>
+          <t>San Pedro Huamelula</t>
         </is>
       </c>
       <c r="C342">
@@ -4910,7 +4910,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>SAN PEDRO MIXTEPEC -DTO. 22 -</t>
+          <t>San Pedro Mixtepec -Dto. 22 -</t>
         </is>
       </c>
       <c r="C343">
@@ -4923,7 +4923,7 @@
     <row r="344">
       <c r="B344" t="inlineStr">
         <is>
-          <t>SAN PEDRO POCHUTLA</t>
+          <t>San Pedro Pochutla</t>
         </is>
       </c>
       <c r="C344">
@@ -4936,7 +4936,7 @@
     <row r="345">
       <c r="B345" t="inlineStr">
         <is>
-          <t>SAN PEDRO TEOZACOALCO</t>
+          <t>San Pedro Teozacoalco</t>
         </is>
       </c>
       <c r="C345">
@@ -4949,7 +4949,7 @@
     <row r="346">
       <c r="B346" t="inlineStr">
         <is>
-          <t>SAN SEBASTIÁN TECOMAXTLAHUACA</t>
+          <t>San Sebastián Tecomaxtlahuaca</t>
         </is>
       </c>
       <c r="C346">
@@ -4962,7 +4962,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>SANTA ANA</t>
+          <t>Santa Ana</t>
         </is>
       </c>
       <c r="C347">
@@ -4975,7 +4975,7 @@
     <row r="348">
       <c r="B348" t="inlineStr">
         <is>
-          <t>SANTA CATARINA JUQUILA</t>
+          <t>Santa Catarina Juquila</t>
         </is>
       </c>
       <c r="C348">
@@ -4988,7 +4988,7 @@
     <row r="349">
       <c r="B349" t="inlineStr">
         <is>
-          <t>SANTA CATARINA MECHOACÁN</t>
+          <t>Santa Catarina Mechoacán</t>
         </is>
       </c>
       <c r="C349">
@@ -5001,7 +5001,7 @@
     <row r="350">
       <c r="B350" t="inlineStr">
         <is>
-          <t>SANTA CRUZ ZENZONTEPEC</t>
+          <t>Santa Cruz Zenzontepec</t>
         </is>
       </c>
       <c r="C350">
@@ -5014,7 +5014,7 @@
     <row r="351">
       <c r="B351" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUATULCO</t>
+          <t>Santa María Huatulco</t>
         </is>
       </c>
       <c r="C351">
@@ -5027,7 +5027,7 @@
     <row r="352">
       <c r="B352" t="inlineStr">
         <is>
-          <t>SANTA MARÍA HUAZOLOTITLÁN</t>
+          <t>Santa María Huazolotitlán</t>
         </is>
       </c>
       <c r="C352">
@@ -5040,7 +5040,7 @@
     <row r="353">
       <c r="B353" t="inlineStr">
         <is>
-          <t>SANTA MARÍA IPALAPA</t>
+          <t>Santa María Ipalapa</t>
         </is>
       </c>
       <c r="C353">
@@ -5053,7 +5053,7 @@
     <row r="354">
       <c r="B354" t="inlineStr">
         <is>
-          <t>SANTA MARÍA JACATEPEC</t>
+          <t>Santa María Jacatepec</t>
         </is>
       </c>
       <c r="C354">
@@ -5066,7 +5066,7 @@
     <row r="355">
       <c r="B355" t="inlineStr">
         <is>
-          <t>SANTA MARÍA LACHIXÍO</t>
+          <t>Santa María Lachixío</t>
         </is>
       </c>
       <c r="C355">
@@ -5079,7 +5079,7 @@
     <row r="356">
       <c r="B356" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TLALIXTAC</t>
+          <t>Santa María Tlalixtac</t>
         </is>
       </c>
       <c r="C356">
@@ -5092,7 +5092,7 @@
     <row r="357">
       <c r="B357" t="inlineStr">
         <is>
-          <t>SANTA MARÍA TONAMECA</t>
+          <t>Santa María Tonameca</t>
         </is>
       </c>
       <c r="C357">
@@ -5105,7 +5105,7 @@
     <row r="358">
       <c r="B358" t="inlineStr">
         <is>
-          <t>SANTA MARÍA YUCUHITI</t>
+          <t>Santa María Yucuhiti</t>
         </is>
       </c>
       <c r="C358">
@@ -5118,7 +5118,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>SANTA MARÍA ZACATEPEC</t>
+          <t>Santa María Zacatepec</t>
         </is>
       </c>
       <c r="C359">
@@ -5131,7 +5131,7 @@
     <row r="360">
       <c r="B360" t="inlineStr">
         <is>
-          <t>SANTIAGO APOALA</t>
+          <t>Santiago Apoala</t>
         </is>
       </c>
       <c r="C360">
@@ -5144,7 +5144,7 @@
     <row r="361">
       <c r="B361" t="inlineStr">
         <is>
-          <t>SANTIAGO CHAZUMBA</t>
+          <t>Santiago Chazumba</t>
         </is>
       </c>
       <c r="C361">
@@ -5157,7 +5157,7 @@
     <row r="362">
       <c r="B362" t="inlineStr">
         <is>
-          <t>SANTIAGO JAMILTEPEC</t>
+          <t>Santiago Jamiltepec</t>
         </is>
       </c>
       <c r="C362">
@@ -5170,7 +5170,7 @@
     <row r="363">
       <c r="B363" t="inlineStr">
         <is>
-          <t>SANTIAGO JOCOTEPEC</t>
+          <t>Santiago Jocotepec</t>
         </is>
       </c>
       <c r="C363">
@@ -5183,7 +5183,7 @@
     <row r="364">
       <c r="B364" t="inlineStr">
         <is>
-          <t>SANTIAGO JUXTLAHUACA</t>
+          <t>Santiago Juxtlahuaca</t>
         </is>
       </c>
       <c r="C364">
@@ -5196,7 +5196,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>SANTIAGO PINOTEPA NACIONAL</t>
+          <t>Santiago Pinotepa Nacional</t>
         </is>
       </c>
       <c r="C365">
@@ -5209,7 +5209,7 @@
     <row r="366">
       <c r="B366" t="inlineStr">
         <is>
-          <t>SANTIAGO TAMAZOLA</t>
+          <t>Santiago Tamazola</t>
         </is>
       </c>
       <c r="C366">
@@ -5222,7 +5222,7 @@
     <row r="367">
       <c r="B367" t="inlineStr">
         <is>
-          <t>SANTIAGO TILANTONGO</t>
+          <t>Santiago Tilantongo</t>
         </is>
       </c>
       <c r="C367">
@@ -5235,7 +5235,7 @@
     <row r="368">
       <c r="B368" t="inlineStr">
         <is>
-          <t>SANTIAGO XANICA</t>
+          <t>Santiago Xanica</t>
         </is>
       </c>
       <c r="C368">
@@ -5248,7 +5248,7 @@
     <row r="369">
       <c r="B369" t="inlineStr">
         <is>
-          <t>SANTO DOMINGO DE MORELOS</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C369">
@@ -5261,7 +5261,7 @@
     <row r="370">
       <c r="B370" t="inlineStr">
         <is>
-          <t>SANTO TOMÁS OCOTEPEC</t>
+          <t>Santo Tomás Ocotepec</t>
         </is>
       </c>
       <c r="C370">
@@ -5274,7 +5274,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>SANTOS REYES NOPALA</t>
+          <t>Santos Reyes Nopala</t>
         </is>
       </c>
       <c r="C371">
@@ -5287,7 +5287,7 @@
     <row r="372">
       <c r="B372" t="inlineStr">
         <is>
-          <t>SILACAYOÁPAM</t>
+          <t>Silacayoápam</t>
         </is>
       </c>
       <c r="C372">
@@ -5300,7 +5300,7 @@
     <row r="373">
       <c r="B373" t="inlineStr">
         <is>
-          <t>TATALTEPEC DE VALDÉS</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C373">
@@ -5313,7 +5313,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>VILLA DE CHILAPA DE DÍAZ</t>
+          <t>Villa De Chilapa De Díaz</t>
         </is>
       </c>
       <c r="C374">
@@ -5326,7 +5326,7 @@
     <row r="375">
       <c r="B375" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C375">
@@ -5339,7 +5339,7 @@
     <row r="376">
       <c r="B376" t="inlineStr">
         <is>
-          <t>VILLA DE TUTUTEPEC DE MELCHOR OCAMPO</t>
+          <t>Villa De Tututepec De Melchor Ocampo</t>
         </is>
       </c>
       <c r="C376">
@@ -5352,7 +5352,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>VILLA SOLA DE VEGA</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C377">
@@ -5365,7 +5365,7 @@
     <row r="378">
       <c r="B378" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C378">
@@ -5378,12 +5378,12 @@
     <row r="379">
       <c r="A379" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C379">
@@ -5396,7 +5396,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C380">
@@ -5409,7 +5409,7 @@
     <row r="381">
       <c r="B381" t="inlineStr">
         <is>
-          <t>AMOZOC</t>
+          <t>Amozoc</t>
         </is>
       </c>
       <c r="C381">
@@ -5422,7 +5422,7 @@
     <row r="382">
       <c r="B382" t="inlineStr">
         <is>
-          <t>ATEMPAN</t>
+          <t>Atempan</t>
         </is>
       </c>
       <c r="C382">
@@ -5435,7 +5435,7 @@
     <row r="383">
       <c r="B383" t="inlineStr">
         <is>
-          <t>ATLIXCO</t>
+          <t>Atlixco</t>
         </is>
       </c>
       <c r="C383">
@@ -5448,7 +5448,7 @@
     <row r="384">
       <c r="B384" t="inlineStr">
         <is>
-          <t>AXUTLA</t>
+          <t>Axutla</t>
         </is>
       </c>
       <c r="C384">
@@ -5461,7 +5461,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>CALPAN</t>
+          <t>Calpan</t>
         </is>
       </c>
       <c r="C385">
@@ -5474,7 +5474,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>CALTEPEC</t>
+          <t>Caltepec</t>
         </is>
       </c>
       <c r="C386">
@@ -5487,7 +5487,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>CAÑADA MORELOS</t>
+          <t>Cañada Morelos</t>
         </is>
       </c>
       <c r="C387">
@@ -5500,7 +5500,7 @@
     <row r="388">
       <c r="B388" t="inlineStr">
         <is>
-          <t>CHIAUTZINGO</t>
+          <t>Chiautzingo</t>
         </is>
       </c>
       <c r="C388">
@@ -5513,7 +5513,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>CHICHIQUILA</t>
+          <t>Chichiquila</t>
         </is>
       </c>
       <c r="C389">
@@ -5526,7 +5526,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>CHIETLA</t>
+          <t>Chietla</t>
         </is>
       </c>
       <c r="C390">
@@ -5539,7 +5539,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>CHIGNAHUAPAN</t>
+          <t>Chignahuapan</t>
         </is>
       </c>
       <c r="C391">
@@ -5552,7 +5552,7 @@
     <row r="392">
       <c r="B392" t="inlineStr">
         <is>
-          <t>CHILA DE LA SAL</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C392">
@@ -5565,7 +5565,7 @@
     <row r="393">
       <c r="B393" t="inlineStr">
         <is>
-          <t>CHILCHOTLA</t>
+          <t>Chilchotla</t>
         </is>
       </c>
       <c r="C393">
@@ -5578,7 +5578,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>CORONANGO</t>
+          <t>Coronango</t>
         </is>
       </c>
       <c r="C394">
@@ -5591,7 +5591,7 @@
     <row r="395">
       <c r="B395" t="inlineStr">
         <is>
-          <t>COXCATLÁN</t>
+          <t>Coxcatlán</t>
         </is>
       </c>
       <c r="C395">
@@ -5604,7 +5604,7 @@
     <row r="396">
       <c r="B396" t="inlineStr">
         <is>
-          <t>CUAYUCA DE ANDRADE</t>
+          <t>Cuayuca De Andrade</t>
         </is>
       </c>
       <c r="C396">
@@ -5617,7 +5617,7 @@
     <row r="397">
       <c r="B397" t="inlineStr">
         <is>
-          <t>DOMINGO ARENAS</t>
+          <t>Domingo Arenas</t>
         </is>
       </c>
       <c r="C397">
@@ -5630,7 +5630,7 @@
     <row r="398">
       <c r="B398" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C398">
@@ -5643,7 +5643,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>GUADALUPE VICTORIA</t>
+          <t>Guadalupe Victoria</t>
         </is>
       </c>
       <c r="C399">
@@ -5656,7 +5656,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>HUAQUECHULA</t>
+          <t>Huaquechula</t>
         </is>
       </c>
       <c r="C400">
@@ -5669,7 +5669,7 @@
     <row r="401">
       <c r="B401" t="inlineStr">
         <is>
-          <t>HUAUCHINANGO</t>
+          <t>Huauchinango</t>
         </is>
       </c>
       <c r="C401">
@@ -5682,7 +5682,7 @@
     <row r="402">
       <c r="B402" t="inlineStr">
         <is>
-          <t>HUEJOTZINGO</t>
+          <t>Huejotzingo</t>
         </is>
       </c>
       <c r="C402">
@@ -5695,7 +5695,7 @@
     <row r="403">
       <c r="B403" t="inlineStr">
         <is>
-          <t>IXTACAMAXTITLÁN</t>
+          <t>Ixtacamaxtitlán</t>
         </is>
       </c>
       <c r="C403">
@@ -5708,7 +5708,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>IZÚCAR DE MATAMOROS</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C404">
@@ -5721,7 +5721,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>JALPAN</t>
+          <t>Jalpan</t>
         </is>
       </c>
       <c r="C405">
@@ -5734,7 +5734,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>JOPALA</t>
+          <t>Jopala</t>
         </is>
       </c>
       <c r="C406">
@@ -5747,7 +5747,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>NO SE REGISTRÓ EL MUNICIPIO/CONDADO/ALCALDÍA DE NACIMIENTO</t>
+          <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
         </is>
       </c>
       <c r="C407">
@@ -5760,7 +5760,7 @@
     <row r="408">
       <c r="B408" t="inlineStr">
         <is>
-          <t>ORIENTAL</t>
+          <t>Oriental</t>
         </is>
       </c>
       <c r="C408">
@@ -5773,7 +5773,7 @@
     <row r="409">
       <c r="B409" t="inlineStr">
         <is>
-          <t>PAHUATLÁN</t>
+          <t>Pahuatlán</t>
         </is>
       </c>
       <c r="C409">
@@ -5786,7 +5786,7 @@
     <row r="410">
       <c r="B410" t="inlineStr">
         <is>
-          <t>PETLALCINGO</t>
+          <t>Petlalcingo</t>
         </is>
       </c>
       <c r="C410">
@@ -5799,7 +5799,7 @@
     <row r="411">
       <c r="B411" t="inlineStr">
         <is>
-          <t>PIAXTLA</t>
+          <t>Piaxtla</t>
         </is>
       </c>
       <c r="C411">
@@ -5812,7 +5812,7 @@
     <row r="412">
       <c r="B412" t="inlineStr">
         <is>
-          <t>PUEBLA</t>
+          <t>Puebla</t>
         </is>
       </c>
       <c r="C412">
@@ -5825,7 +5825,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>QUIMIXTLÁN</t>
+          <t>Quimixtlán</t>
         </is>
       </c>
       <c r="C413">
@@ -5838,7 +5838,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS CHOLULA</t>
+          <t>San Andrés Cholula</t>
         </is>
       </c>
       <c r="C414">
@@ -5851,7 +5851,7 @@
     <row r="415">
       <c r="B415" t="inlineStr">
         <is>
-          <t>SAN MARTÍN TEXMELUCAN</t>
+          <t>San Martín Texmelucan</t>
         </is>
       </c>
       <c r="C415">
@@ -5864,7 +5864,7 @@
     <row r="416">
       <c r="B416" t="inlineStr">
         <is>
-          <t>SAN NICOLÁS DE LOS RANCHOS</t>
+          <t>San Nicolás De Los Ranchos</t>
         </is>
       </c>
       <c r="C416">
@@ -5877,7 +5877,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>SAN PABLO ANICANO</t>
+          <t>San Pablo Anicano</t>
         </is>
       </c>
       <c r="C417">
@@ -5890,7 +5890,7 @@
     <row r="418">
       <c r="B418" t="inlineStr">
         <is>
-          <t>SAN PEDRO CHOLULA</t>
+          <t>San Pedro Cholula</t>
         </is>
       </c>
       <c r="C418">
@@ -5903,7 +5903,7 @@
     <row r="419">
       <c r="B419" t="inlineStr">
         <is>
-          <t>SAN PEDRO YELOIXTLAHUACA</t>
+          <t>San Pedro Yeloixtlahuaca</t>
         </is>
       </c>
       <c r="C419">
@@ -5916,7 +5916,7 @@
     <row r="420">
       <c r="B420" t="inlineStr">
         <is>
-          <t>SANTA INÉS AHUATEMPAN</t>
+          <t>Santa Inés Ahuatempan</t>
         </is>
       </c>
       <c r="C420">
@@ -5929,7 +5929,7 @@
     <row r="421">
       <c r="B421" t="inlineStr">
         <is>
-          <t>SANTIAGO MIAHUATLÁN</t>
+          <t>Santiago Miahuatlán</t>
         </is>
       </c>
       <c r="C421">
@@ -5942,7 +5942,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>SOLTEPEC</t>
+          <t>Soltepec</t>
         </is>
       </c>
       <c r="C422">
@@ -5955,7 +5955,7 @@
     <row r="423">
       <c r="B423" t="inlineStr">
         <is>
-          <t>TECAMACHALCO</t>
+          <t>Tecamachalco</t>
         </is>
       </c>
       <c r="C423">
@@ -5968,7 +5968,7 @@
     <row r="424">
       <c r="B424" t="inlineStr">
         <is>
-          <t>TECOMATLÁN</t>
+          <t>Tecomatlán</t>
         </is>
       </c>
       <c r="C424">
@@ -5981,7 +5981,7 @@
     <row r="425">
       <c r="B425" t="inlineStr">
         <is>
-          <t>TEHUACÁN</t>
+          <t>Tehuacán</t>
         </is>
       </c>
       <c r="C425">
@@ -5994,7 +5994,7 @@
     <row r="426">
       <c r="B426" t="inlineStr">
         <is>
-          <t>TEHUITZINGO</t>
+          <t>Tehuitzingo</t>
         </is>
       </c>
       <c r="C426">
@@ -6007,7 +6007,7 @@
     <row r="427">
       <c r="B427" t="inlineStr">
         <is>
-          <t>TEPANCO DE LÓPEZ</t>
+          <t>Tepanco De López</t>
         </is>
       </c>
       <c r="C427">
@@ -6020,7 +6020,7 @@
     <row r="428">
       <c r="B428" t="inlineStr">
         <is>
-          <t>TEPEACA</t>
+          <t>Tepeaca</t>
         </is>
       </c>
       <c r="C428">
@@ -6033,7 +6033,7 @@
     <row r="429">
       <c r="B429" t="inlineStr">
         <is>
-          <t>TEPEOJUMA</t>
+          <t>Tepeojuma</t>
         </is>
       </c>
       <c r="C429">
@@ -6046,7 +6046,7 @@
     <row r="430">
       <c r="B430" t="inlineStr">
         <is>
-          <t>TEPEXI DE RODRÍGUEZ</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C430">
@@ -6059,7 +6059,7 @@
     <row r="431">
       <c r="B431" t="inlineStr">
         <is>
-          <t>TETELA DE OCAMPO</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C431">
@@ -6072,7 +6072,7 @@
     <row r="432">
       <c r="B432" t="inlineStr">
         <is>
-          <t>TLACOTEPEC DE BENITO JUÁREZ</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C432">
@@ -6085,7 +6085,7 @@
     <row r="433">
       <c r="B433" t="inlineStr">
         <is>
-          <t>TLAHUAPAN</t>
+          <t>Tlahuapan</t>
         </is>
       </c>
       <c r="C433">
@@ -6098,7 +6098,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>TLAPANALÁ</t>
+          <t>Tlapanalá</t>
         </is>
       </c>
       <c r="C434">
@@ -6111,7 +6111,7 @@
     <row r="435">
       <c r="B435" t="inlineStr">
         <is>
-          <t>TLATLAUQUITEPEC</t>
+          <t>Tlatlauquitepec</t>
         </is>
       </c>
       <c r="C435">
@@ -6124,7 +6124,7 @@
     <row r="436">
       <c r="B436" t="inlineStr">
         <is>
-          <t>TOCHIMILCO</t>
+          <t>Tochimilco</t>
         </is>
       </c>
       <c r="C436">
@@ -6137,7 +6137,7 @@
     <row r="437">
       <c r="B437" t="inlineStr">
         <is>
-          <t>VICENTE GUERRERO</t>
+          <t>Vicente Guerrero</t>
         </is>
       </c>
       <c r="C437">
@@ -6150,7 +6150,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>XAYACATLÁN DE BRAVO</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C438">
@@ -6163,7 +6163,7 @@
     <row r="439">
       <c r="B439" t="inlineStr">
         <is>
-          <t>XICOTEPEC</t>
+          <t>Xicotepec</t>
         </is>
       </c>
       <c r="C439">
@@ -6176,7 +6176,7 @@
     <row r="440">
       <c r="B440" t="inlineStr">
         <is>
-          <t>XOCHITLÁN TODOS SANTOS</t>
+          <t>Xochitlán Todos Santos</t>
         </is>
       </c>
       <c r="C440">
@@ -6189,7 +6189,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>ZACAPOAXTLA</t>
+          <t>Zacapoaxtla</t>
         </is>
       </c>
       <c r="C441">
@@ -6202,7 +6202,7 @@
     <row r="442">
       <c r="B442" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C442">
@@ -6215,12 +6215,12 @@
     <row r="443">
       <c r="A443" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>ARROYO SECO</t>
+          <t>Arroyo Seco</t>
         </is>
       </c>
       <c r="C443">
@@ -6233,7 +6233,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>LANDA DE MATAMOROS</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C444">
@@ -6246,7 +6246,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>PINAL DE AMOLES</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C445">
@@ -6259,7 +6259,7 @@
     <row r="446">
       <c r="B446" t="inlineStr">
         <is>
-          <t>QUERÉTARO</t>
+          <t>Querétaro</t>
         </is>
       </c>
       <c r="C446">
@@ -6272,7 +6272,7 @@
     <row r="447">
       <c r="B447" t="inlineStr">
         <is>
-          <t>SAN JUAN DEL RÍO</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C447">
@@ -6285,7 +6285,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C448">
@@ -6298,12 +6298,12 @@
     <row r="449">
       <c r="A449" t="inlineStr">
         <is>
-          <t>QUINTANA ROO</t>
+          <t>Quintana Roo</t>
         </is>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>OTHÓN P. BLANCO</t>
+          <t>Othón P. Blanco</t>
         </is>
       </c>
       <c r="C449">
@@ -6316,7 +6316,7 @@
     <row r="450">
       <c r="B450" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C450">
@@ -6329,12 +6329,12 @@
     <row r="451">
       <c r="A451" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>AXTLA DE TERRAZAS</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C451">
@@ -6347,7 +6347,7 @@
     <row r="452">
       <c r="B452" t="inlineStr">
         <is>
-          <t>CHARCAS</t>
+          <t>Charcas</t>
         </is>
       </c>
       <c r="C452">
@@ -6360,7 +6360,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>CIUDAD DEL MAÍZ</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C453">
@@ -6373,7 +6373,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>CIUDAD FERNÁNDEZ</t>
+          <t>Ciudad Fernández</t>
         </is>
       </c>
       <c r="C454">
@@ -6386,7 +6386,7 @@
     <row r="455">
       <c r="B455" t="inlineStr">
         <is>
-          <t>CIUDAD VALLES</t>
+          <t>Ciudad Valles</t>
         </is>
       </c>
       <c r="C455">
@@ -6399,7 +6399,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>GUADALCÁZAR</t>
+          <t>Guadalcázar</t>
         </is>
       </c>
       <c r="C456">
@@ -6412,7 +6412,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>MATEHUALA</t>
+          <t>Matehuala</t>
         </is>
       </c>
       <c r="C457">
@@ -6425,7 +6425,7 @@
     <row r="458">
       <c r="B458" t="inlineStr">
         <is>
-          <t>RAYÓN</t>
+          <t>Rayón</t>
         </is>
       </c>
       <c r="C458">
@@ -6438,7 +6438,7 @@
     <row r="459">
       <c r="B459" t="inlineStr">
         <is>
-          <t>RIOVERDE</t>
+          <t>Rioverde</t>
         </is>
       </c>
       <c r="C459">
@@ -6451,7 +6451,7 @@
     <row r="460">
       <c r="B460" t="inlineStr">
         <is>
-          <t>SALINAS</t>
+          <t>Salinas</t>
         </is>
       </c>
       <c r="C460">
@@ -6464,7 +6464,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>SAN LUIS POTOSÍ</t>
+          <t>San Luis Potosí</t>
         </is>
       </c>
       <c r="C461">
@@ -6477,7 +6477,7 @@
     <row r="462">
       <c r="B462" t="inlineStr">
         <is>
-          <t>SANTA MARÍA DEL RÍO</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C462">
@@ -6490,7 +6490,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>TAMAZUNCHALE</t>
+          <t>Tamazunchale</t>
         </is>
       </c>
       <c r="C463">
@@ -6503,7 +6503,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>VILLA DE RAMOS</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C464">
@@ -6516,7 +6516,7 @@
     <row r="465">
       <c r="B465" t="inlineStr">
         <is>
-          <t>VILLA JUÁREZ</t>
+          <t>Villa Juárez</t>
         </is>
       </c>
       <c r="C465">
@@ -6529,7 +6529,7 @@
     <row r="466">
       <c r="B466" t="inlineStr">
         <is>
-          <t>XILITLA</t>
+          <t>Xilitla</t>
         </is>
       </c>
       <c r="C466">
@@ -6542,7 +6542,7 @@
     <row r="467">
       <c r="B467" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C467">
@@ -6555,12 +6555,12 @@
     <row r="468">
       <c r="A468" t="inlineStr">
         <is>
-          <t>SINALOA</t>
+          <t>Sinaloa</t>
         </is>
       </c>
       <c r="B468" t="inlineStr">
         <is>
-          <t>AHOME</t>
+          <t>Ahome</t>
         </is>
       </c>
       <c r="C468">
@@ -6573,7 +6573,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>CULIACÁN</t>
+          <t>Culiacán</t>
         </is>
       </c>
       <c r="C469">
@@ -6586,7 +6586,7 @@
     <row r="470">
       <c r="B470" t="inlineStr">
         <is>
-          <t>GUASAVE</t>
+          <t>Guasave</t>
         </is>
       </c>
       <c r="C470">
@@ -6599,7 +6599,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>MAZATLÁN</t>
+          <t>Mazatlán</t>
         </is>
       </c>
       <c r="C471">
@@ -6612,7 +6612,7 @@
     <row r="472">
       <c r="B472" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C472">
@@ -6625,12 +6625,12 @@
     <row r="473">
       <c r="A473" t="inlineStr">
         <is>
-          <t>SONORA</t>
+          <t>Sonora</t>
         </is>
       </c>
       <c r="B473" t="inlineStr">
         <is>
-          <t>EMPALME</t>
+          <t>Empalme</t>
         </is>
       </c>
       <c r="C473">
@@ -6643,7 +6643,7 @@
     <row r="474">
       <c r="B474" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C474">
@@ -6656,12 +6656,12 @@
     <row r="475">
       <c r="A475" t="inlineStr">
         <is>
-          <t>TABASCO</t>
+          <t>Tabasco</t>
         </is>
       </c>
       <c r="B475" t="inlineStr">
         <is>
-          <t>CENTRO</t>
+          <t>Centro</t>
         </is>
       </c>
       <c r="C475">
@@ -6674,7 +6674,7 @@
     <row r="476">
       <c r="B476" t="inlineStr">
         <is>
-          <t>CÁRDENAS</t>
+          <t>Cárdenas</t>
         </is>
       </c>
       <c r="C476">
@@ -6687,7 +6687,7 @@
     <row r="477">
       <c r="B477" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C477">
@@ -6700,7 +6700,7 @@
     <row r="478">
       <c r="B478" t="inlineStr">
         <is>
-          <t>HUIMANGUILLO</t>
+          <t>Huimanguillo</t>
         </is>
       </c>
       <c r="C478">
@@ -6713,7 +6713,7 @@
     <row r="479">
       <c r="B479" t="inlineStr">
         <is>
-          <t>TENOSIQUE</t>
+          <t>Tenosique</t>
         </is>
       </c>
       <c r="C479">
@@ -6726,7 +6726,7 @@
     <row r="480">
       <c r="B480" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C480">
@@ -6739,12 +6739,12 @@
     <row r="481">
       <c r="A481" t="inlineStr">
         <is>
-          <t>TAMAULIPAS</t>
+          <t>Tamaulipas</t>
         </is>
       </c>
       <c r="B481" t="inlineStr">
         <is>
-          <t>ALDAMA</t>
+          <t>Aldama</t>
         </is>
       </c>
       <c r="C481">
@@ -6757,7 +6757,7 @@
     <row r="482">
       <c r="B482" t="inlineStr">
         <is>
-          <t>ALTAMIRA</t>
+          <t>Altamira</t>
         </is>
       </c>
       <c r="C482">
@@ -6770,7 +6770,7 @@
     <row r="483">
       <c r="B483" t="inlineStr">
         <is>
-          <t>CIUDAD MADERO</t>
+          <t>Ciudad Madero</t>
         </is>
       </c>
       <c r="C483">
@@ -6783,7 +6783,7 @@
     <row r="484">
       <c r="B484" t="inlineStr">
         <is>
-          <t>MATAMOROS</t>
+          <t>Matamoros</t>
         </is>
       </c>
       <c r="C484">
@@ -6796,7 +6796,7 @@
     <row r="485">
       <c r="B485" t="inlineStr">
         <is>
-          <t>NUEVO LAREDO</t>
+          <t>Nuevo Laredo</t>
         </is>
       </c>
       <c r="C485">
@@ -6809,7 +6809,7 @@
     <row r="486">
       <c r="B486" t="inlineStr">
         <is>
-          <t>REYNOSA</t>
+          <t>Reynosa</t>
         </is>
       </c>
       <c r="C486">
@@ -6822,7 +6822,7 @@
     <row r="487">
       <c r="B487" t="inlineStr">
         <is>
-          <t>RÍO BRAVO</t>
+          <t>Río Bravo</t>
         </is>
       </c>
       <c r="C487">
@@ -6835,7 +6835,7 @@
     <row r="488">
       <c r="B488" t="inlineStr">
         <is>
-          <t>TAMPICO</t>
+          <t>Tampico</t>
         </is>
       </c>
       <c r="C488">
@@ -6848,7 +6848,7 @@
     <row r="489">
       <c r="B489" t="inlineStr">
         <is>
-          <t>TULA</t>
+          <t>Tula</t>
         </is>
       </c>
       <c r="C489">
@@ -6861,7 +6861,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>XICOTÉNCATL</t>
+          <t>Xicoténcatl</t>
         </is>
       </c>
       <c r="C490">
@@ -6874,7 +6874,7 @@
     <row r="491">
       <c r="B491" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C491">
@@ -6887,12 +6887,12 @@
     <row r="492">
       <c r="A492" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="B492" t="inlineStr">
         <is>
-          <t>APIZACO</t>
+          <t>Apizaco</t>
         </is>
       </c>
       <c r="C492">
@@ -6905,7 +6905,7 @@
     <row r="493">
       <c r="B493" t="inlineStr">
         <is>
-          <t>CHIAUTEMPAN</t>
+          <t>Chiautempan</t>
         </is>
       </c>
       <c r="C493">
@@ -6918,7 +6918,7 @@
     <row r="494">
       <c r="B494" t="inlineStr">
         <is>
-          <t>HUAMANTLA</t>
+          <t>Huamantla</t>
         </is>
       </c>
       <c r="C494">
@@ -6931,7 +6931,7 @@
     <row r="495">
       <c r="B495" t="inlineStr">
         <is>
-          <t>IXTACUIXTLA DE MARIANO MATAMOROS</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C495">
@@ -6944,7 +6944,7 @@
     <row r="496">
       <c r="B496" t="inlineStr">
         <is>
-          <t>NANACAMILPA DE MARIANO ARISTA</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C496">
@@ -6957,7 +6957,7 @@
     <row r="497">
       <c r="B497" t="inlineStr">
         <is>
-          <t>TENANCINGO</t>
+          <t>Tenancingo</t>
         </is>
       </c>
       <c r="C497">
@@ -6970,7 +6970,7 @@
     <row r="498">
       <c r="B498" t="inlineStr">
         <is>
-          <t>TEOLOCHOLCO</t>
+          <t>Teolocholco</t>
         </is>
       </c>
       <c r="C498">
@@ -6983,7 +6983,7 @@
     <row r="499">
       <c r="B499" t="inlineStr">
         <is>
-          <t>TERRENATE</t>
+          <t>Terrenate</t>
         </is>
       </c>
       <c r="C499">
@@ -6996,7 +6996,7 @@
     <row r="500">
       <c r="B500" t="inlineStr">
         <is>
-          <t>TLAXCALA</t>
+          <t>Tlaxcala</t>
         </is>
       </c>
       <c r="C500">
@@ -7009,7 +7009,7 @@
     <row r="501">
       <c r="B501" t="inlineStr">
         <is>
-          <t>TLAXCO</t>
+          <t>Tlaxco</t>
         </is>
       </c>
       <c r="C501">
@@ -7022,7 +7022,7 @@
     <row r="502">
       <c r="B502" t="inlineStr">
         <is>
-          <t>ZACATELCO</t>
+          <t>Zacatelco</t>
         </is>
       </c>
       <c r="C502">
@@ -7035,7 +7035,7 @@
     <row r="503">
       <c r="B503" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C503">
@@ -7048,12 +7048,12 @@
     <row r="504">
       <c r="A504" t="inlineStr">
         <is>
-          <t>VERACRUZ DE IGNACIO DE LA LLAVE</t>
+          <t>Veracruz De Ignacio De La Llave</t>
         </is>
       </c>
       <c r="B504" t="inlineStr">
         <is>
-          <t>ACAJETE</t>
+          <t>Acajete</t>
         </is>
       </c>
       <c r="C504">
@@ -7066,7 +7066,7 @@
     <row r="505">
       <c r="B505" t="inlineStr">
         <is>
-          <t>ACATLÁN</t>
+          <t>Acatlán</t>
         </is>
       </c>
       <c r="C505">
@@ -7079,7 +7079,7 @@
     <row r="506">
       <c r="B506" t="inlineStr">
         <is>
-          <t>ACAYUCAN</t>
+          <t>Acayucan</t>
         </is>
       </c>
       <c r="C506">
@@ -7092,7 +7092,7 @@
     <row r="507">
       <c r="B507" t="inlineStr">
         <is>
-          <t>ACTOPAN</t>
+          <t>Actopan</t>
         </is>
       </c>
       <c r="C507">
@@ -7105,7 +7105,7 @@
     <row r="508">
       <c r="B508" t="inlineStr">
         <is>
-          <t>ALTO LUCERO DE GUTIÉRREZ BARRIOS</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C508">
@@ -7118,7 +7118,7 @@
     <row r="509">
       <c r="B509" t="inlineStr">
         <is>
-          <t>ALTOTONGA</t>
+          <t>Altotonga</t>
         </is>
       </c>
       <c r="C509">
@@ -7131,7 +7131,7 @@
     <row r="510">
       <c r="B510" t="inlineStr">
         <is>
-          <t>AMATLÁN DE LOS REYES</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C510">
@@ -7144,7 +7144,7 @@
     <row r="511">
       <c r="B511" t="inlineStr">
         <is>
-          <t>ATLAHUILCO</t>
+          <t>Atlahuilco</t>
         </is>
       </c>
       <c r="C511">
@@ -7157,7 +7157,7 @@
     <row r="512">
       <c r="B512" t="inlineStr">
         <is>
-          <t>BOCA DEL RÍO</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C512">
@@ -7170,7 +7170,7 @@
     <row r="513">
       <c r="B513" t="inlineStr">
         <is>
-          <t>CAMERINO Z. MENDOZA</t>
+          <t>Camerino Z. Mendoza</t>
         </is>
       </c>
       <c r="C513">
@@ -7183,7 +7183,7 @@
     <row r="514">
       <c r="B514" t="inlineStr">
         <is>
-          <t>CATEMACO</t>
+          <t>Catemaco</t>
         </is>
       </c>
       <c r="C514">
@@ -7196,7 +7196,7 @@
     <row r="515">
       <c r="B515" t="inlineStr">
         <is>
-          <t>CAZONES DE HERRERA</t>
+          <t>Cazones De Herrera</t>
         </is>
       </c>
       <c r="C515">
@@ -7209,7 +7209,7 @@
     <row r="516">
       <c r="B516" t="inlineStr">
         <is>
-          <t>CERRO AZUL</t>
+          <t>Cerro Azul</t>
         </is>
       </c>
       <c r="C516">
@@ -7222,7 +7222,7 @@
     <row r="517">
       <c r="B517" t="inlineStr">
         <is>
-          <t>COACOATZINTLA</t>
+          <t>Coacoatzintla</t>
         </is>
       </c>
       <c r="C517">
@@ -7235,7 +7235,7 @@
     <row r="518">
       <c r="B518" t="inlineStr">
         <is>
-          <t>COATEPEC</t>
+          <t>Coatepec</t>
         </is>
       </c>
       <c r="C518">
@@ -7248,7 +7248,7 @@
     <row r="519">
       <c r="B519" t="inlineStr">
         <is>
-          <t>COATZACOALCOS</t>
+          <t>Coatzacoalcos</t>
         </is>
       </c>
       <c r="C519">
@@ -7261,7 +7261,7 @@
     <row r="520">
       <c r="B520" t="inlineStr">
         <is>
-          <t>COSAMALOAPAN DE CARPIO</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C520">
@@ -7274,7 +7274,7 @@
     <row r="521">
       <c r="B521" t="inlineStr">
         <is>
-          <t>COSCOMATEPEC</t>
+          <t>Coscomatepec</t>
         </is>
       </c>
       <c r="C521">
@@ -7287,7 +7287,7 @@
     <row r="522">
       <c r="B522" t="inlineStr">
         <is>
-          <t>COTAXTLA</t>
+          <t>Cotaxtla</t>
         </is>
       </c>
       <c r="C522">
@@ -7300,7 +7300,7 @@
     <row r="523">
       <c r="B523" t="inlineStr">
         <is>
-          <t>COYUTLA</t>
+          <t>Coyutla</t>
         </is>
       </c>
       <c r="C523">
@@ -7313,7 +7313,7 @@
     <row r="524">
       <c r="B524" t="inlineStr">
         <is>
-          <t>CÓRDOBA</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="C524">
@@ -7326,7 +7326,7 @@
     <row r="525">
       <c r="B525" t="inlineStr">
         <is>
-          <t>EL HIGO</t>
+          <t>El Higo</t>
         </is>
       </c>
       <c r="C525">
@@ -7339,7 +7339,7 @@
     <row r="526">
       <c r="B526" t="inlineStr">
         <is>
-          <t>EMILIANO ZAPATA</t>
+          <t>Emiliano Zapata</t>
         </is>
       </c>
       <c r="C526">
@@ -7352,7 +7352,7 @@
     <row r="527">
       <c r="B527" t="inlineStr">
         <is>
-          <t>FILOMENO MATA</t>
+          <t>Filomeno Mata</t>
         </is>
       </c>
       <c r="C527">
@@ -7365,7 +7365,7 @@
     <row r="528">
       <c r="B528" t="inlineStr">
         <is>
-          <t>HUATUSCO</t>
+          <t>Huatusco</t>
         </is>
       </c>
       <c r="C528">
@@ -7378,7 +7378,7 @@
     <row r="529">
       <c r="B529" t="inlineStr">
         <is>
-          <t>HUAYACOCOTLA</t>
+          <t>Huayacocotla</t>
         </is>
       </c>
       <c r="C529">
@@ -7391,7 +7391,7 @@
     <row r="530">
       <c r="B530" t="inlineStr">
         <is>
-          <t>HUEYAPAN DE OCAMPO</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C530">
@@ -7404,7 +7404,7 @@
     <row r="531">
       <c r="B531" t="inlineStr">
         <is>
-          <t>ILAMATLÁN</t>
+          <t>Ilamatlán</t>
         </is>
       </c>
       <c r="C531">
@@ -7417,7 +7417,7 @@
     <row r="532">
       <c r="B532" t="inlineStr">
         <is>
-          <t>ISLA</t>
+          <t>Isla</t>
         </is>
       </c>
       <c r="C532">
@@ -7430,7 +7430,7 @@
     <row r="533">
       <c r="B533" t="inlineStr">
         <is>
-          <t>IXHUACÁN DE LOS REYES</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C533">
@@ -7443,7 +7443,7 @@
     <row r="534">
       <c r="B534" t="inlineStr">
         <is>
-          <t>IXHUATLÁN DE MADERO</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C534">
@@ -7456,7 +7456,7 @@
     <row r="535">
       <c r="B535" t="inlineStr">
         <is>
-          <t>JALCOMULCO</t>
+          <t>Jalcomulco</t>
         </is>
       </c>
       <c r="C535">
@@ -7469,7 +7469,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>JESÚS CARRANZA</t>
+          <t>Jesús Carranza</t>
         </is>
       </c>
       <c r="C536">
@@ -7482,7 +7482,7 @@
     <row r="537">
       <c r="B537" t="inlineStr">
         <is>
-          <t>JUAN RODRÍGUEZ CLARA</t>
+          <t>Juan Rodríguez Clara</t>
         </is>
       </c>
       <c r="C537">
@@ -7495,7 +7495,7 @@
     <row r="538">
       <c r="B538" t="inlineStr">
         <is>
-          <t>LA ANTIGUA</t>
+          <t>La Antigua</t>
         </is>
       </c>
       <c r="C538">
@@ -7508,7 +7508,7 @@
     <row r="539">
       <c r="B539" t="inlineStr">
         <is>
-          <t>LAS CHOAPAS</t>
+          <t>Las Choapas</t>
         </is>
       </c>
       <c r="C539">
@@ -7521,7 +7521,7 @@
     <row r="540">
       <c r="B540" t="inlineStr">
         <is>
-          <t>MALTRATA</t>
+          <t>Maltrata</t>
         </is>
       </c>
       <c r="C540">
@@ -7534,7 +7534,7 @@
     <row r="541">
       <c r="B541" t="inlineStr">
         <is>
-          <t>MARTÍNEZ DE LA TORRE</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C541">
@@ -7547,7 +7547,7 @@
     <row r="542">
       <c r="B542" t="inlineStr">
         <is>
-          <t>MECAYAPAN</t>
+          <t>Mecayapan</t>
         </is>
       </c>
       <c r="C542">
@@ -7560,7 +7560,7 @@
     <row r="543">
       <c r="B543" t="inlineStr">
         <is>
-          <t>MINATITLÁN</t>
+          <t>Minatitlán</t>
         </is>
       </c>
       <c r="C543">
@@ -7573,7 +7573,7 @@
     <row r="544">
       <c r="B544" t="inlineStr">
         <is>
-          <t>OLUTA</t>
+          <t>Oluta</t>
         </is>
       </c>
       <c r="C544">
@@ -7586,7 +7586,7 @@
     <row r="545">
       <c r="B545" t="inlineStr">
         <is>
-          <t>OMEALCA</t>
+          <t>Omealca</t>
         </is>
       </c>
       <c r="C545">
@@ -7599,7 +7599,7 @@
     <row r="546">
       <c r="B546" t="inlineStr">
         <is>
-          <t>ORIZABA</t>
+          <t>Orizaba</t>
         </is>
       </c>
       <c r="C546">
@@ -7612,7 +7612,7 @@
     <row r="547">
       <c r="B547" t="inlineStr">
         <is>
-          <t>OTATITLÁN</t>
+          <t>Otatitlán</t>
         </is>
       </c>
       <c r="C547">
@@ -7625,7 +7625,7 @@
     <row r="548">
       <c r="B548" t="inlineStr">
         <is>
-          <t>PLAYA VICENTE</t>
+          <t>Playa Vicente</t>
         </is>
       </c>
       <c r="C548">
@@ -7638,7 +7638,7 @@
     <row r="549">
       <c r="B549" t="inlineStr">
         <is>
-          <t>POZA RICA DE HIDALGO</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C549">
@@ -7651,7 +7651,7 @@
     <row r="550">
       <c r="B550" t="inlineStr">
         <is>
-          <t>PÁNUCO</t>
+          <t>Pánuco</t>
         </is>
       </c>
       <c r="C550">
@@ -7664,7 +7664,7 @@
     <row r="551">
       <c r="B551" t="inlineStr">
         <is>
-          <t>SAN ANDRÉS TUXTLA</t>
+          <t>San Andrés Tuxtla</t>
         </is>
       </c>
       <c r="C551">
@@ -7677,7 +7677,7 @@
     <row r="552">
       <c r="B552" t="inlineStr">
         <is>
-          <t>SAN JUAN EVANGELISTA</t>
+          <t>San Juan Evangelista</t>
         </is>
       </c>
       <c r="C552">
@@ -7690,7 +7690,7 @@
     <row r="553">
       <c r="B553" t="inlineStr">
         <is>
-          <t>SANTIAGO TUXTLA</t>
+          <t>Santiago Tuxtla</t>
         </is>
       </c>
       <c r="C553">
@@ -7703,7 +7703,7 @@
     <row r="554">
       <c r="B554" t="inlineStr">
         <is>
-          <t>SOCONUSCO</t>
+          <t>Soconusco</t>
         </is>
       </c>
       <c r="C554">
@@ -7716,7 +7716,7 @@
     <row r="555">
       <c r="B555" t="inlineStr">
         <is>
-          <t>TEMPOAL</t>
+          <t>Tempoal</t>
         </is>
       </c>
       <c r="C555">
@@ -7729,7 +7729,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>TENAMPA</t>
+          <t>Tenampa</t>
         </is>
       </c>
       <c r="C556">
@@ -7742,7 +7742,7 @@
     <row r="557">
       <c r="B557" t="inlineStr">
         <is>
-          <t>TEPATLAXCO</t>
+          <t>Tepatlaxco</t>
         </is>
       </c>
       <c r="C557">
@@ -7755,7 +7755,7 @@
     <row r="558">
       <c r="B558" t="inlineStr">
         <is>
-          <t>TEXISTEPEC</t>
+          <t>Texistepec</t>
         </is>
       </c>
       <c r="C558">
@@ -7768,7 +7768,7 @@
     <row r="559">
       <c r="B559" t="inlineStr">
         <is>
-          <t>TEZONAPA</t>
+          <t>Tezonapa</t>
         </is>
       </c>
       <c r="C559">
@@ -7781,7 +7781,7 @@
     <row r="560">
       <c r="B560" t="inlineStr">
         <is>
-          <t>TIERRA BLANCA</t>
+          <t>Tierra Blanca</t>
         </is>
       </c>
       <c r="C560">
@@ -7794,7 +7794,7 @@
     <row r="561">
       <c r="B561" t="inlineStr">
         <is>
-          <t>TIHUATLÁN</t>
+          <t>Tihuatlán</t>
         </is>
       </c>
       <c r="C561">
@@ -7807,7 +7807,7 @@
     <row r="562">
       <c r="B562" t="inlineStr">
         <is>
-          <t>TLACHICHILCO</t>
+          <t>Tlachichilco</t>
         </is>
       </c>
       <c r="C562">
@@ -7820,7 +7820,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>TLACOLULAN</t>
+          <t>Tlacolulan</t>
         </is>
       </c>
       <c r="C563">
@@ -7833,7 +7833,7 @@
     <row r="564">
       <c r="B564" t="inlineStr">
         <is>
-          <t>TLALIXCOYAN</t>
+          <t>Tlalixcoyan</t>
         </is>
       </c>
       <c r="C564">
@@ -7846,7 +7846,7 @@
     <row r="565">
       <c r="B565" t="inlineStr">
         <is>
-          <t>TLAPACOYAN</t>
+          <t>Tlapacoyan</t>
         </is>
       </c>
       <c r="C565">
@@ -7859,7 +7859,7 @@
     <row r="566">
       <c r="B566" t="inlineStr">
         <is>
-          <t>TOTUTLA</t>
+          <t>Totutla</t>
         </is>
       </c>
       <c r="C566">
@@ -7872,7 +7872,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>TRES VALLES</t>
+          <t>Tres Valles</t>
         </is>
       </c>
       <c r="C567">
@@ -7885,7 +7885,7 @@
     <row r="568">
       <c r="B568" t="inlineStr">
         <is>
-          <t>TUXPAN</t>
+          <t>Tuxpan</t>
         </is>
       </c>
       <c r="C568">
@@ -7898,7 +7898,7 @@
     <row r="569">
       <c r="B569" t="inlineStr">
         <is>
-          <t>UXPANAPA</t>
+          <t>Uxpanapa</t>
         </is>
       </c>
       <c r="C569">
@@ -7911,7 +7911,7 @@
     <row r="570">
       <c r="B570" t="inlineStr">
         <is>
-          <t>VERACRUZ</t>
+          <t>Veracruz</t>
         </is>
       </c>
       <c r="C570">
@@ -7924,7 +7924,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>XALAPA</t>
+          <t>Xalapa</t>
         </is>
       </c>
       <c r="C571">
@@ -7937,7 +7937,7 @@
     <row r="572">
       <c r="B572" t="inlineStr">
         <is>
-          <t>YANGA</t>
+          <t>Yanga</t>
         </is>
       </c>
       <c r="C572">
@@ -7950,7 +7950,7 @@
     <row r="573">
       <c r="B573" t="inlineStr">
         <is>
-          <t>ZARAGOZA</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="C573">
@@ -7963,7 +7963,7 @@
     <row r="574">
       <c r="B574" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C574">
@@ -7976,12 +7976,12 @@
     <row r="575">
       <c r="A575" t="inlineStr">
         <is>
-          <t>YUCATÁN</t>
+          <t>Yucatán</t>
         </is>
       </c>
       <c r="B575" t="inlineStr">
         <is>
-          <t>IZAMAL</t>
+          <t>Izamal</t>
         </is>
       </c>
       <c r="C575">
@@ -7994,7 +7994,7 @@
     <row r="576">
       <c r="B576" t="inlineStr">
         <is>
-          <t>MÉRIDA</t>
+          <t>Mérida</t>
         </is>
       </c>
       <c r="C576">
@@ -8007,7 +8007,7 @@
     <row r="577">
       <c r="B577" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C577">
@@ -8020,12 +8020,12 @@
     <row r="578">
       <c r="A578" t="inlineStr">
         <is>
-          <t>ZACATECAS</t>
+          <t>Zacatecas</t>
         </is>
       </c>
       <c r="B578" t="inlineStr">
         <is>
-          <t>GENERAL FRANCISCO R. MURGUÍA</t>
+          <t>General Francisco R. Murguía</t>
         </is>
       </c>
       <c r="C578">
@@ -8038,7 +8038,7 @@
     <row r="579">
       <c r="B579" t="inlineStr">
         <is>
-          <t>GUADALUPE</t>
+          <t>Guadalupe</t>
         </is>
       </c>
       <c r="C579">
@@ -8051,7 +8051,7 @@
     <row r="580">
       <c r="B580" t="inlineStr">
         <is>
-          <t>MAZAPIL</t>
+          <t>Mazapil</t>
         </is>
       </c>
       <c r="C580">
@@ -8064,7 +8064,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>MEZQUITAL DEL ORO</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C581">
@@ -8077,7 +8077,7 @@
     <row r="582">
       <c r="B582" t="inlineStr">
         <is>
-          <t>PINOS</t>
+          <t>Pinos</t>
         </is>
       </c>
       <c r="C582">
@@ -8090,7 +8090,7 @@
     <row r="583">
       <c r="B583" t="inlineStr">
         <is>
-          <t>TEÚL DE GONZÁLEZ ORTEGA</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C583">
@@ -8103,7 +8103,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>TRINIDAD GARCÍA DE LA CADENA</t>
+          <t>Trinidad García De La Cadena</t>
         </is>
       </c>
       <c r="C584">
@@ -8116,7 +8116,7 @@
     <row r="585">
       <c r="B585" t="inlineStr">
         <is>
-          <t>VILLA DE COS</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C585">
@@ -8129,7 +8129,7 @@
     <row r="586">
       <c r="B586" t="inlineStr">
         <is>
-          <t>VILLA GONZÁLEZ ORTEGA</t>
+          <t>Villa González Ortega</t>
         </is>
       </c>
       <c r="C586">
@@ -8142,7 +8142,7 @@
     <row r="587">
       <c r="B587" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C587">
@@ -8155,7 +8155,7 @@
     <row r="588">
       <c r="A588" t="inlineStr">
         <is>
-          <t>TOTAL</t>
+          <t>Total</t>
         </is>
       </c>
       <c r="C588">
@@ -8163,41 +8163,6 @@
       </c>
       <c r="D588">
         <v>1</v>
-      </c>
-    </row>
-    <row r="590">
-      <c r="A590" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 789,030</t>
-        </is>
-      </c>
-    </row>
-    <row r="591">
-      <c r="A591" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="592">
-      <c r="A592" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de Mexicanas y Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="593">
-      <c r="A593" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="594">
-      <c r="A594" t="inlineStr">
-        <is>
-          <t>Noviembre de 2024</t>
-        </is>
       </c>
     </row>
   </sheetData>

--- a/Data_clean/MCAS/Estados_US/Edos_USA_2023/MARYLAND_2023.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2023/MARYLAND_2023.xlsx
@@ -398,6 +398,11 @@
       </c>
     </row>
     <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B3" t="inlineStr">
         <is>
           <t>Asientos</t>
@@ -411,6 +416,11 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B4" t="inlineStr">
         <is>
           <t>Rincón De Romos</t>
@@ -424,6 +434,11 @@
       </c>
     </row>
     <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>Aguascalientes</t>
+        </is>
+      </c>
       <c r="B5" t="inlineStr">
         <is>
           <t>Total</t>
@@ -455,6 +470,11 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B7" t="inlineStr">
         <is>
           <t>Mexicali</t>
@@ -468,6 +488,11 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B8" t="inlineStr">
         <is>
           <t>Tijuana</t>
@@ -481,6 +506,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>Baja California</t>
+        </is>
+      </c>
       <c r="B9" t="inlineStr">
         <is>
           <t>Total</t>
@@ -512,6 +542,11 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B11" t="inlineStr">
         <is>
           <t>Carmen</t>
@@ -525,6 +560,11 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B12" t="inlineStr">
         <is>
           <t>Champotón</t>
@@ -538,6 +578,11 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B13" t="inlineStr">
         <is>
           <t>Escárcega</t>
@@ -551,6 +596,11 @@
       </c>
     </row>
     <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B14" t="inlineStr">
         <is>
           <t>Hopelchén</t>
@@ -564,6 +614,11 @@
       </c>
     </row>
     <row r="15">
+      <c r="A15" t="inlineStr">
+        <is>
+          <t>Campeche</t>
+        </is>
+      </c>
       <c r="B15" t="inlineStr">
         <is>
           <t>Total</t>
@@ -595,6 +650,11 @@
       </c>
     </row>
     <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B17" t="inlineStr">
         <is>
           <t>Acapetahua</t>
@@ -608,6 +668,11 @@
       </c>
     </row>
     <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B18" t="inlineStr">
         <is>
           <t>Aldama</t>
@@ -621,6 +686,11 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B19" t="inlineStr">
         <is>
           <t>Altamirano</t>
@@ -634,6 +704,11 @@
       </c>
     </row>
     <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B20" t="inlineStr">
         <is>
           <t>Amatenango De La Frontera</t>
@@ -647,6 +722,11 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B21" t="inlineStr">
         <is>
           <t>Angel Albino Corzo</t>
@@ -660,6 +740,11 @@
       </c>
     </row>
     <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B22" t="inlineStr">
         <is>
           <t>Arriaga</t>
@@ -673,6 +758,11 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B23" t="inlineStr">
         <is>
           <t>Cacahoatán</t>
@@ -686,6 +776,11 @@
       </c>
     </row>
     <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B24" t="inlineStr">
         <is>
           <t>Chiapa De Corzo</t>
@@ -699,6 +794,11 @@
       </c>
     </row>
     <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B25" t="inlineStr">
         <is>
           <t>Chicomuselo</t>
@@ -712,6 +812,11 @@
       </c>
     </row>
     <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B26" t="inlineStr">
         <is>
           <t>Chilón</t>
@@ -725,6 +830,11 @@
       </c>
     </row>
     <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B27" t="inlineStr">
         <is>
           <t>Cintalapa</t>
@@ -738,6 +848,11 @@
       </c>
     </row>
     <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B28" t="inlineStr">
         <is>
           <t>Comitán De Domínguez</t>
@@ -751,6 +866,11 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B29" t="inlineStr">
         <is>
           <t>Copainalá</t>
@@ -764,6 +884,11 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B30" t="inlineStr">
         <is>
           <t>Escuintla</t>
@@ -777,6 +902,11 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B31" t="inlineStr">
         <is>
           <t>Frontera Comalapa</t>
@@ -790,6 +920,11 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B32" t="inlineStr">
         <is>
           <t>Huehuetán</t>
@@ -803,6 +938,11 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B33" t="inlineStr">
         <is>
           <t>Huixtla</t>
@@ -816,6 +956,11 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B34" t="inlineStr">
         <is>
           <t>Jiquipilas</t>
@@ -829,6 +974,11 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B35" t="inlineStr">
         <is>
           <t>Jitotol</t>
@@ -842,6 +992,11 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B36" t="inlineStr">
         <is>
           <t>La Concordia</t>
@@ -855,6 +1010,11 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B37" t="inlineStr">
         <is>
           <t>La Independencia</t>
@@ -868,6 +1028,11 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B38" t="inlineStr">
         <is>
           <t>La Trinitaria</t>
@@ -881,6 +1046,11 @@
       </c>
     </row>
     <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B39" t="inlineStr">
         <is>
           <t>Las Margaritas</t>
@@ -894,6 +1064,11 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B40" t="inlineStr">
         <is>
           <t>Mapastepec</t>
@@ -907,6 +1082,11 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B41" t="inlineStr">
         <is>
           <t>Marqués De Comillas</t>
@@ -920,6 +1100,11 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B42" t="inlineStr">
         <is>
           <t>Mazapa De Madero</t>
@@ -933,6 +1118,11 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B43" t="inlineStr">
         <is>
           <t>Motozintla</t>
@@ -946,6 +1136,11 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B44" t="inlineStr">
         <is>
           <t>Ocosingo</t>
@@ -959,6 +1154,11 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B45" t="inlineStr">
         <is>
           <t>Ocozocoautla De Espinosa</t>
@@ -972,6 +1172,11 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B46" t="inlineStr">
         <is>
           <t>Palenque</t>
@@ -985,6 +1190,11 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B47" t="inlineStr">
         <is>
           <t>Pantelhó</t>
@@ -998,6 +1208,11 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B48" t="inlineStr">
         <is>
           <t>Pantepec</t>
@@ -1011,6 +1226,11 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B49" t="inlineStr">
         <is>
           <t>Pijijiapan</t>
@@ -1024,6 +1244,11 @@
       </c>
     </row>
     <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B50" t="inlineStr">
         <is>
           <t>San Cristóbal De Las Casas</t>
@@ -1037,6 +1262,11 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B51" t="inlineStr">
         <is>
           <t>Siltepec</t>
@@ -1050,6 +1280,11 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B52" t="inlineStr">
         <is>
           <t>Suchiate</t>
@@ -1063,6 +1298,11 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B53" t="inlineStr">
         <is>
           <t>Tapachula</t>
@@ -1076,6 +1316,11 @@
       </c>
     </row>
     <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B54" t="inlineStr">
         <is>
           <t>Tapilula</t>
@@ -1089,6 +1334,11 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B55" t="inlineStr">
         <is>
           <t>Tecpatán</t>
@@ -1102,6 +1352,11 @@
       </c>
     </row>
     <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B56" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -1115,6 +1370,11 @@
       </c>
     </row>
     <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B57" t="inlineStr">
         <is>
           <t>Tuxtla Chico</t>
@@ -1128,6 +1388,11 @@
       </c>
     </row>
     <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B58" t="inlineStr">
         <is>
           <t>Tuxtla Gutiérrez</t>
@@ -1141,6 +1406,11 @@
       </c>
     </row>
     <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B59" t="inlineStr">
         <is>
           <t>Tuzantán</t>
@@ -1154,6 +1424,11 @@
       </c>
     </row>
     <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B60" t="inlineStr">
         <is>
           <t>Unión Juárez</t>
@@ -1167,6 +1442,11 @@
       </c>
     </row>
     <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B61" t="inlineStr">
         <is>
           <t>Villa Comaltitlán</t>
@@ -1180,6 +1460,11 @@
       </c>
     </row>
     <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B62" t="inlineStr">
         <is>
           <t>Villa Corzo</t>
@@ -1193,6 +1478,11 @@
       </c>
     </row>
     <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B63" t="inlineStr">
         <is>
           <t>Villaflores</t>
@@ -1206,6 +1496,11 @@
       </c>
     </row>
     <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>Chiapas</t>
+        </is>
+      </c>
       <c r="B64" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1237,6 +1532,11 @@
       </c>
     </row>
     <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B66" t="inlineStr">
         <is>
           <t>Delicias</t>
@@ -1250,6 +1550,11 @@
       </c>
     </row>
     <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B67" t="inlineStr">
         <is>
           <t>Rosales</t>
@@ -1263,6 +1568,11 @@
       </c>
     </row>
     <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Chihuahua</t>
+        </is>
+      </c>
       <c r="B68" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1294,6 +1604,11 @@
       </c>
     </row>
     <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B70" t="inlineStr">
         <is>
           <t>Benito Juárez</t>
@@ -1307,6 +1622,11 @@
       </c>
     </row>
     <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B71" t="inlineStr">
         <is>
           <t>Coyoacán</t>
@@ -1320,6 +1640,11 @@
       </c>
     </row>
     <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B72" t="inlineStr">
         <is>
           <t>Cuajimalpa De Morelos</t>
@@ -1333,6 +1658,11 @@
       </c>
     </row>
     <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B73" t="inlineStr">
         <is>
           <t>Cuauhtémoc</t>
@@ -1346,6 +1676,11 @@
       </c>
     </row>
     <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B74" t="inlineStr">
         <is>
           <t>Gustavo A. Madero</t>
@@ -1359,6 +1694,11 @@
       </c>
     </row>
     <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B75" t="inlineStr">
         <is>
           <t>Iztacalco</t>
@@ -1372,6 +1712,11 @@
       </c>
     </row>
     <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B76" t="inlineStr">
         <is>
           <t>Iztapalapa</t>
@@ -1385,6 +1730,11 @@
       </c>
     </row>
     <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B77" t="inlineStr">
         <is>
           <t>Miguel Hidalgo</t>
@@ -1398,6 +1748,11 @@
       </c>
     </row>
     <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B78" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -1411,6 +1766,11 @@
       </c>
     </row>
     <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B79" t="inlineStr">
         <is>
           <t>Tlalpan</t>
@@ -1424,6 +1784,11 @@
       </c>
     </row>
     <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B80" t="inlineStr">
         <is>
           <t>Tláhuac</t>
@@ -1437,6 +1802,11 @@
       </c>
     </row>
     <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B81" t="inlineStr">
         <is>
           <t>Venustiano Carranza</t>
@@ -1450,6 +1820,11 @@
       </c>
     </row>
     <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B82" t="inlineStr">
         <is>
           <t>Xochimilco</t>
@@ -1463,6 +1838,11 @@
       </c>
     </row>
     <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B83" t="inlineStr">
         <is>
           <t>Álvaro Obregón</t>
@@ -1476,6 +1856,11 @@
       </c>
     </row>
     <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>Ciudad De México</t>
+        </is>
+      </c>
       <c r="B84" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1507,6 +1892,11 @@
       </c>
     </row>
     <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B86" t="inlineStr">
         <is>
           <t>Piedras Negras</t>
@@ -1520,6 +1910,11 @@
       </c>
     </row>
     <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B87" t="inlineStr">
         <is>
           <t>Sabinas</t>
@@ -1533,6 +1928,11 @@
       </c>
     </row>
     <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B88" t="inlineStr">
         <is>
           <t>San Pedro</t>
@@ -1546,6 +1946,11 @@
       </c>
     </row>
     <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>Coahuila De Zaragoza</t>
+        </is>
+      </c>
       <c r="B89" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1577,6 +1982,11 @@
       </c>
     </row>
     <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Colima</t>
+        </is>
+      </c>
       <c r="B91" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1608,6 +2018,11 @@
       </c>
     </row>
     <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B93" t="inlineStr">
         <is>
           <t>Durango</t>
@@ -1621,6 +2036,11 @@
       </c>
     </row>
     <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B94" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -1634,6 +2054,11 @@
       </c>
     </row>
     <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B95" t="inlineStr">
         <is>
           <t>Guanaceví</t>
@@ -1647,6 +2072,11 @@
       </c>
     </row>
     <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B96" t="inlineStr">
         <is>
           <t>Lerdo</t>
@@ -1660,6 +2090,11 @@
       </c>
     </row>
     <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B97" t="inlineStr">
         <is>
           <t>San Bernardo</t>
@@ -1673,6 +2108,11 @@
       </c>
     </row>
     <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B98" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -1686,6 +2126,11 @@
       </c>
     </row>
     <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Durango</t>
+        </is>
+      </c>
       <c r="B99" t="inlineStr">
         <is>
           <t>Total</t>
@@ -1717,6 +2162,11 @@
       </c>
     </row>
     <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B101" t="inlineStr">
         <is>
           <t>Acolman</t>
@@ -1730,6 +2180,11 @@
       </c>
     </row>
     <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B102" t="inlineStr">
         <is>
           <t>Aculco</t>
@@ -1743,6 +2198,11 @@
       </c>
     </row>
     <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B103" t="inlineStr">
         <is>
           <t>Almoloya De Alquisiras</t>
@@ -1756,6 +2216,11 @@
       </c>
     </row>
     <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B104" t="inlineStr">
         <is>
           <t>Almoloya De Juárez</t>
@@ -1769,6 +2234,11 @@
       </c>
     </row>
     <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B105" t="inlineStr">
         <is>
           <t>Amatepec</t>
@@ -1782,6 +2252,11 @@
       </c>
     </row>
     <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B106" t="inlineStr">
         <is>
           <t>Atlacomulco</t>
@@ -1795,6 +2270,11 @@
       </c>
     </row>
     <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B107" t="inlineStr">
         <is>
           <t>Chalco</t>
@@ -1808,6 +2288,11 @@
       </c>
     </row>
     <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B108" t="inlineStr">
         <is>
           <t>Chimalhuacán</t>
@@ -1821,6 +2306,11 @@
       </c>
     </row>
     <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B109" t="inlineStr">
         <is>
           <t>Coacalco De Berriozábal</t>
@@ -1834,6 +2324,11 @@
       </c>
     </row>
     <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B110" t="inlineStr">
         <is>
           <t>Coatepec Harinas</t>
@@ -1847,6 +2342,11 @@
       </c>
     </row>
     <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B111" t="inlineStr">
         <is>
           <t>Cuautitlán Izcalli</t>
@@ -1860,6 +2360,11 @@
       </c>
     </row>
     <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B112" t="inlineStr">
         <is>
           <t>Ecatepec De Morelos</t>
@@ -1873,6 +2378,11 @@
       </c>
     </row>
     <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B113" t="inlineStr">
         <is>
           <t>El Oro</t>
@@ -1886,6 +2396,11 @@
       </c>
     </row>
     <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B114" t="inlineStr">
         <is>
           <t>Ixtapaluca</t>
@@ -1899,6 +2414,11 @@
       </c>
     </row>
     <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B115" t="inlineStr">
         <is>
           <t>Ixtapan De La Sal</t>
@@ -1912,6 +2432,11 @@
       </c>
     </row>
     <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B116" t="inlineStr">
         <is>
           <t>Jilotepec</t>
@@ -1925,6 +2450,11 @@
       </c>
     </row>
     <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B117" t="inlineStr">
         <is>
           <t>Jiquipilco</t>
@@ -1938,6 +2468,11 @@
       </c>
     </row>
     <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B118" t="inlineStr">
         <is>
           <t>Joquicingo</t>
@@ -1951,6 +2486,11 @@
       </c>
     </row>
     <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B119" t="inlineStr">
         <is>
           <t>Juchitepec</t>
@@ -1964,6 +2504,11 @@
       </c>
     </row>
     <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B120" t="inlineStr">
         <is>
           <t>Luvianos</t>
@@ -1977,6 +2522,11 @@
       </c>
     </row>
     <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B121" t="inlineStr">
         <is>
           <t>Malinalco</t>
@@ -1990,6 +2540,11 @@
       </c>
     </row>
     <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B122" t="inlineStr">
         <is>
           <t>Morelos</t>
@@ -2003,6 +2558,11 @@
       </c>
     </row>
     <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B123" t="inlineStr">
         <is>
           <t>Naucalpan De Juárez</t>
@@ -2016,6 +2576,11 @@
       </c>
     </row>
     <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B124" t="inlineStr">
         <is>
           <t>Nezahualcóyotl</t>
@@ -2029,6 +2594,11 @@
       </c>
     </row>
     <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B125" t="inlineStr">
         <is>
           <t>Nicolás Romero</t>
@@ -2042,6 +2612,11 @@
       </c>
     </row>
     <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B126" t="inlineStr">
         <is>
           <t>San Felipe Del Progreso</t>
@@ -2055,6 +2630,11 @@
       </c>
     </row>
     <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B127" t="inlineStr">
         <is>
           <t>San José Del Rincón</t>
@@ -2068,6 +2648,11 @@
       </c>
     </row>
     <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B128" t="inlineStr">
         <is>
           <t>Tejupilco</t>
@@ -2081,6 +2666,11 @@
       </c>
     </row>
     <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B129" t="inlineStr">
         <is>
           <t>Temascalcingo</t>
@@ -2094,6 +2684,11 @@
       </c>
     </row>
     <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B130" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -2107,6 +2702,11 @@
       </c>
     </row>
     <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B131" t="inlineStr">
         <is>
           <t>Tenango Del Valle</t>
@@ -2120,6 +2720,11 @@
       </c>
     </row>
     <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B132" t="inlineStr">
         <is>
           <t>Tepetlaoxtoc</t>
@@ -2133,6 +2738,11 @@
       </c>
     </row>
     <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B133" t="inlineStr">
         <is>
           <t>Tepetlixpa</t>
@@ -2146,6 +2756,11 @@
       </c>
     </row>
     <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B134" t="inlineStr">
         <is>
           <t>Tepotzotlán</t>
@@ -2159,6 +2774,11 @@
       </c>
     </row>
     <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B135" t="inlineStr">
         <is>
           <t>Texcoco</t>
@@ -2172,6 +2792,11 @@
       </c>
     </row>
     <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B136" t="inlineStr">
         <is>
           <t>Tlalnepantla De Baz</t>
@@ -2185,6 +2810,11 @@
       </c>
     </row>
     <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B137" t="inlineStr">
         <is>
           <t>Toluca</t>
@@ -2198,6 +2828,11 @@
       </c>
     </row>
     <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B138" t="inlineStr">
         <is>
           <t>Valle De Bravo</t>
@@ -2211,6 +2846,11 @@
       </c>
     </row>
     <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B139" t="inlineStr">
         <is>
           <t>Villa De Allende</t>
@@ -2224,6 +2864,11 @@
       </c>
     </row>
     <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B140" t="inlineStr">
         <is>
           <t>Villa Del Carbón</t>
@@ -2237,6 +2882,11 @@
       </c>
     </row>
     <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B141" t="inlineStr">
         <is>
           <t>Villa Victoria</t>
@@ -2250,6 +2900,11 @@
       </c>
     </row>
     <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B142" t="inlineStr">
         <is>
           <t>Xonacatlán</t>
@@ -2263,6 +2918,11 @@
       </c>
     </row>
     <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B143" t="inlineStr">
         <is>
           <t>Zinacantepec</t>
@@ -2276,6 +2936,11 @@
       </c>
     </row>
     <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>Estado De México</t>
+        </is>
+      </c>
       <c r="B144" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2307,6 +2972,11 @@
       </c>
     </row>
     <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B146" t="inlineStr">
         <is>
           <t>Acámbaro</t>
@@ -2320,6 +2990,11 @@
       </c>
     </row>
     <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B147" t="inlineStr">
         <is>
           <t>Apaseo El Alto</t>
@@ -2333,6 +3008,11 @@
       </c>
     </row>
     <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B148" t="inlineStr">
         <is>
           <t>Atarjea</t>
@@ -2346,6 +3026,11 @@
       </c>
     </row>
     <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B149" t="inlineStr">
         <is>
           <t>Celaya</t>
@@ -2359,6 +3044,11 @@
       </c>
     </row>
     <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B150" t="inlineStr">
         <is>
           <t>Comonfort</t>
@@ -2372,6 +3062,11 @@
       </c>
     </row>
     <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B151" t="inlineStr">
         <is>
           <t>Cortazar</t>
@@ -2385,6 +3080,11 @@
       </c>
     </row>
     <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B152" t="inlineStr">
         <is>
           <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
@@ -2398,6 +3098,11 @@
       </c>
     </row>
     <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B153" t="inlineStr">
         <is>
           <t>Guanajuato</t>
@@ -2411,6 +3116,11 @@
       </c>
     </row>
     <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B154" t="inlineStr">
         <is>
           <t>Irapuato</t>
@@ -2424,6 +3134,11 @@
       </c>
     </row>
     <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B155" t="inlineStr">
         <is>
           <t>Jaral Del Progreso</t>
@@ -2437,6 +3152,11 @@
       </c>
     </row>
     <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B156" t="inlineStr">
         <is>
           <t>Jerécuaro</t>
@@ -2450,6 +3170,11 @@
       </c>
     </row>
     <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B157" t="inlineStr">
         <is>
           <t>León</t>
@@ -2463,6 +3188,11 @@
       </c>
     </row>
     <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B158" t="inlineStr">
         <is>
           <t>Manuel Doblado</t>
@@ -2476,6 +3206,11 @@
       </c>
     </row>
     <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B159" t="inlineStr">
         <is>
           <t>Purísima Del Rincón</t>
@@ -2489,6 +3224,11 @@
       </c>
     </row>
     <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B160" t="inlineStr">
         <is>
           <t>Pénjamo</t>
@@ -2502,6 +3242,11 @@
       </c>
     </row>
     <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B161" t="inlineStr">
         <is>
           <t>San Diego De La Unión</t>
@@ -2515,6 +3260,11 @@
       </c>
     </row>
     <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B162" t="inlineStr">
         <is>
           <t>San Felipe</t>
@@ -2528,6 +3278,11 @@
       </c>
     </row>
     <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B163" t="inlineStr">
         <is>
           <t>San José Iturbide</t>
@@ -2541,6 +3296,11 @@
       </c>
     </row>
     <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B164" t="inlineStr">
         <is>
           <t>San Luis De La Paz</t>
@@ -2554,6 +3314,11 @@
       </c>
     </row>
     <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B165" t="inlineStr">
         <is>
           <t>San Miguel De Allende</t>
@@ -2567,6 +3332,11 @@
       </c>
     </row>
     <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B166" t="inlineStr">
         <is>
           <t>Santa Cruz De Juventino Rosas</t>
@@ -2580,6 +3350,11 @@
       </c>
     </row>
     <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B167" t="inlineStr">
         <is>
           <t>Silao De La Victoria</t>
@@ -2593,6 +3368,11 @@
       </c>
     </row>
     <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B168" t="inlineStr">
         <is>
           <t>Tarimoro</t>
@@ -2606,6 +3386,11 @@
       </c>
     </row>
     <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B169" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -2619,6 +3404,11 @@
       </c>
     </row>
     <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B170" t="inlineStr">
         <is>
           <t>Valle De Santiago</t>
@@ -2632,6 +3422,11 @@
       </c>
     </row>
     <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B171" t="inlineStr">
         <is>
           <t>Yuriria</t>
@@ -2645,6 +3440,11 @@
       </c>
     </row>
     <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>Guanajuato</t>
+        </is>
+      </c>
       <c r="B172" t="inlineStr">
         <is>
           <t>Total</t>
@@ -2676,6 +3476,11 @@
       </c>
     </row>
     <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B174" t="inlineStr">
         <is>
           <t>Acatepec</t>
@@ -2689,6 +3494,11 @@
       </c>
     </row>
     <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B175" t="inlineStr">
         <is>
           <t>Ahuacuotzingo</t>
@@ -2702,6 +3512,11 @@
       </c>
     </row>
     <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B176" t="inlineStr">
         <is>
           <t>Arcelia</t>
@@ -2715,6 +3530,11 @@
       </c>
     </row>
     <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B177" t="inlineStr">
         <is>
           <t>Atlamajalcingo Del Monte</t>
@@ -2728,6 +3548,11 @@
       </c>
     </row>
     <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B178" t="inlineStr">
         <is>
           <t>Ayutla De Los Libres</t>
@@ -2741,6 +3566,11 @@
       </c>
     </row>
     <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B179" t="inlineStr">
         <is>
           <t>Azoyú</t>
@@ -2754,6 +3584,11 @@
       </c>
     </row>
     <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B180" t="inlineStr">
         <is>
           <t>Coahuayutla De José María Izazaga</t>
@@ -2767,6 +3602,11 @@
       </c>
     </row>
     <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B181" t="inlineStr">
         <is>
           <t>Cochoapa El Grande</t>
@@ -2780,6 +3620,11 @@
       </c>
     </row>
     <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B182" t="inlineStr">
         <is>
           <t>Coyuca De Benítez</t>
@@ -2793,6 +3638,11 @@
       </c>
     </row>
     <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B183" t="inlineStr">
         <is>
           <t>Cuajinicuilapa</t>
@@ -2806,6 +3656,11 @@
       </c>
     </row>
     <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B184" t="inlineStr">
         <is>
           <t>Cuautepec</t>
@@ -2819,6 +3674,11 @@
       </c>
     </row>
     <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B185" t="inlineStr">
         <is>
           <t>Cutzamala De Pinzón</t>
@@ -2832,6 +3692,11 @@
       </c>
     </row>
     <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B186" t="inlineStr">
         <is>
           <t>Eduardo Neri</t>
@@ -2845,6 +3710,11 @@
       </c>
     </row>
     <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B187" t="inlineStr">
         <is>
           <t>Juan R. Escudero</t>
@@ -2858,6 +3728,11 @@
       </c>
     </row>
     <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B188" t="inlineStr">
         <is>
           <t>Malinaltepec</t>
@@ -2871,6 +3746,11 @@
       </c>
     </row>
     <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B189" t="inlineStr">
         <is>
           <t>Metlatónoc</t>
@@ -2884,6 +3764,11 @@
       </c>
     </row>
     <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B190" t="inlineStr">
         <is>
           <t>Mártir De Cuilapan</t>
@@ -2897,6 +3782,11 @@
       </c>
     </row>
     <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B191" t="inlineStr">
         <is>
           <t>Olinalá</t>
@@ -2910,6 +3800,11 @@
       </c>
     </row>
     <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B192" t="inlineStr">
         <is>
           <t>Ometepec</t>
@@ -2923,6 +3818,11 @@
       </c>
     </row>
     <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B193" t="inlineStr">
         <is>
           <t>Petatlán</t>
@@ -2936,6 +3836,11 @@
       </c>
     </row>
     <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B194" t="inlineStr">
         <is>
           <t>Quechultenango</t>
@@ -2949,6 +3854,11 @@
       </c>
     </row>
     <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B195" t="inlineStr">
         <is>
           <t>San Luis Acatlán</t>
@@ -2962,6 +3872,11 @@
       </c>
     </row>
     <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B196" t="inlineStr">
         <is>
           <t>San Marcos</t>
@@ -2975,6 +3890,11 @@
       </c>
     </row>
     <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B197" t="inlineStr">
         <is>
           <t>San Miguel Totolapan</t>
@@ -2988,6 +3908,11 @@
       </c>
     </row>
     <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B198" t="inlineStr">
         <is>
           <t>Taxco De Alarcón</t>
@@ -3001,6 +3926,11 @@
       </c>
     </row>
     <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B199" t="inlineStr">
         <is>
           <t>Tecoanapa</t>
@@ -3014,6 +3944,11 @@
       </c>
     </row>
     <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B200" t="inlineStr">
         <is>
           <t>Tepecoacuilco De Trujano</t>
@@ -3027,6 +3962,11 @@
       </c>
     </row>
     <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B201" t="inlineStr">
         <is>
           <t>Tixtla De Guerrero</t>
@@ -3040,6 +3980,11 @@
       </c>
     </row>
     <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B202" t="inlineStr">
         <is>
           <t>Tlacoachistlahuaca</t>
@@ -3053,6 +3998,11 @@
       </c>
     </row>
     <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B203" t="inlineStr">
         <is>
           <t>Tlacoapa</t>
@@ -3066,6 +4016,11 @@
       </c>
     </row>
     <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B204" t="inlineStr">
         <is>
           <t>Tlalixtaquilla De Maldonado</t>
@@ -3079,6 +4034,11 @@
       </c>
     </row>
     <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B205" t="inlineStr">
         <is>
           <t>Tlapa De Comonfort</t>
@@ -3092,6 +4052,11 @@
       </c>
     </row>
     <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B206" t="inlineStr">
         <is>
           <t>Técpan De Galeana</t>
@@ -3105,6 +4070,11 @@
       </c>
     </row>
     <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B207" t="inlineStr">
         <is>
           <t>Xalpatláhuac</t>
@@ -3118,6 +4088,11 @@
       </c>
     </row>
     <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B208" t="inlineStr">
         <is>
           <t>Xochistlahuaca</t>
@@ -3131,6 +4106,11 @@
       </c>
     </row>
     <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B209" t="inlineStr">
         <is>
           <t>Zapotitlán Tablas</t>
@@ -3144,6 +4124,11 @@
       </c>
     </row>
     <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B210" t="inlineStr">
         <is>
           <t>Zihuatanejo De Azueta</t>
@@ -3157,6 +4142,11 @@
       </c>
     </row>
     <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>Guerrero</t>
+        </is>
+      </c>
       <c r="B211" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3188,6 +4178,11 @@
       </c>
     </row>
     <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B213" t="inlineStr">
         <is>
           <t>Alfajayucan</t>
@@ -3201,6 +4196,11 @@
       </c>
     </row>
     <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B214" t="inlineStr">
         <is>
           <t>Apan</t>
@@ -3214,6 +4214,11 @@
       </c>
     </row>
     <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B215" t="inlineStr">
         <is>
           <t>Atotonilco El Grande</t>
@@ -3227,6 +4232,11 @@
       </c>
     </row>
     <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B216" t="inlineStr">
         <is>
           <t>Cardonal</t>
@@ -3240,6 +4250,11 @@
       </c>
     </row>
     <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B217" t="inlineStr">
         <is>
           <t>Chapulhuacán</t>
@@ -3253,6 +4268,11 @@
       </c>
     </row>
     <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B218" t="inlineStr">
         <is>
           <t>Epazoyucan</t>
@@ -3266,6 +4286,11 @@
       </c>
     </row>
     <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B219" t="inlineStr">
         <is>
           <t>Huehuetla</t>
@@ -3279,6 +4304,11 @@
       </c>
     </row>
     <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B220" t="inlineStr">
         <is>
           <t>Huejutla De Reyes</t>
@@ -3292,6 +4322,11 @@
       </c>
     </row>
     <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B221" t="inlineStr">
         <is>
           <t>Ixmiquilpan</t>
@@ -3305,6 +4340,11 @@
       </c>
     </row>
     <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B222" t="inlineStr">
         <is>
           <t>Lolotla</t>
@@ -3318,6 +4358,11 @@
       </c>
     </row>
     <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B223" t="inlineStr">
         <is>
           <t>Metztitlán</t>
@@ -3331,6 +4376,11 @@
       </c>
     </row>
     <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B224" t="inlineStr">
         <is>
           <t>Mineral Del Monte</t>
@@ -3344,6 +4394,11 @@
       </c>
     </row>
     <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B225" t="inlineStr">
         <is>
           <t>Mixquiahuala De Juárez</t>
@@ -3357,6 +4412,11 @@
       </c>
     </row>
     <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B226" t="inlineStr">
         <is>
           <t>Omitlán De Juárez</t>
@@ -3370,6 +4430,11 @@
       </c>
     </row>
     <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B227" t="inlineStr">
         <is>
           <t>Pachuca De Soto</t>
@@ -3383,6 +4448,11 @@
       </c>
     </row>
     <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B228" t="inlineStr">
         <is>
           <t>Pisaflores</t>
@@ -3396,6 +4466,11 @@
       </c>
     </row>
     <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B229" t="inlineStr">
         <is>
           <t>Progreso De Obregón</t>
@@ -3409,6 +4484,11 @@
       </c>
     </row>
     <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B230" t="inlineStr">
         <is>
           <t>San Agustín Metzquititlán</t>
@@ -3422,6 +4502,11 @@
       </c>
     </row>
     <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B231" t="inlineStr">
         <is>
           <t>San Bartolo Tutotepec</t>
@@ -3435,6 +4520,11 @@
       </c>
     </row>
     <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B232" t="inlineStr">
         <is>
           <t>San Felipe Orizatlán</t>
@@ -3448,6 +4538,11 @@
       </c>
     </row>
     <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B233" t="inlineStr">
         <is>
           <t>Singuilucan</t>
@@ -3461,6 +4556,11 @@
       </c>
     </row>
     <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B234" t="inlineStr">
         <is>
           <t>Tecozautla</t>
@@ -3474,6 +4574,11 @@
       </c>
     </row>
     <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B235" t="inlineStr">
         <is>
           <t>Tenango De Doria</t>
@@ -3487,6 +4592,11 @@
       </c>
     </row>
     <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B236" t="inlineStr">
         <is>
           <t>Tianguistengo</t>
@@ -3500,6 +4610,11 @@
       </c>
     </row>
     <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B237" t="inlineStr">
         <is>
           <t>Tula De Allende</t>
@@ -3513,6 +4628,11 @@
       </c>
     </row>
     <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B238" t="inlineStr">
         <is>
           <t>Tulancingo De Bravo</t>
@@ -3526,6 +4646,11 @@
       </c>
     </row>
     <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B239" t="inlineStr">
         <is>
           <t>Xochiatipan</t>
@@ -3539,6 +4664,11 @@
       </c>
     </row>
     <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B240" t="inlineStr">
         <is>
           <t>Xochicoatlán</t>
@@ -3552,6 +4682,11 @@
       </c>
     </row>
     <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B241" t="inlineStr">
         <is>
           <t>Zacualtipán De Ángeles</t>
@@ -3565,6 +4700,11 @@
       </c>
     </row>
     <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B242" t="inlineStr">
         <is>
           <t>Zapotlán De Juárez</t>
@@ -3578,6 +4718,11 @@
       </c>
     </row>
     <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B243" t="inlineStr">
         <is>
           <t>Zimapán</t>
@@ -3591,6 +4736,11 @@
       </c>
     </row>
     <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>Hidalgo</t>
+        </is>
+      </c>
       <c r="B244" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3622,6 +4772,11 @@
       </c>
     </row>
     <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B246" t="inlineStr">
         <is>
           <t>Guadalajara</t>
@@ -3635,6 +4790,11 @@
       </c>
     </row>
     <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B247" t="inlineStr">
         <is>
           <t>Jalostotitlán</t>
@@ -3648,6 +4808,11 @@
       </c>
     </row>
     <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B248" t="inlineStr">
         <is>
           <t>La Barca</t>
@@ -3661,6 +4826,11 @@
       </c>
     </row>
     <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B249" t="inlineStr">
         <is>
           <t>Lagos De Moreno</t>
@@ -3674,6 +4844,11 @@
       </c>
     </row>
     <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B250" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -3687,6 +4862,11 @@
       </c>
     </row>
     <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B251" t="inlineStr">
         <is>
           <t>Ocotlán</t>
@@ -3700,6 +4880,11 @@
       </c>
     </row>
     <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B252" t="inlineStr">
         <is>
           <t>Puerto Vallarta</t>
@@ -3713,6 +4898,11 @@
       </c>
     </row>
     <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B253" t="inlineStr">
         <is>
           <t>Quitupan</t>
@@ -3726,6 +4916,11 @@
       </c>
     </row>
     <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B254" t="inlineStr">
         <is>
           <t>San Cristóbal De La Barranca</t>
@@ -3739,6 +4934,11 @@
       </c>
     </row>
     <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B255" t="inlineStr">
         <is>
           <t>Tecalitlán</t>
@@ -3752,6 +4952,11 @@
       </c>
     </row>
     <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B256" t="inlineStr">
         <is>
           <t>Teocaltiche</t>
@@ -3765,6 +4970,11 @@
       </c>
     </row>
     <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B257" t="inlineStr">
         <is>
           <t>Tizapán El Alto</t>
@@ -3778,6 +4988,11 @@
       </c>
     </row>
     <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B258" t="inlineStr">
         <is>
           <t>Tonalá</t>
@@ -3791,6 +5006,11 @@
       </c>
     </row>
     <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B259" t="inlineStr">
         <is>
           <t>Villa Hidalgo</t>
@@ -3804,6 +5024,11 @@
       </c>
     </row>
     <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B260" t="inlineStr">
         <is>
           <t>Yahualica De González Gallo</t>
@@ -3817,6 +5042,11 @@
       </c>
     </row>
     <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B261" t="inlineStr">
         <is>
           <t>Zapopan</t>
@@ -3830,6 +5060,11 @@
       </c>
     </row>
     <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>Jalisco</t>
+        </is>
+      </c>
       <c r="B262" t="inlineStr">
         <is>
           <t>Total</t>
@@ -3861,6 +5096,11 @@
       </c>
     </row>
     <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B264" t="inlineStr">
         <is>
           <t>Aquila</t>
@@ -3874,6 +5114,11 @@
       </c>
     </row>
     <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B265" t="inlineStr">
         <is>
           <t>Carácuaro</t>
@@ -3887,6 +5132,11 @@
       </c>
     </row>
     <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B266" t="inlineStr">
         <is>
           <t>Churumuco</t>
@@ -3900,6 +5150,11 @@
       </c>
     </row>
     <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B267" t="inlineStr">
         <is>
           <t>Contepec</t>
@@ -3913,6 +5168,11 @@
       </c>
     </row>
     <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B268" t="inlineStr">
         <is>
           <t>Epitacio Huerta</t>
@@ -3926,6 +5186,11 @@
       </c>
     </row>
     <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B269" t="inlineStr">
         <is>
           <t>Hidalgo</t>
@@ -3939,6 +5204,11 @@
       </c>
     </row>
     <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B270" t="inlineStr">
         <is>
           <t>Huetamo</t>
@@ -3952,6 +5222,11 @@
       </c>
     </row>
     <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B271" t="inlineStr">
         <is>
           <t>Lázaro Cárdenas</t>
@@ -3965,6 +5240,11 @@
       </c>
     </row>
     <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B272" t="inlineStr">
         <is>
           <t>Maravatío</t>
@@ -3978,6 +5258,11 @@
       </c>
     </row>
     <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B273" t="inlineStr">
         <is>
           <t>Morelia</t>
@@ -3991,6 +5276,11 @@
       </c>
     </row>
     <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B274" t="inlineStr">
         <is>
           <t>Paracho</t>
@@ -4004,6 +5294,11 @@
       </c>
     </row>
     <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B275" t="inlineStr">
         <is>
           <t>Sahuayo</t>
@@ -4017,6 +5312,11 @@
       </c>
     </row>
     <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B276" t="inlineStr">
         <is>
           <t>Senguio</t>
@@ -4030,6 +5330,11 @@
       </c>
     </row>
     <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B277" t="inlineStr">
         <is>
           <t>Tancítaro</t>
@@ -4043,6 +5348,11 @@
       </c>
     </row>
     <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B278" t="inlineStr">
         <is>
           <t>Tlalpujahua</t>
@@ -4056,6 +5366,11 @@
       </c>
     </row>
     <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B279" t="inlineStr">
         <is>
           <t>Tumbiscatío</t>
@@ -4069,6 +5384,11 @@
       </c>
     </row>
     <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B280" t="inlineStr">
         <is>
           <t>Zacapu</t>
@@ -4082,6 +5402,11 @@
       </c>
     </row>
     <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B281" t="inlineStr">
         <is>
           <t>Zamora</t>
@@ -4095,6 +5420,11 @@
       </c>
     </row>
     <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B282" t="inlineStr">
         <is>
           <t>Zinapécuaro</t>
@@ -4108,6 +5438,11 @@
       </c>
     </row>
     <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B283" t="inlineStr">
         <is>
           <t>Zitácuaro</t>
@@ -4121,6 +5456,11 @@
       </c>
     </row>
     <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>Michoacán De Ocampo</t>
+        </is>
+      </c>
       <c r="B284" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4152,6 +5492,11 @@
       </c>
     </row>
     <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B286" t="inlineStr">
         <is>
           <t>Cuernavaca</t>
@@ -4165,6 +5510,11 @@
       </c>
     </row>
     <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B287" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -4178,6 +5528,11 @@
       </c>
     </row>
     <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B288" t="inlineStr">
         <is>
           <t>Jantetelco</t>
@@ -4191,6 +5546,11 @@
       </c>
     </row>
     <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B289" t="inlineStr">
         <is>
           <t>Jiutepec</t>
@@ -4204,6 +5564,11 @@
       </c>
     </row>
     <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B290" t="inlineStr">
         <is>
           <t>Jonacatepec</t>
@@ -4217,6 +5582,11 @@
       </c>
     </row>
     <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B291" t="inlineStr">
         <is>
           <t>Puente De Ixtla</t>
@@ -4230,6 +5600,11 @@
       </c>
     </row>
     <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B292" t="inlineStr">
         <is>
           <t>Temoac</t>
@@ -4243,6 +5618,11 @@
       </c>
     </row>
     <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B293" t="inlineStr">
         <is>
           <t>Tepalcingo</t>
@@ -4256,6 +5636,11 @@
       </c>
     </row>
     <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B294" t="inlineStr">
         <is>
           <t>Tlaquiltenango</t>
@@ -4269,6 +5654,11 @@
       </c>
     </row>
     <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B295" t="inlineStr">
         <is>
           <t>Yecapixtla</t>
@@ -4282,6 +5672,11 @@
       </c>
     </row>
     <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B296" t="inlineStr">
         <is>
           <t>Zacualpan De Amilpas</t>
@@ -4295,6 +5690,11 @@
       </c>
     </row>
     <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>Morelos</t>
+        </is>
+      </c>
       <c r="B297" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4326,6 +5726,11 @@
       </c>
     </row>
     <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B299" t="inlineStr">
         <is>
           <t>Santiago Ixcuintla</t>
@@ -4339,6 +5744,11 @@
       </c>
     </row>
     <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>Nayarit</t>
+        </is>
+      </c>
       <c r="B300" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4370,6 +5780,11 @@
       </c>
     </row>
     <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B302" t="inlineStr">
         <is>
           <t>Mier Y Noriega</t>
@@ -4383,6 +5798,11 @@
       </c>
     </row>
     <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B303" t="inlineStr">
         <is>
           <t>Monterrey</t>
@@ -4396,6 +5816,11 @@
       </c>
     </row>
     <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>Nuevo León</t>
+        </is>
+      </c>
       <c r="B304" t="inlineStr">
         <is>
           <t>Total</t>
@@ -4427,6 +5852,11 @@
       </c>
     </row>
     <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B306" t="inlineStr">
         <is>
           <t>Ciudad Ixtepec</t>
@@ -4440,6 +5870,11 @@
       </c>
     </row>
     <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B307" t="inlineStr">
         <is>
           <t>Cuyamecalco Villa De Zaragoza</t>
@@ -4453,6 +5888,11 @@
       </c>
     </row>
     <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B308" t="inlineStr">
         <is>
           <t>Fresnillo De Trujano</t>
@@ -4466,6 +5906,11 @@
       </c>
     </row>
     <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B309" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Huajuapan De León</t>
@@ -4479,6 +5924,11 @@
       </c>
     </row>
     <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B310" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Juchitán De Zaragoza</t>
@@ -4492,6 +5942,11 @@
       </c>
     </row>
     <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B311" t="inlineStr">
         <is>
           <t>Heroica Ciudad De Tlaxiaco</t>
@@ -4505,6 +5960,11 @@
       </c>
     </row>
     <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B312" t="inlineStr">
         <is>
           <t>Ixtlán De Juárez</t>
@@ -4518,6 +5978,11 @@
       </c>
     </row>
     <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B313" t="inlineStr">
         <is>
           <t>Matías Romero Avendaño</t>
@@ -4531,6 +5996,11 @@
       </c>
     </row>
     <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B314" t="inlineStr">
         <is>
           <t>Mesones Hidalgo</t>
@@ -4544,6 +6014,11 @@
       </c>
     </row>
     <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B315" t="inlineStr">
         <is>
           <t>Miahuatlán De Porfirio Díaz</t>
@@ -4557,6 +6032,11 @@
       </c>
     </row>
     <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B316" t="inlineStr">
         <is>
           <t>Monjas</t>
@@ -4570,6 +6050,11 @@
       </c>
     </row>
     <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B317" t="inlineStr">
         <is>
           <t>Oaxaca De Juárez</t>
@@ -4583,6 +6068,11 @@
       </c>
     </row>
     <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B318" t="inlineStr">
         <is>
           <t>Pluma Hidalgo</t>
@@ -4596,6 +6086,11 @@
       </c>
     </row>
     <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B319" t="inlineStr">
         <is>
           <t>Putla Villa De Guerrero</t>
@@ -4609,6 +6104,11 @@
       </c>
     </row>
     <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B320" t="inlineStr">
         <is>
           <t>Reforma De Pineda</t>
@@ -4622,6 +6122,11 @@
       </c>
     </row>
     <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B321" t="inlineStr">
         <is>
           <t>Salina Cruz</t>
@@ -4635,6 +6140,11 @@
       </c>
     </row>
     <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B322" t="inlineStr">
         <is>
           <t>San Agustín Chayuco</t>
@@ -4648,6 +6158,11 @@
       </c>
     </row>
     <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B323" t="inlineStr">
         <is>
           <t>San Andrés Huaxpaltepec</t>
@@ -4661,6 +6176,11 @@
       </c>
     </row>
     <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B324" t="inlineStr">
         <is>
           <t>San Cristóbal Amoltepec</t>
@@ -4674,6 +6194,11 @@
       </c>
     </row>
     <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B325" t="inlineStr">
         <is>
           <t>San Felipe Usila</t>
@@ -4687,6 +6212,11 @@
       </c>
     </row>
     <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B326" t="inlineStr">
         <is>
           <t>San Francisco Chapulapa</t>
@@ -4700,6 +6230,11 @@
       </c>
     </row>
     <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B327" t="inlineStr">
         <is>
           <t>San Francisco Del Mar</t>
@@ -4713,6 +6248,11 @@
       </c>
     </row>
     <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B328" t="inlineStr">
         <is>
           <t>San Juan Bautista Jayacatlán</t>
@@ -4726,6 +6266,11 @@
       </c>
     </row>
     <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B329" t="inlineStr">
         <is>
           <t>San Juan Bautista Tuxtepec</t>
@@ -4739,6 +6284,11 @@
       </c>
     </row>
     <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B330" t="inlineStr">
         <is>
           <t>San Juan Cotzocón</t>
@@ -4752,6 +6302,11 @@
       </c>
     </row>
     <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B331" t="inlineStr">
         <is>
           <t>San Juan Ihualtepec</t>
@@ -4765,6 +6320,11 @@
       </c>
     </row>
     <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B332" t="inlineStr">
         <is>
           <t>San Juan Lachao</t>
@@ -4778,6 +6338,11 @@
       </c>
     </row>
     <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B333" t="inlineStr">
         <is>
           <t>San Juan Mazatlán</t>
@@ -4791,6 +6356,11 @@
       </c>
     </row>
     <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B334" t="inlineStr">
         <is>
           <t>San Juan Mixtepec -Dto. 08 -</t>
@@ -4804,6 +6374,11 @@
       </c>
     </row>
     <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B335" t="inlineStr">
         <is>
           <t>San Juan Ozolotepec</t>
@@ -4817,6 +6392,11 @@
       </c>
     </row>
     <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B336" t="inlineStr">
         <is>
           <t>San Lorenzo</t>
@@ -4830,6 +6410,11 @@
       </c>
     </row>
     <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B337" t="inlineStr">
         <is>
           <t>San Lucas Ojitlán</t>
@@ -4843,6 +6428,11 @@
       </c>
     </row>
     <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B338" t="inlineStr">
         <is>
           <t>San Miguel Soyaltepec</t>
@@ -4856,6 +6446,11 @@
       </c>
     </row>
     <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B339" t="inlineStr">
         <is>
           <t>San Miguel Tlacamama</t>
@@ -4869,6 +6464,11 @@
       </c>
     </row>
     <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B340" t="inlineStr">
         <is>
           <t>San Pedro Atoyac</t>
@@ -4882,6 +6482,11 @@
       </c>
     </row>
     <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B341" t="inlineStr">
         <is>
           <t>San Pedro Comitancillo</t>
@@ -4895,6 +6500,11 @@
       </c>
     </row>
     <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B342" t="inlineStr">
         <is>
           <t>San Pedro Huamelula</t>
@@ -4908,6 +6518,11 @@
       </c>
     </row>
     <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B343" t="inlineStr">
         <is>
           <t>San Pedro Mixtepec -Dto. 22 -</t>
@@ -4921,6 +6536,11 @@
       </c>
     </row>
     <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B344" t="inlineStr">
         <is>
           <t>San Pedro Pochutla</t>
@@ -4934,6 +6554,11 @@
       </c>
     </row>
     <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B345" t="inlineStr">
         <is>
           <t>San Pedro Teozacoalco</t>
@@ -4947,6 +6572,11 @@
       </c>
     </row>
     <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B346" t="inlineStr">
         <is>
           <t>San Sebastián Tecomaxtlahuaca</t>
@@ -4960,6 +6590,11 @@
       </c>
     </row>
     <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B347" t="inlineStr">
         <is>
           <t>Santa Ana</t>
@@ -4973,6 +6608,11 @@
       </c>
     </row>
     <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B348" t="inlineStr">
         <is>
           <t>Santa Catarina Juquila</t>
@@ -4986,6 +6626,11 @@
       </c>
     </row>
     <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B349" t="inlineStr">
         <is>
           <t>Santa Catarina Mechoacán</t>
@@ -4999,6 +6644,11 @@
       </c>
     </row>
     <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B350" t="inlineStr">
         <is>
           <t>Santa Cruz Zenzontepec</t>
@@ -5012,6 +6662,11 @@
       </c>
     </row>
     <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B351" t="inlineStr">
         <is>
           <t>Santa María Huatulco</t>
@@ -5025,6 +6680,11 @@
       </c>
     </row>
     <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B352" t="inlineStr">
         <is>
           <t>Santa María Huazolotitlán</t>
@@ -5038,6 +6698,11 @@
       </c>
     </row>
     <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B353" t="inlineStr">
         <is>
           <t>Santa María Ipalapa</t>
@@ -5051,6 +6716,11 @@
       </c>
     </row>
     <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B354" t="inlineStr">
         <is>
           <t>Santa María Jacatepec</t>
@@ -5064,6 +6734,11 @@
       </c>
     </row>
     <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B355" t="inlineStr">
         <is>
           <t>Santa María Lachixío</t>
@@ -5077,6 +6752,11 @@
       </c>
     </row>
     <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B356" t="inlineStr">
         <is>
           <t>Santa María Tlalixtac</t>
@@ -5090,6 +6770,11 @@
       </c>
     </row>
     <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B357" t="inlineStr">
         <is>
           <t>Santa María Tonameca</t>
@@ -5103,6 +6788,11 @@
       </c>
     </row>
     <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B358" t="inlineStr">
         <is>
           <t>Santa María Yucuhiti</t>
@@ -5116,6 +6806,11 @@
       </c>
     </row>
     <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B359" t="inlineStr">
         <is>
           <t>Santa María Zacatepec</t>
@@ -5129,6 +6824,11 @@
       </c>
     </row>
     <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B360" t="inlineStr">
         <is>
           <t>Santiago Apoala</t>
@@ -5142,6 +6842,11 @@
       </c>
     </row>
     <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B361" t="inlineStr">
         <is>
           <t>Santiago Chazumba</t>
@@ -5155,6 +6860,11 @@
       </c>
     </row>
     <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B362" t="inlineStr">
         <is>
           <t>Santiago Jamiltepec</t>
@@ -5168,6 +6878,11 @@
       </c>
     </row>
     <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B363" t="inlineStr">
         <is>
           <t>Santiago Jocotepec</t>
@@ -5181,6 +6896,11 @@
       </c>
     </row>
     <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B364" t="inlineStr">
         <is>
           <t>Santiago Juxtlahuaca</t>
@@ -5194,6 +6914,11 @@
       </c>
     </row>
     <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B365" t="inlineStr">
         <is>
           <t>Santiago Pinotepa Nacional</t>
@@ -5207,6 +6932,11 @@
       </c>
     </row>
     <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B366" t="inlineStr">
         <is>
           <t>Santiago Tamazola</t>
@@ -5220,6 +6950,11 @@
       </c>
     </row>
     <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B367" t="inlineStr">
         <is>
           <t>Santiago Tilantongo</t>
@@ -5233,6 +6968,11 @@
       </c>
     </row>
     <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B368" t="inlineStr">
         <is>
           <t>Santiago Xanica</t>
@@ -5246,6 +6986,11 @@
       </c>
     </row>
     <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B369" t="inlineStr">
         <is>
           <t>Santo Domingo De Morelos</t>
@@ -5259,6 +7004,11 @@
       </c>
     </row>
     <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B370" t="inlineStr">
         <is>
           <t>Santo Tomás Ocotepec</t>
@@ -5272,6 +7022,11 @@
       </c>
     </row>
     <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B371" t="inlineStr">
         <is>
           <t>Santos Reyes Nopala</t>
@@ -5285,6 +7040,11 @@
       </c>
     </row>
     <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B372" t="inlineStr">
         <is>
           <t>Silacayoápam</t>
@@ -5298,6 +7058,11 @@
       </c>
     </row>
     <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B373" t="inlineStr">
         <is>
           <t>Tataltepec De Valdés</t>
@@ -5311,6 +7076,11 @@
       </c>
     </row>
     <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B374" t="inlineStr">
         <is>
           <t>Villa De Chilapa De Díaz</t>
@@ -5324,6 +7094,11 @@
       </c>
     </row>
     <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B375" t="inlineStr">
         <is>
           <t>Villa De Tututepec</t>
@@ -5337,6 +7112,11 @@
       </c>
     </row>
     <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B376" t="inlineStr">
         <is>
           <t>Villa De Tututepec De Melchor Ocampo</t>
@@ -5350,6 +7130,11 @@
       </c>
     </row>
     <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B377" t="inlineStr">
         <is>
           <t>Villa Sola De Vega</t>
@@ -5363,6 +7148,11 @@
       </c>
     </row>
     <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>Oaxaca</t>
+        </is>
+      </c>
       <c r="B378" t="inlineStr">
         <is>
           <t>Total</t>
@@ -5394,6 +7184,11 @@
       </c>
     </row>
     <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B380" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -5407,6 +7202,11 @@
       </c>
     </row>
     <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B381" t="inlineStr">
         <is>
           <t>Amozoc</t>
@@ -5420,6 +7220,11 @@
       </c>
     </row>
     <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B382" t="inlineStr">
         <is>
           <t>Atempan</t>
@@ -5433,6 +7238,11 @@
       </c>
     </row>
     <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B383" t="inlineStr">
         <is>
           <t>Atlixco</t>
@@ -5446,6 +7256,11 @@
       </c>
     </row>
     <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B384" t="inlineStr">
         <is>
           <t>Axutla</t>
@@ -5459,6 +7274,11 @@
       </c>
     </row>
     <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B385" t="inlineStr">
         <is>
           <t>Calpan</t>
@@ -5472,6 +7292,11 @@
       </c>
     </row>
     <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B386" t="inlineStr">
         <is>
           <t>Caltepec</t>
@@ -5485,6 +7310,11 @@
       </c>
     </row>
     <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B387" t="inlineStr">
         <is>
           <t>Cañada Morelos</t>
@@ -5498,6 +7328,11 @@
       </c>
     </row>
     <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B388" t="inlineStr">
         <is>
           <t>Chiautzingo</t>
@@ -5511,6 +7346,11 @@
       </c>
     </row>
     <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B389" t="inlineStr">
         <is>
           <t>Chichiquila</t>
@@ -5524,6 +7364,11 @@
       </c>
     </row>
     <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B390" t="inlineStr">
         <is>
           <t>Chietla</t>
@@ -5537,6 +7382,11 @@
       </c>
     </row>
     <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B391" t="inlineStr">
         <is>
           <t>Chignahuapan</t>
@@ -5550,6 +7400,11 @@
       </c>
     </row>
     <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B392" t="inlineStr">
         <is>
           <t>Chila De La Sal</t>
@@ -5563,6 +7418,11 @@
       </c>
     </row>
     <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B393" t="inlineStr">
         <is>
           <t>Chilchotla</t>
@@ -5576,6 +7436,11 @@
       </c>
     </row>
     <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B394" t="inlineStr">
         <is>
           <t>Coronango</t>
@@ -5589,6 +7454,11 @@
       </c>
     </row>
     <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B395" t="inlineStr">
         <is>
           <t>Coxcatlán</t>
@@ -5602,6 +7472,11 @@
       </c>
     </row>
     <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B396" t="inlineStr">
         <is>
           <t>Cuayuca De Andrade</t>
@@ -5615,6 +7490,11 @@
       </c>
     </row>
     <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B397" t="inlineStr">
         <is>
           <t>Domingo Arenas</t>
@@ -5628,6 +7508,11 @@
       </c>
     </row>
     <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B398" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -5641,6 +7526,11 @@
       </c>
     </row>
     <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B399" t="inlineStr">
         <is>
           <t>Guadalupe Victoria</t>
@@ -5654,6 +7544,11 @@
       </c>
     </row>
     <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B400" t="inlineStr">
         <is>
           <t>Huaquechula</t>
@@ -5667,6 +7562,11 @@
       </c>
     </row>
     <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B401" t="inlineStr">
         <is>
           <t>Huauchinango</t>
@@ -5680,6 +7580,11 @@
       </c>
     </row>
     <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B402" t="inlineStr">
         <is>
           <t>Huejotzingo</t>
@@ -5693,6 +7598,11 @@
       </c>
     </row>
     <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B403" t="inlineStr">
         <is>
           <t>Ixtacamaxtitlán</t>
@@ -5706,6 +7616,11 @@
       </c>
     </row>
     <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B404" t="inlineStr">
         <is>
           <t>Izúcar De Matamoros</t>
@@ -5719,6 +7634,11 @@
       </c>
     </row>
     <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B405" t="inlineStr">
         <is>
           <t>Jalpan</t>
@@ -5732,6 +7652,11 @@
       </c>
     </row>
     <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B406" t="inlineStr">
         <is>
           <t>Jopala</t>
@@ -5745,6 +7670,11 @@
       </c>
     </row>
     <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B407" t="inlineStr">
         <is>
           <t>No Se Registró El Municipio/Condado/Alcaldía De Nacimiento</t>
@@ -5758,6 +7688,11 @@
       </c>
     </row>
     <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B408" t="inlineStr">
         <is>
           <t>Oriental</t>
@@ -5771,6 +7706,11 @@
       </c>
     </row>
     <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B409" t="inlineStr">
         <is>
           <t>Pahuatlán</t>
@@ -5784,6 +7724,11 @@
       </c>
     </row>
     <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B410" t="inlineStr">
         <is>
           <t>Petlalcingo</t>
@@ -5797,6 +7742,11 @@
       </c>
     </row>
     <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B411" t="inlineStr">
         <is>
           <t>Piaxtla</t>
@@ -5810,6 +7760,11 @@
       </c>
     </row>
     <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B412" t="inlineStr">
         <is>
           <t>Puebla</t>
@@ -5823,6 +7778,11 @@
       </c>
     </row>
     <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B413" t="inlineStr">
         <is>
           <t>Quimixtlán</t>
@@ -5836,6 +7796,11 @@
       </c>
     </row>
     <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B414" t="inlineStr">
         <is>
           <t>San Andrés Cholula</t>
@@ -5849,6 +7814,11 @@
       </c>
     </row>
     <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B415" t="inlineStr">
         <is>
           <t>San Martín Texmelucan</t>
@@ -5862,6 +7832,11 @@
       </c>
     </row>
     <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B416" t="inlineStr">
         <is>
           <t>San Nicolás De Los Ranchos</t>
@@ -5875,6 +7850,11 @@
       </c>
     </row>
     <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B417" t="inlineStr">
         <is>
           <t>San Pablo Anicano</t>
@@ -5888,6 +7868,11 @@
       </c>
     </row>
     <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B418" t="inlineStr">
         <is>
           <t>San Pedro Cholula</t>
@@ -5901,6 +7886,11 @@
       </c>
     </row>
     <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B419" t="inlineStr">
         <is>
           <t>San Pedro Yeloixtlahuaca</t>
@@ -5914,6 +7904,11 @@
       </c>
     </row>
     <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B420" t="inlineStr">
         <is>
           <t>Santa Inés Ahuatempan</t>
@@ -5927,6 +7922,11 @@
       </c>
     </row>
     <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B421" t="inlineStr">
         <is>
           <t>Santiago Miahuatlán</t>
@@ -5940,6 +7940,11 @@
       </c>
     </row>
     <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B422" t="inlineStr">
         <is>
           <t>Soltepec</t>
@@ -5953,6 +7958,11 @@
       </c>
     </row>
     <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B423" t="inlineStr">
         <is>
           <t>Tecamachalco</t>
@@ -5966,6 +7976,11 @@
       </c>
     </row>
     <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B424" t="inlineStr">
         <is>
           <t>Tecomatlán</t>
@@ -5979,6 +7994,11 @@
       </c>
     </row>
     <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B425" t="inlineStr">
         <is>
           <t>Tehuacán</t>
@@ -5992,6 +8012,11 @@
       </c>
     </row>
     <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B426" t="inlineStr">
         <is>
           <t>Tehuitzingo</t>
@@ -6005,6 +8030,11 @@
       </c>
     </row>
     <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B427" t="inlineStr">
         <is>
           <t>Tepanco De López</t>
@@ -6018,6 +8048,11 @@
       </c>
     </row>
     <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B428" t="inlineStr">
         <is>
           <t>Tepeaca</t>
@@ -6031,6 +8066,11 @@
       </c>
     </row>
     <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B429" t="inlineStr">
         <is>
           <t>Tepeojuma</t>
@@ -6044,6 +8084,11 @@
       </c>
     </row>
     <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B430" t="inlineStr">
         <is>
           <t>Tepexi De Rodríguez</t>
@@ -6057,6 +8102,11 @@
       </c>
     </row>
     <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B431" t="inlineStr">
         <is>
           <t>Tetela De Ocampo</t>
@@ -6070,6 +8120,11 @@
       </c>
     </row>
     <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B432" t="inlineStr">
         <is>
           <t>Tlacotepec De Benito Juárez</t>
@@ -6083,6 +8138,11 @@
       </c>
     </row>
     <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B433" t="inlineStr">
         <is>
           <t>Tlahuapan</t>
@@ -6096,6 +8156,11 @@
       </c>
     </row>
     <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B434" t="inlineStr">
         <is>
           <t>Tlapanalá</t>
@@ -6109,6 +8174,11 @@
       </c>
     </row>
     <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B435" t="inlineStr">
         <is>
           <t>Tlatlauquitepec</t>
@@ -6122,6 +8192,11 @@
       </c>
     </row>
     <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B436" t="inlineStr">
         <is>
           <t>Tochimilco</t>
@@ -6135,6 +8210,11 @@
       </c>
     </row>
     <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B437" t="inlineStr">
         <is>
           <t>Vicente Guerrero</t>
@@ -6148,6 +8228,11 @@
       </c>
     </row>
     <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B438" t="inlineStr">
         <is>
           <t>Xayacatlán De Bravo</t>
@@ -6161,6 +8246,11 @@
       </c>
     </row>
     <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B439" t="inlineStr">
         <is>
           <t>Xicotepec</t>
@@ -6174,6 +8264,11 @@
       </c>
     </row>
     <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B440" t="inlineStr">
         <is>
           <t>Xochitlán Todos Santos</t>
@@ -6187,6 +8282,11 @@
       </c>
     </row>
     <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B441" t="inlineStr">
         <is>
           <t>Zacapoaxtla</t>
@@ -6200,6 +8300,11 @@
       </c>
     </row>
     <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>Puebla</t>
+        </is>
+      </c>
       <c r="B442" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6231,6 +8336,11 @@
       </c>
     </row>
     <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B444" t="inlineStr">
         <is>
           <t>Landa De Matamoros</t>
@@ -6244,6 +8354,11 @@
       </c>
     </row>
     <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B445" t="inlineStr">
         <is>
           <t>Pinal De Amoles</t>
@@ -6257,6 +8372,11 @@
       </c>
     </row>
     <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B446" t="inlineStr">
         <is>
           <t>Querétaro</t>
@@ -6270,6 +8390,11 @@
       </c>
     </row>
     <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B447" t="inlineStr">
         <is>
           <t>San Juan Del Río</t>
@@ -6283,6 +8408,11 @@
       </c>
     </row>
     <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>Querétaro</t>
+        </is>
+      </c>
       <c r="B448" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6314,6 +8444,11 @@
       </c>
     </row>
     <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>Quintana Roo</t>
+        </is>
+      </c>
       <c r="B450" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6345,6 +8480,11 @@
       </c>
     </row>
     <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B452" t="inlineStr">
         <is>
           <t>Charcas</t>
@@ -6358,6 +8498,11 @@
       </c>
     </row>
     <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B453" t="inlineStr">
         <is>
           <t>Ciudad Del Maíz</t>
@@ -6371,6 +8516,11 @@
       </c>
     </row>
     <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B454" t="inlineStr">
         <is>
           <t>Ciudad Fernández</t>
@@ -6384,6 +8534,11 @@
       </c>
     </row>
     <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B455" t="inlineStr">
         <is>
           <t>Ciudad Valles</t>
@@ -6397,6 +8552,11 @@
       </c>
     </row>
     <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B456" t="inlineStr">
         <is>
           <t>Guadalcázar</t>
@@ -6410,6 +8570,11 @@
       </c>
     </row>
     <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B457" t="inlineStr">
         <is>
           <t>Matehuala</t>
@@ -6423,6 +8588,11 @@
       </c>
     </row>
     <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B458" t="inlineStr">
         <is>
           <t>Rayón</t>
@@ -6436,6 +8606,11 @@
       </c>
     </row>
     <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B459" t="inlineStr">
         <is>
           <t>Rioverde</t>
@@ -6449,6 +8624,11 @@
       </c>
     </row>
     <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B460" t="inlineStr">
         <is>
           <t>Salinas</t>
@@ -6462,6 +8642,11 @@
       </c>
     </row>
     <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B461" t="inlineStr">
         <is>
           <t>San Luis Potosí</t>
@@ -6475,6 +8660,11 @@
       </c>
     </row>
     <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B462" t="inlineStr">
         <is>
           <t>Santa María Del Río</t>
@@ -6488,6 +8678,11 @@
       </c>
     </row>
     <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B463" t="inlineStr">
         <is>
           <t>Tamazunchale</t>
@@ -6501,6 +8696,11 @@
       </c>
     </row>
     <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B464" t="inlineStr">
         <is>
           <t>Villa De Ramos</t>
@@ -6514,6 +8714,11 @@
       </c>
     </row>
     <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B465" t="inlineStr">
         <is>
           <t>Villa Juárez</t>
@@ -6527,6 +8732,11 @@
       </c>
     </row>
     <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B466" t="inlineStr">
         <is>
           <t>Xilitla</t>
@@ -6540,6 +8750,11 @@
       </c>
     </row>
     <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>San Luis Potosí</t>
+        </is>
+      </c>
       <c r="B467" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6571,6 +8786,11 @@
       </c>
     </row>
     <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B469" t="inlineStr">
         <is>
           <t>Culiacán</t>
@@ -6584,6 +8804,11 @@
       </c>
     </row>
     <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B470" t="inlineStr">
         <is>
           <t>Guasave</t>
@@ -6597,6 +8822,11 @@
       </c>
     </row>
     <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B471" t="inlineStr">
         <is>
           <t>Mazatlán</t>
@@ -6610,6 +8840,11 @@
       </c>
     </row>
     <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>Sinaloa</t>
+        </is>
+      </c>
       <c r="B472" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6641,6 +8876,11 @@
       </c>
     </row>
     <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>Sonora</t>
+        </is>
+      </c>
       <c r="B474" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6672,6 +8912,11 @@
       </c>
     </row>
     <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B476" t="inlineStr">
         <is>
           <t>Cárdenas</t>
@@ -6685,6 +8930,11 @@
       </c>
     </row>
     <row r="477">
+      <c r="A477" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B477" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -6698,6 +8948,11 @@
       </c>
     </row>
     <row r="478">
+      <c r="A478" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B478" t="inlineStr">
         <is>
           <t>Huimanguillo</t>
@@ -6711,6 +8966,11 @@
       </c>
     </row>
     <row r="479">
+      <c r="A479" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B479" t="inlineStr">
         <is>
           <t>Tenosique</t>
@@ -6724,6 +8984,11 @@
       </c>
     </row>
     <row r="480">
+      <c r="A480" t="inlineStr">
+        <is>
+          <t>Tabasco</t>
+        </is>
+      </c>
       <c r="B480" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6755,6 +9020,11 @@
       </c>
     </row>
     <row r="482">
+      <c r="A482" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B482" t="inlineStr">
         <is>
           <t>Altamira</t>
@@ -6768,6 +9038,11 @@
       </c>
     </row>
     <row r="483">
+      <c r="A483" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B483" t="inlineStr">
         <is>
           <t>Ciudad Madero</t>
@@ -6781,6 +9056,11 @@
       </c>
     </row>
     <row r="484">
+      <c r="A484" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B484" t="inlineStr">
         <is>
           <t>Matamoros</t>
@@ -6794,6 +9074,11 @@
       </c>
     </row>
     <row r="485">
+      <c r="A485" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B485" t="inlineStr">
         <is>
           <t>Nuevo Laredo</t>
@@ -6807,6 +9092,11 @@
       </c>
     </row>
     <row r="486">
+      <c r="A486" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B486" t="inlineStr">
         <is>
           <t>Reynosa</t>
@@ -6820,6 +9110,11 @@
       </c>
     </row>
     <row r="487">
+      <c r="A487" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B487" t="inlineStr">
         <is>
           <t>Río Bravo</t>
@@ -6833,6 +9128,11 @@
       </c>
     </row>
     <row r="488">
+      <c r="A488" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B488" t="inlineStr">
         <is>
           <t>Tampico</t>
@@ -6846,6 +9146,11 @@
       </c>
     </row>
     <row r="489">
+      <c r="A489" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B489" t="inlineStr">
         <is>
           <t>Tula</t>
@@ -6859,6 +9164,11 @@
       </c>
     </row>
     <row r="490">
+      <c r="A490" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B490" t="inlineStr">
         <is>
           <t>Xicoténcatl</t>
@@ -6872,6 +9182,11 @@
       </c>
     </row>
     <row r="491">
+      <c r="A491" t="inlineStr">
+        <is>
+          <t>Tamaulipas</t>
+        </is>
+      </c>
       <c r="B491" t="inlineStr">
         <is>
           <t>Total</t>
@@ -6903,6 +9218,11 @@
       </c>
     </row>
     <row r="493">
+      <c r="A493" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B493" t="inlineStr">
         <is>
           <t>Chiautempan</t>
@@ -6916,6 +9236,11 @@
       </c>
     </row>
     <row r="494">
+      <c r="A494" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B494" t="inlineStr">
         <is>
           <t>Huamantla</t>
@@ -6929,6 +9254,11 @@
       </c>
     </row>
     <row r="495">
+      <c r="A495" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B495" t="inlineStr">
         <is>
           <t>Ixtacuixtla De Mariano Matamoros</t>
@@ -6942,6 +9272,11 @@
       </c>
     </row>
     <row r="496">
+      <c r="A496" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B496" t="inlineStr">
         <is>
           <t>Nanacamilpa De Mariano Arista</t>
@@ -6955,6 +9290,11 @@
       </c>
     </row>
     <row r="497">
+      <c r="A497" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B497" t="inlineStr">
         <is>
           <t>Tenancingo</t>
@@ -6968,6 +9308,11 @@
       </c>
     </row>
     <row r="498">
+      <c r="A498" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B498" t="inlineStr">
         <is>
           <t>Teolocholco</t>
@@ -6981,6 +9326,11 @@
       </c>
     </row>
     <row r="499">
+      <c r="A499" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B499" t="inlineStr">
         <is>
           <t>Terrenate</t>
@@ -6994,6 +9344,11 @@
       </c>
     </row>
     <row r="500">
+      <c r="A500" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B500" t="inlineStr">
         <is>
           <t>Tlaxcala</t>
@@ -7007,6 +9362,11 @@
       </c>
     </row>
     <row r="501">
+      <c r="A501" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B501" t="inlineStr">
         <is>
           <t>Tlaxco</t>
@@ -7020,6 +9380,11 @@
       </c>
     </row>
     <row r="502">
+      <c r="A502" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B502" t="inlineStr">
         <is>
           <t>Zacatelco</t>
@@ -7033,6 +9398,11 @@
       </c>
     </row>
     <row r="503">
+      <c r="A503" t="inlineStr">
+        <is>
+          <t>Tlaxcala</t>
+        </is>
+      </c>
       <c r="B503" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7064,6 +9434,11 @@
       </c>
     </row>
     <row r="505">
+      <c r="A505" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B505" t="inlineStr">
         <is>
           <t>Acatlán</t>
@@ -7077,6 +9452,11 @@
       </c>
     </row>
     <row r="506">
+      <c r="A506" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B506" t="inlineStr">
         <is>
           <t>Acayucan</t>
@@ -7090,6 +9470,11 @@
       </c>
     </row>
     <row r="507">
+      <c r="A507" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B507" t="inlineStr">
         <is>
           <t>Actopan</t>
@@ -7103,6 +9488,11 @@
       </c>
     </row>
     <row r="508">
+      <c r="A508" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B508" t="inlineStr">
         <is>
           <t>Alto Lucero De Gutiérrez Barrios</t>
@@ -7116,6 +9506,11 @@
       </c>
     </row>
     <row r="509">
+      <c r="A509" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B509" t="inlineStr">
         <is>
           <t>Altotonga</t>
@@ -7129,6 +9524,11 @@
       </c>
     </row>
     <row r="510">
+      <c r="A510" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B510" t="inlineStr">
         <is>
           <t>Amatlán De Los Reyes</t>
@@ -7142,6 +9542,11 @@
       </c>
     </row>
     <row r="511">
+      <c r="A511" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B511" t="inlineStr">
         <is>
           <t>Atlahuilco</t>
@@ -7155,6 +9560,11 @@
       </c>
     </row>
     <row r="512">
+      <c r="A512" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B512" t="inlineStr">
         <is>
           <t>Boca Del Río</t>
@@ -7168,6 +9578,11 @@
       </c>
     </row>
     <row r="513">
+      <c r="A513" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B513" t="inlineStr">
         <is>
           <t>Camerino Z. Mendoza</t>
@@ -7181,6 +9596,11 @@
       </c>
     </row>
     <row r="514">
+      <c r="A514" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B514" t="inlineStr">
         <is>
           <t>Catemaco</t>
@@ -7194,6 +9614,11 @@
       </c>
     </row>
     <row r="515">
+      <c r="A515" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B515" t="inlineStr">
         <is>
           <t>Cazones De Herrera</t>
@@ -7207,6 +9632,11 @@
       </c>
     </row>
     <row r="516">
+      <c r="A516" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B516" t="inlineStr">
         <is>
           <t>Cerro Azul</t>
@@ -7220,6 +9650,11 @@
       </c>
     </row>
     <row r="517">
+      <c r="A517" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B517" t="inlineStr">
         <is>
           <t>Coacoatzintla</t>
@@ -7233,6 +9668,11 @@
       </c>
     </row>
     <row r="518">
+      <c r="A518" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B518" t="inlineStr">
         <is>
           <t>Coatepec</t>
@@ -7246,6 +9686,11 @@
       </c>
     </row>
     <row r="519">
+      <c r="A519" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B519" t="inlineStr">
         <is>
           <t>Coatzacoalcos</t>
@@ -7259,6 +9704,11 @@
       </c>
     </row>
     <row r="520">
+      <c r="A520" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B520" t="inlineStr">
         <is>
           <t>Cosamaloapan De Carpio</t>
@@ -7272,6 +9722,11 @@
       </c>
     </row>
     <row r="521">
+      <c r="A521" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B521" t="inlineStr">
         <is>
           <t>Coscomatepec</t>
@@ -7285,6 +9740,11 @@
       </c>
     </row>
     <row r="522">
+      <c r="A522" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B522" t="inlineStr">
         <is>
           <t>Cotaxtla</t>
@@ -7298,6 +9758,11 @@
       </c>
     </row>
     <row r="523">
+      <c r="A523" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B523" t="inlineStr">
         <is>
           <t>Coyutla</t>
@@ -7311,6 +9776,11 @@
       </c>
     </row>
     <row r="524">
+      <c r="A524" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B524" t="inlineStr">
         <is>
           <t>Córdoba</t>
@@ -7324,6 +9794,11 @@
       </c>
     </row>
     <row r="525">
+      <c r="A525" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B525" t="inlineStr">
         <is>
           <t>El Higo</t>
@@ -7337,6 +9812,11 @@
       </c>
     </row>
     <row r="526">
+      <c r="A526" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B526" t="inlineStr">
         <is>
           <t>Emiliano Zapata</t>
@@ -7350,6 +9830,11 @@
       </c>
     </row>
     <row r="527">
+      <c r="A527" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B527" t="inlineStr">
         <is>
           <t>Filomeno Mata</t>
@@ -7363,6 +9848,11 @@
       </c>
     </row>
     <row r="528">
+      <c r="A528" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B528" t="inlineStr">
         <is>
           <t>Huatusco</t>
@@ -7376,6 +9866,11 @@
       </c>
     </row>
     <row r="529">
+      <c r="A529" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B529" t="inlineStr">
         <is>
           <t>Huayacocotla</t>
@@ -7389,6 +9884,11 @@
       </c>
     </row>
     <row r="530">
+      <c r="A530" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B530" t="inlineStr">
         <is>
           <t>Hueyapan De Ocampo</t>
@@ -7402,6 +9902,11 @@
       </c>
     </row>
     <row r="531">
+      <c r="A531" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B531" t="inlineStr">
         <is>
           <t>Ilamatlán</t>
@@ -7415,6 +9920,11 @@
       </c>
     </row>
     <row r="532">
+      <c r="A532" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B532" t="inlineStr">
         <is>
           <t>Isla</t>
@@ -7428,6 +9938,11 @@
       </c>
     </row>
     <row r="533">
+      <c r="A533" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B533" t="inlineStr">
         <is>
           <t>Ixhuacán De Los Reyes</t>
@@ -7441,6 +9956,11 @@
       </c>
     </row>
     <row r="534">
+      <c r="A534" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B534" t="inlineStr">
         <is>
           <t>Ixhuatlán De Madero</t>
@@ -7454,6 +9974,11 @@
       </c>
     </row>
     <row r="535">
+      <c r="A535" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B535" t="inlineStr">
         <is>
           <t>Jalcomulco</t>
@@ -7467,6 +9992,11 @@
       </c>
     </row>
     <row r="536">
+      <c r="A536" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B536" t="inlineStr">
         <is>
           <t>Jesús Carranza</t>
@@ -7480,6 +10010,11 @@
       </c>
     </row>
     <row r="537">
+      <c r="A537" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B537" t="inlineStr">
         <is>
           <t>Juan Rodríguez Clara</t>
@@ -7493,6 +10028,11 @@
       </c>
     </row>
     <row r="538">
+      <c r="A538" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B538" t="inlineStr">
         <is>
           <t>La Antigua</t>
@@ -7506,6 +10046,11 @@
       </c>
     </row>
     <row r="539">
+      <c r="A539" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B539" t="inlineStr">
         <is>
           <t>Las Choapas</t>
@@ -7519,6 +10064,11 @@
       </c>
     </row>
     <row r="540">
+      <c r="A540" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B540" t="inlineStr">
         <is>
           <t>Maltrata</t>
@@ -7532,6 +10082,11 @@
       </c>
     </row>
     <row r="541">
+      <c r="A541" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B541" t="inlineStr">
         <is>
           <t>Martínez De La Torre</t>
@@ -7545,6 +10100,11 @@
       </c>
     </row>
     <row r="542">
+      <c r="A542" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B542" t="inlineStr">
         <is>
           <t>Mecayapan</t>
@@ -7558,6 +10118,11 @@
       </c>
     </row>
     <row r="543">
+      <c r="A543" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B543" t="inlineStr">
         <is>
           <t>Minatitlán</t>
@@ -7571,6 +10136,11 @@
       </c>
     </row>
     <row r="544">
+      <c r="A544" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B544" t="inlineStr">
         <is>
           <t>Oluta</t>
@@ -7584,6 +10154,11 @@
       </c>
     </row>
     <row r="545">
+      <c r="A545" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B545" t="inlineStr">
         <is>
           <t>Omealca</t>
@@ -7597,6 +10172,11 @@
       </c>
     </row>
     <row r="546">
+      <c r="A546" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B546" t="inlineStr">
         <is>
           <t>Orizaba</t>
@@ -7610,6 +10190,11 @@
       </c>
     </row>
     <row r="547">
+      <c r="A547" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B547" t="inlineStr">
         <is>
           <t>Otatitlán</t>
@@ -7623,6 +10208,11 @@
       </c>
     </row>
     <row r="548">
+      <c r="A548" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B548" t="inlineStr">
         <is>
           <t>Playa Vicente</t>
@@ -7636,6 +10226,11 @@
       </c>
     </row>
     <row r="549">
+      <c r="A549" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B549" t="inlineStr">
         <is>
           <t>Poza Rica De Hidalgo</t>
@@ -7649,6 +10244,11 @@
       </c>
     </row>
     <row r="550">
+      <c r="A550" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B550" t="inlineStr">
         <is>
           <t>Pánuco</t>
@@ -7662,6 +10262,11 @@
       </c>
     </row>
     <row r="551">
+      <c r="A551" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B551" t="inlineStr">
         <is>
           <t>San Andrés Tuxtla</t>
@@ -7675,6 +10280,11 @@
       </c>
     </row>
     <row r="552">
+      <c r="A552" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B552" t="inlineStr">
         <is>
           <t>San Juan Evangelista</t>
@@ -7688,6 +10298,11 @@
       </c>
     </row>
     <row r="553">
+      <c r="A553" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B553" t="inlineStr">
         <is>
           <t>Santiago Tuxtla</t>
@@ -7701,6 +10316,11 @@
       </c>
     </row>
     <row r="554">
+      <c r="A554" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B554" t="inlineStr">
         <is>
           <t>Soconusco</t>
@@ -7714,6 +10334,11 @@
       </c>
     </row>
     <row r="555">
+      <c r="A555" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B555" t="inlineStr">
         <is>
           <t>Tempoal</t>
@@ -7727,6 +10352,11 @@
       </c>
     </row>
     <row r="556">
+      <c r="A556" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B556" t="inlineStr">
         <is>
           <t>Tenampa</t>
@@ -7740,6 +10370,11 @@
       </c>
     </row>
     <row r="557">
+      <c r="A557" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B557" t="inlineStr">
         <is>
           <t>Tepatlaxco</t>
@@ -7753,6 +10388,11 @@
       </c>
     </row>
     <row r="558">
+      <c r="A558" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B558" t="inlineStr">
         <is>
           <t>Texistepec</t>
@@ -7766,6 +10406,11 @@
       </c>
     </row>
     <row r="559">
+      <c r="A559" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B559" t="inlineStr">
         <is>
           <t>Tezonapa</t>
@@ -7779,6 +10424,11 @@
       </c>
     </row>
     <row r="560">
+      <c r="A560" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B560" t="inlineStr">
         <is>
           <t>Tierra Blanca</t>
@@ -7792,6 +10442,11 @@
       </c>
     </row>
     <row r="561">
+      <c r="A561" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B561" t="inlineStr">
         <is>
           <t>Tihuatlán</t>
@@ -7805,6 +10460,11 @@
       </c>
     </row>
     <row r="562">
+      <c r="A562" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B562" t="inlineStr">
         <is>
           <t>Tlachichilco</t>
@@ -7818,6 +10478,11 @@
       </c>
     </row>
     <row r="563">
+      <c r="A563" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B563" t="inlineStr">
         <is>
           <t>Tlacolulan</t>
@@ -7831,6 +10496,11 @@
       </c>
     </row>
     <row r="564">
+      <c r="A564" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B564" t="inlineStr">
         <is>
           <t>Tlalixcoyan</t>
@@ -7844,6 +10514,11 @@
       </c>
     </row>
     <row r="565">
+      <c r="A565" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B565" t="inlineStr">
         <is>
           <t>Tlapacoyan</t>
@@ -7857,6 +10532,11 @@
       </c>
     </row>
     <row r="566">
+      <c r="A566" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B566" t="inlineStr">
         <is>
           <t>Totutla</t>
@@ -7870,6 +10550,11 @@
       </c>
     </row>
     <row r="567">
+      <c r="A567" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B567" t="inlineStr">
         <is>
           <t>Tres Valles</t>
@@ -7883,6 +10568,11 @@
       </c>
     </row>
     <row r="568">
+      <c r="A568" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B568" t="inlineStr">
         <is>
           <t>Tuxpan</t>
@@ -7896,6 +10586,11 @@
       </c>
     </row>
     <row r="569">
+      <c r="A569" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B569" t="inlineStr">
         <is>
           <t>Uxpanapa</t>
@@ -7909,6 +10604,11 @@
       </c>
     </row>
     <row r="570">
+      <c r="A570" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B570" t="inlineStr">
         <is>
           <t>Veracruz</t>
@@ -7922,6 +10622,11 @@
       </c>
     </row>
     <row r="571">
+      <c r="A571" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B571" t="inlineStr">
         <is>
           <t>Xalapa</t>
@@ -7935,6 +10640,11 @@
       </c>
     </row>
     <row r="572">
+      <c r="A572" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B572" t="inlineStr">
         <is>
           <t>Yanga</t>
@@ -7948,6 +10658,11 @@
       </c>
     </row>
     <row r="573">
+      <c r="A573" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B573" t="inlineStr">
         <is>
           <t>Zaragoza</t>
@@ -7961,6 +10676,11 @@
       </c>
     </row>
     <row r="574">
+      <c r="A574" t="inlineStr">
+        <is>
+          <t>Veracruz De Ignacio De La Llave</t>
+        </is>
+      </c>
       <c r="B574" t="inlineStr">
         <is>
           <t>Total</t>
@@ -7992,6 +10712,11 @@
       </c>
     </row>
     <row r="576">
+      <c r="A576" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B576" t="inlineStr">
         <is>
           <t>Mérida</t>
@@ -8005,6 +10730,11 @@
       </c>
     </row>
     <row r="577">
+      <c r="A577" t="inlineStr">
+        <is>
+          <t>Yucatán</t>
+        </is>
+      </c>
       <c r="B577" t="inlineStr">
         <is>
           <t>Total</t>
@@ -8036,6 +10766,11 @@
       </c>
     </row>
     <row r="579">
+      <c r="A579" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B579" t="inlineStr">
         <is>
           <t>Guadalupe</t>
@@ -8049,6 +10784,11 @@
       </c>
     </row>
     <row r="580">
+      <c r="A580" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B580" t="inlineStr">
         <is>
           <t>Mazapil</t>
@@ -8062,6 +10802,11 @@
       </c>
     </row>
     <row r="581">
+      <c r="A581" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B581" t="inlineStr">
         <is>
           <t>Mezquital Del Oro</t>
@@ -8075,6 +10820,11 @@
       </c>
     </row>
     <row r="582">
+      <c r="A582" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B582" t="inlineStr">
         <is>
           <t>Pinos</t>
@@ -8088,6 +10838,11 @@
       </c>
     </row>
     <row r="583">
+      <c r="A583" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B583" t="inlineStr">
         <is>
           <t>Teúl De González Ortega</t>
@@ -8101,6 +10856,11 @@
       </c>
     </row>
     <row r="584">
+      <c r="A584" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B584" t="inlineStr">
         <is>
           <t>Trinidad García De La Cadena</t>
@@ -8114,6 +10874,11 @@
       </c>
     </row>
     <row r="585">
+      <c r="A585" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B585" t="inlineStr">
         <is>
           <t>Villa De Cos</t>
@@ -8127,6 +10892,11 @@
       </c>
     </row>
     <row r="586">
+      <c r="A586" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B586" t="inlineStr">
         <is>
           <t>Villa González Ortega</t>
@@ -8140,6 +10910,11 @@
       </c>
     </row>
     <row r="587">
+      <c r="A587" t="inlineStr">
+        <is>
+          <t>Zacatecas</t>
+        </is>
+      </c>
       <c r="B587" t="inlineStr">
         <is>
           <t>Total</t>
